--- a/WangLu-C3.xlsx
+++ b/WangLu-C3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\LearningforIELTS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0201927-1399-4AEE-AE14-65F244BD1447}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4945C9A2-C788-49D8-B36C-3D6910B87DF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2145" yWindow="60" windowWidth="14955" windowHeight="15540" xr2:uid="{1F624459-7E2D-4970-98F5-5115BA914221}"/>
+    <workbookView xWindow="2145" yWindow="60" windowWidth="17445" windowHeight="15540" xr2:uid="{1F624459-7E2D-4970-98F5-5115BA914221}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="418">
   <si>
     <t>Test1</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -872,6 +872,830 @@
   </si>
   <si>
     <t>ape</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Test2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cabinet</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cable</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>caffee</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cafertia</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cage</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>canbrage</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>can</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>camera</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>camp</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>campous</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>candle</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>candidate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>canteen</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>capital</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cobine</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>care</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>career</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cor</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cobin</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cathe</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cough</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cathedual</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cause</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cave</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cent</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>century</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cerficate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>chair</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>check</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>champ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>channel</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>chapter</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>charpter</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>character</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>charge</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>charity</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>char</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>chep</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>chochlate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cheeve</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cam</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>chest</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>chicken</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>child</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>chine</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>chocklate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>choice</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>chiage</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ciname</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>circle</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>city</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>clarity</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cleaner</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cleaning</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>clime</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cli</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>climate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>clock</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cloff</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>clothing</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>club</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>couch</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>couk</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>code</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>coat</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>color</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>colleage</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>college</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>commody</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>comercial</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>commuter</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>companion</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>company</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>complain</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>complex</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>computer</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>concert</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>conclusion</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>condition</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>conference</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>confidence</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>confimision</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>congestion</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>conquera</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>conquest</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>conversation</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>conservation</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>construction</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>con</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>consumption</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>contact</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>contan</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>contanmiation</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>confer</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>contract</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>contrac</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>contru</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>convenient</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cooperation</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>copy</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cooprtation</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>conponse</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cons</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>concage</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>couf</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>contoury</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cou</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>crack</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>crao</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cream</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cra</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>crick</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cresas</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>creadle</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>crock</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>crap</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ce</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>curtain</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>custome</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cus</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>damage</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>danger</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>data</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>date</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>day</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>deadline</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>debate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>café</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cafeteria</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cambridge</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>camel</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>campus</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>capsule</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>carbon</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>carpet</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>carving</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cashier</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>castle</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>category</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cathedral</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cents</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>certificate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>chance</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>chancellor</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>chart</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>chat</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>checklis</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>checks</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cheese</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>chemist's</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>chick</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>chin</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>chocolate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>church</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cinema</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>client</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cliffs</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>clinic</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cloth</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>coach</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>coast</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>coke</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cola</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>comedy</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>commercials</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>complaint</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>conferences</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>confirmation</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>conqueror</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>consultant</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>container</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>contaminants</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>contamination</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>content</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>continent</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>contracts</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>controversy</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>convenience</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cooperations</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cop</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>corporation</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>corpse</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>correspondence</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cost</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>costume</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cot</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cottage</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>council</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>country</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ourse</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>craft</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>credit</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>creek</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>crime</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>crisis</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>crocodile</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>crop</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cultivation</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>culture</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cup</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cupboard</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>customer</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cutlery</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cycle</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cycling</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -879,7 +1703,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -900,6 +1724,14 @@
       <sz val="9"/>
       <name val="等线"/>
       <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -926,11 +1758,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1247,16 +2082,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BAE91B8-730B-4C53-9857-BD1DCFBBBB40}">
-  <dimension ref="A1:D113"/>
+  <dimension ref="A1:D259"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D112" sqref="D112"/>
+    <sheetView tabSelected="1" topLeftCell="A247" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B259" sqref="B259"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
-    <col min="2" max="2" width="12.375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.625" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.5" customWidth="1"/>
     <col min="4" max="4" width="11.5" style="1" customWidth="1"/>
   </cols>
@@ -2402,6 +3237,972 @@
         <v>162</v>
       </c>
     </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>215</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>216</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
+        <v>218</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>219</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
+        <v>222</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B130" s="1" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
+        <v>227</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A133" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
+        <v>230</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
+        <v>231</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A136" t="s">
+        <v>232</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
+        <v>233</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A138" t="s">
+        <v>216</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A139" t="s">
+        <v>234</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A140" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A141" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A142" t="s">
+        <v>237</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A143" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A144" t="s">
+        <v>239</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A145" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A146" t="s">
+        <v>241</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A147" t="s">
+        <v>242</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A148" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A149" t="s">
+        <v>245</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A150" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A151" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A152" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A153" t="s">
+        <v>249</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A154" t="s">
+        <v>250</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A155" t="s">
+        <v>251</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A156" t="s">
+        <v>241</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A157" t="s">
+        <v>252</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A158" t="s">
+        <v>253</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A159" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A160" t="s">
+        <v>241</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A161" t="s">
+        <v>255</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A162" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A163" t="s">
+        <v>257</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A164" t="s">
+        <v>258</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A165" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A166" t="s">
+        <v>260</v>
+      </c>
+      <c r="B166" s="1" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A167" t="s">
+        <v>261</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A168" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A169" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A170" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A171" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A172" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A173" t="s">
+        <v>267</v>
+      </c>
+      <c r="B173" s="1" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A174" t="s">
+        <v>268</v>
+      </c>
+      <c r="B174" s="1" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A175" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A176" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A177" t="s">
+        <v>270</v>
+      </c>
+      <c r="B177" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A178" t="s">
+        <v>271</v>
+      </c>
+      <c r="B178" s="1" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B179" s="1" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A180" t="s">
+        <v>272</v>
+      </c>
+      <c r="B180" s="2"/>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A181" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A182" t="s">
+        <v>274</v>
+      </c>
+      <c r="B182" s="1" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A183" t="s">
+        <v>275</v>
+      </c>
+      <c r="B183" s="1" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A184" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A185" t="s">
+        <v>277</v>
+      </c>
+      <c r="B185" s="1" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A186" t="s">
+        <v>278</v>
+      </c>
+      <c r="B186" s="1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A187" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A188" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A189" t="s">
+        <v>281</v>
+      </c>
+      <c r="B189" s="1" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A190" t="s">
+        <v>282</v>
+      </c>
+      <c r="B190" s="1" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A191" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A192" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A193" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A194" t="s">
+        <v>286</v>
+      </c>
+      <c r="B194" s="1" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A195" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A196" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A197" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A198" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A199" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A200" t="s">
+        <v>292</v>
+      </c>
+      <c r="B200" s="1" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A201" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A202" t="s">
+        <v>294</v>
+      </c>
+      <c r="B202" s="1" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A203" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A204" t="s">
+        <v>296</v>
+      </c>
+      <c r="B204" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A205" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A206" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A207" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A208" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A209" t="s">
+        <v>301</v>
+      </c>
+      <c r="B209" s="1" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A210" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A211" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A212" t="s">
+        <v>301</v>
+      </c>
+      <c r="B212" s="1" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A213" t="s">
+        <v>304</v>
+      </c>
+      <c r="B213" s="1" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A214" t="s">
+        <v>305</v>
+      </c>
+      <c r="B214" s="1" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A215" t="s">
+        <v>301</v>
+      </c>
+      <c r="B215" s="1" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A216" t="s">
+        <v>306</v>
+      </c>
+      <c r="B216" s="1" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A217" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A218" t="s">
+        <v>308</v>
+      </c>
+      <c r="B218" s="1" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A219" t="s">
+        <v>309</v>
+      </c>
+      <c r="B219" s="1" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A220" t="s">
+        <v>310</v>
+      </c>
+      <c r="B220" s="1" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A221" t="s">
+        <v>311</v>
+      </c>
+      <c r="B221" s="1" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A222" t="s">
+        <v>233</v>
+      </c>
+      <c r="B222" s="1" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A223" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A224" t="s">
+        <v>313</v>
+      </c>
+      <c r="B224" s="1" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A225" t="s">
+        <v>233</v>
+      </c>
+      <c r="B225" s="1" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A226" t="s">
+        <v>314</v>
+      </c>
+      <c r="B226" s="1" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A227" t="s">
+        <v>301</v>
+      </c>
+      <c r="B227" s="1" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A228" t="s">
+        <v>315</v>
+      </c>
+      <c r="B228" s="1" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A229" t="s">
+        <v>301</v>
+      </c>
+      <c r="B229" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A230" t="s">
+        <v>316</v>
+      </c>
+      <c r="B230" s="1" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A231" t="s">
+        <v>317</v>
+      </c>
+      <c r="B231" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A232" t="s">
+        <v>301</v>
+      </c>
+      <c r="B232" s="1" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A233" t="s">
+        <v>318</v>
+      </c>
+      <c r="B233" s="1" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A234" t="s">
+        <v>319</v>
+      </c>
+      <c r="B234" s="1" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A235" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A236" t="s">
+        <v>321</v>
+      </c>
+      <c r="B236" s="1" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A237" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A238" t="s">
+        <v>323</v>
+      </c>
+      <c r="B238" s="1" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A239" t="s">
+        <v>324</v>
+      </c>
+      <c r="B239" s="1" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A240" t="s">
+        <v>322</v>
+      </c>
+      <c r="B240" s="1" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A241" t="s">
+        <v>325</v>
+      </c>
+      <c r="B241" s="1" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A242" t="s">
+        <v>326</v>
+      </c>
+      <c r="B242" s="1" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A243" t="s">
+        <v>327</v>
+      </c>
+      <c r="B243" s="1" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A244" t="s">
+        <v>299</v>
+      </c>
+      <c r="B244" s="1" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A245" t="s">
+        <v>301</v>
+      </c>
+      <c r="B245" s="1" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A246" t="s">
+        <v>328</v>
+      </c>
+      <c r="B246" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A247" t="s">
+        <v>329</v>
+      </c>
+      <c r="B247" s="1" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A248" t="s">
+        <v>330</v>
+      </c>
+      <c r="B248" s="1" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A249" t="s">
+        <v>331</v>
+      </c>
+      <c r="B249" s="1" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A250" t="s">
+        <v>332</v>
+      </c>
+      <c r="B250" s="1" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A251" t="s">
+        <v>262</v>
+      </c>
+      <c r="B251" s="1" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B252" s="1" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A253" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A254" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A255" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A256" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="257" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A257" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="258" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A258" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="259" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A259" t="s">
+        <v>339</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/WangLu-C3.xlsx
+++ b/WangLu-C3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\LearningforIELTS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4945C9A2-C788-49D8-B36C-3D6910B87DF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3269E5D-62E8-4E94-B24D-C871BE3F8973}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2145" yWindow="60" windowWidth="17445" windowHeight="15540" xr2:uid="{1F624459-7E2D-4970-98F5-5115BA914221}"/>
+    <workbookView xWindow="270" yWindow="30" windowWidth="17445" windowHeight="15540" xr2:uid="{1F624459-7E2D-4970-98F5-5115BA914221}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="418">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1075" uniqueCount="923">
   <si>
     <t>Test1</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1696,6 +1696,2025 @@
   </si>
   <si>
     <t>cycling</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Test3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>debt</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>decade</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>dtion</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>decline</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>decortion</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>delay</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>delegate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>delate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>delivary</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>demonstration</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>dentist</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>department</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>depo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>death</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>description</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>desert</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>design</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>designer</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>de</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>detail</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>destination</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>dairy</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>dictation</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>diet</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">dining </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>dinner</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>dioxide</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>director</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>directioon</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>disagreement</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>diso</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>displine</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>dissolve</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>disconvert</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>disc</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>discount</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>discovery</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>dease</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>dish</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>disorder</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>disfuse</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>distance</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>divorce</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>document</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>documentary</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>documention</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>donkey</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>drif</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>drama</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>draw</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>drawer</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>drink</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">drinking </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>driver</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>driving</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>drake</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>drom</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>du</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>durition</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>dust</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>duty</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>eagle</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ear</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>eat</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>eating</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ecomomy</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>editor</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>education</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>elbow</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>el</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>electricity</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>element</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>elevator</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>emotion</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>emperor</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>employee</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>employer</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ecitypid</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ending</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>energy</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>engine</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>engineer</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>en</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ecadamic</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>equipment</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ethic</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>evening</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>event</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>events</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>evidence</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>example</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ecdemination</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ecception</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>exchange</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>excitement</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ex</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>exfuse</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>exercise</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>exfision</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>existance</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>expansion</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>expend</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>experiment</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>explosion</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>exposition</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>explanation</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>exploer</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>extension</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>facility</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>factor</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>factory</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>decision</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>decorations</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>delight</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>delivery</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>deposit</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>depth</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>desire</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>desks</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>direction</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>disaster</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>discipliine</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>disco</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>discomfort</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>discos</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>disease</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>disposal</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>dispute</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>donation</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>draft</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>drug</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>drum</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>due</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>duration</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>east</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>economy</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>elder</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>elements</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>encyclopedia</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>energies</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>entrance</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>epidemic</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>examination</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>exception</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>excursion</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>excuse</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>exercises</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>exhibition</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>existing</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>expense</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>expert</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>exposure</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Test4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>faculty</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>failure</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fall</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fan</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fair</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>farm</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>farmer</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>farming</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fashion</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fact</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fa</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>farther</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>feature</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>feedback</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fellowship</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>female</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fery</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>festival</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>feel</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>film</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>finding</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>finger</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>firm</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fish</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fishing</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>flag</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>flash</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fla</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>flight</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fle</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>flinding</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>flower</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>floursih</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>flow</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fl</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fly</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>foristream</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>form</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>formular</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fortnight</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fortune</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fer</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>frgen</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fi</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>freshmen</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fruit</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fur</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>furniture</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>future</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>gallery</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>gap</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>garage</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>garbage</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>garden</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>garcelin</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>gender</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>gene</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>gesture</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>glass</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>goal</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>go</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>golf</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>grace</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>gra</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>graduate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>green</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>graf</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ground</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>grap</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>gr</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>guess</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>guy</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>gym</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>habbit</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>hand</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>handful</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>handelin</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>hangout</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>hap</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>heading</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>headache</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>help</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ha</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>har</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>h</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>hen</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>heart</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>hero</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>herone</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>heroine</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>hik</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>hiking</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>hink</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>history</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>he</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>heat</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>hobby</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>holiday</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>hot</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>hospital</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>housework</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>housing</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>household</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>hour</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>falcon</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fare</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fat</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>feast</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>feather</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ferries</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>field</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>figure</t>
+  </si>
+  <si>
+    <t>firms</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>flat</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>flood</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>flooding</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>flour</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>flourish</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>flu</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>forest</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>forestry</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>formula</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>foyer</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>freedom</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>freezer</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>freshman</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>gasoline</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>germ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>gold</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>grade</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>grades</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>graduates</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>grain</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>grass</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>group</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>growth</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>guest</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>guide</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>gulf</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>habit</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>handball</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>handbooks</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>handling</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>handout</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>hat</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>health</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>hearing</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>heating</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>herb</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>heroes</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>hike</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>hint</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>hints</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>historian</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>hit</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>hits</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>horse</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>households</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Test5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>hotel</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>hotline</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>hanting</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>idea</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>identification</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>identity</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>image</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>impact</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>import</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>inability</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>incomming</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>index</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>indist</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>infection</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>influence</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>information</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>injection</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>injury</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>inland</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>infect</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>in</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>insititute</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>institution</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>instructor</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>instri</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>intract</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Internet</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>interviewer</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>iintroduction</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>investagator</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>investment</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>inrigation</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>island</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>isolation</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>item</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>jacket</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>jam</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>j</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>journal</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>judge</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ju</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>junction</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>jou</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>keep</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>kelp</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>keyword</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>keywords</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>kid</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>keen</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>kill</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>kitchen</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ki</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>knef</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>knowledge</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>koala</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>k</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>lake</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>lamp</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>land</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>landmark</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>landscape</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>language</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>lab</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>lather</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>luther</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>lawyer</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>layer</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>lecture</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>lectural</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>le</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>lemon</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>link</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>lesson</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>level</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>library</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>leter</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>list</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>like</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>line</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>lion</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>lone</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>location</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>lot</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>loft</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>loyoty</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>l</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>lunch</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>lam</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>machine</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>magine</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ma</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>meal</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>majority</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>manager</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>m</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>manifact</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>map</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>mark</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>market</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>mash</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>mather</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>matching</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>material</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>measure</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>measurement</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>meet</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>media</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>medication</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>medicine</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>medium</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>method</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>microphone</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>micrition</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>mile</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>milege</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>milk</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>mind</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>mi</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>mill</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>minimen</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>minute</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>mixture</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>modal</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>money</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>month</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>motel</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>mountain</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>hunt</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>hunting</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>imports</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>incoming</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>industry</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>insect</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>insomnia</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>instruction</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>instrument</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>interest</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>investigator</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>irrigation</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>jaw</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>jeans</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>juice</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>junior</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>keeper</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>king</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>klosk</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>kit</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>kits</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>knife</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>laptop</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>laser</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>lava</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>lecturer</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>leisure</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>lender</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>length</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>letter</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>lift</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>light</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>lists</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>loan</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>lock</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>loss</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>lounge</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>loyalty</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>luck</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>lung</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>magazine</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>maid</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>mail</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>making</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>male</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>mane</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>manufacture</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>margin</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>marketing</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>marsh</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>master</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>mat</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>maturity</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>maximum</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>meat</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>migration</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>mileage</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>mine</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>mineral</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>minimum</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>model</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>monopoly</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>mood</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>morality</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>mosquito</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2082,10 +4101,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BAE91B8-730B-4C53-9857-BD1DCFBBBB40}">
-  <dimension ref="A1:D259"/>
+  <dimension ref="A1:D635"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A247" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B259" sqref="B259"/>
+    <sheetView tabSelected="1" topLeftCell="A627" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="A637" sqref="A637"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4188,19 +6207,2400 @@
         <v>336</v>
       </c>
     </row>
-    <row r="257" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="258" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="259" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>339</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A261" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A262" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A263" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A264" t="s">
+        <v>421</v>
+      </c>
+      <c r="B264" s="1" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A265" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A266" t="s">
+        <v>423</v>
+      </c>
+      <c r="B266" s="1" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A267" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A268" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A269" t="s">
+        <v>426</v>
+      </c>
+      <c r="B269" s="1" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A270" t="s">
+        <v>427</v>
+      </c>
+      <c r="B270" s="1" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A271" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A272" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A273" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A274" t="s">
+        <v>431</v>
+      </c>
+      <c r="B274" s="1" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A275" t="s">
+        <v>432</v>
+      </c>
+      <c r="B275" s="1" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A276" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A277" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A278" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A279" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A280" t="s">
+        <v>436</v>
+      </c>
+      <c r="B280" s="1" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A281" t="s">
+        <v>437</v>
+      </c>
+      <c r="B281" s="1" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A282" t="s">
+        <v>439</v>
+      </c>
+      <c r="B282" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A283" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A284" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A285" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A286" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A287" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A288" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A289" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A290" t="s">
+        <v>447</v>
+      </c>
+      <c r="B290" s="1" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A291" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A292" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A293" t="s">
+        <v>449</v>
+      </c>
+      <c r="B293" s="1" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A294" t="s">
+        <v>450</v>
+      </c>
+      <c r="B294" s="1" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A295" t="s">
+        <v>451</v>
+      </c>
+      <c r="B295" s="1" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A296" t="s">
+        <v>452</v>
+      </c>
+      <c r="B296" s="1" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A297" t="s">
+        <v>453</v>
+      </c>
+      <c r="B297" s="1" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A298" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A299" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A300" t="s">
+        <v>456</v>
+      </c>
+      <c r="B300" s="1" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A301" t="s">
+        <v>457</v>
+      </c>
+      <c r="B301" s="1" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A302" t="s">
+        <v>458</v>
+      </c>
+      <c r="B302" s="1" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A303" t="s">
+        <v>459</v>
+      </c>
+      <c r="B303" s="1" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A304" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A305" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A306" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A307" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A308" t="s">
+        <v>464</v>
+      </c>
+      <c r="B308" s="1" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A309" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A310" t="s">
+        <v>466</v>
+      </c>
+      <c r="B310" s="1" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A311" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A312" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A313" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A314" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A315" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A316" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A317" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A318" t="s">
+        <v>474</v>
+      </c>
+      <c r="B318" s="1" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A319" t="s">
+        <v>475</v>
+      </c>
+      <c r="B319" s="1" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A320" t="s">
+        <v>476</v>
+      </c>
+      <c r="B320" s="1" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A321" t="s">
+        <v>477</v>
+      </c>
+      <c r="B321" s="1" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A322" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A323" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A324" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A325" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A326" t="s">
+        <v>482</v>
+      </c>
+      <c r="B326" s="1" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A327" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A328" t="s">
+        <v>484</v>
+      </c>
+      <c r="B328" s="1" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A329" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A330" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A331" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A332" t="s">
+        <v>488</v>
+      </c>
+      <c r="B332" s="1" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A333" t="s">
+        <v>489</v>
+      </c>
+      <c r="B333" s="1" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A334" t="s">
+        <v>490</v>
+      </c>
+      <c r="B334" s="1" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A335" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A336" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A337" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A338" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A339" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A340" t="s">
+        <v>496</v>
+      </c>
+      <c r="B340" s="1" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A341" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A342" t="s">
+        <v>498</v>
+      </c>
+      <c r="B342" s="1" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A343" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A344" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A345" t="s">
+        <v>501</v>
+      </c>
+      <c r="B345" s="1" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A346" t="s">
+        <v>502</v>
+      </c>
+      <c r="B346" s="1" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A347" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="348" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A348" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A349" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A350" t="s">
+        <v>507</v>
+      </c>
+      <c r="B350" s="1" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A351" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A352" t="s">
+        <v>510</v>
+      </c>
+      <c r="B352" s="1" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A353" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A354" t="s">
+        <v>511</v>
+      </c>
+      <c r="B354" s="1" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A355" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A356" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="357" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A357" t="s">
+        <v>514</v>
+      </c>
+      <c r="B357" s="1" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="358" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A358" t="s">
+        <v>515</v>
+      </c>
+      <c r="B358" s="1" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="359" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A359" t="s">
+        <v>516</v>
+      </c>
+      <c r="B359" s="1" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A360" t="s">
+        <v>517</v>
+      </c>
+      <c r="B360" s="1" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A361" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="362" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A362" t="s">
+        <v>514</v>
+      </c>
+      <c r="B362" s="1" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="363" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A363" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="364" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A364" t="s">
+        <v>520</v>
+      </c>
+      <c r="B364" s="1" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="365" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A365" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="366" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A366" t="s">
+        <v>514</v>
+      </c>
+      <c r="B366" s="1" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="367" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A367" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="368" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A368" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="369" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A369" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="370" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A370" t="s">
+        <v>525</v>
+      </c>
+      <c r="B370" s="1" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="371" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A371" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="372" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A372" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="373" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A373" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="374" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A374" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="376" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A376" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="377" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A377" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="378" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A378" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="379" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A379" t="s">
+        <v>574</v>
+      </c>
+      <c r="B379" s="1" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="380" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A380" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="381" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A381" t="s">
+        <v>576</v>
+      </c>
+      <c r="B381" s="1" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="382" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A382" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="383" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A383" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="384" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A384" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="385" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A385" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="386" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A386" t="s">
+        <v>581</v>
+      </c>
+      <c r="B386" s="1" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="387" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A387" t="s">
+        <v>582</v>
+      </c>
+      <c r="B387" s="1" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="388" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A388" t="s">
+        <v>583</v>
+      </c>
+      <c r="B388" s="1" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="389" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A389" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="390" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A390" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="391" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A391" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="392" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A392" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="393" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A393" t="s">
+        <v>588</v>
+      </c>
+      <c r="B393" s="1" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="394" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A394" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="395" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A395" t="s">
+        <v>590</v>
+      </c>
+      <c r="B395" s="1" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="396" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B396" s="1" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="397" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A397" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="398" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A398" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="399" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A399" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="400" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A400" t="s">
+        <v>594</v>
+      </c>
+      <c r="B400" s="1" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="401" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A401" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="402" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A402" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="403" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A403" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="404" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A404" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="405" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A405" t="s">
+        <v>599</v>
+      </c>
+      <c r="B405" s="1" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="406" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A406" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="407" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A407" t="s">
+        <v>601</v>
+      </c>
+      <c r="B407" s="1" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="408" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A408" t="s">
+        <v>602</v>
+      </c>
+      <c r="B408" s="1" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="409" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A409" t="s">
+        <v>603</v>
+      </c>
+      <c r="B409" s="1" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="410" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A410" t="s">
+        <v>604</v>
+      </c>
+      <c r="B410" s="1" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="411" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A411" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="412" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A412" t="s">
+        <v>606</v>
+      </c>
+      <c r="B412" s="1" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="413" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A413" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="414" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B414" s="1" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="415" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A415" t="s">
+        <v>608</v>
+      </c>
+      <c r="B415" s="1" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="416" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A416" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="417" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A417" t="s">
+        <v>610</v>
+      </c>
+      <c r="B417" s="1" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="418" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A418" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="419" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A419" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="420" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A420" t="s">
+        <v>613</v>
+      </c>
+      <c r="B420" s="1" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="421" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A421" t="s">
+        <v>614</v>
+      </c>
+      <c r="B421" s="1" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="422" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A422" t="s">
+        <v>615</v>
+      </c>
+      <c r="B422" s="1" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="423" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A423" t="s">
+        <v>616</v>
+      </c>
+      <c r="B423" s="1" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="424" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A424" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="425" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A425" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="426" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A426" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="427" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A427" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="428" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A428" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="429" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A429" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="430" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A430" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="431" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A431" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="432" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A432" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="433" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A433" t="s">
+        <v>626</v>
+      </c>
+      <c r="B433" s="1" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="434" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A434" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="435" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A435" t="s">
+        <v>628</v>
+      </c>
+      <c r="B435" s="1" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="436" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A436" t="s">
+        <v>629</v>
+      </c>
+      <c r="B436" s="1" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="437" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A437" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="438" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A438" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="439" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A439" t="s">
+        <v>632</v>
+      </c>
+      <c r="B439" s="1" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="440" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A440" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="441" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A441" t="s">
+        <v>634</v>
+      </c>
+      <c r="B441" s="1" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="442" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A442" t="s">
+        <v>635</v>
+      </c>
+      <c r="B442" s="1" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="443" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A443" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="444" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A444" t="s">
+        <v>636</v>
+      </c>
+      <c r="B444" s="1" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="445" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A445" t="s">
+        <v>637</v>
+      </c>
+      <c r="B445" s="1" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="446" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A446" t="s">
+        <v>638</v>
+      </c>
+      <c r="B446" s="1" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="447" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A447" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="448" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A448" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="449" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A449" t="s">
+        <v>640</v>
+      </c>
+      <c r="B449" s="1" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="450" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A450" t="s">
+        <v>641</v>
+      </c>
+      <c r="B450" s="1" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="451" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A451" t="s">
+        <v>642</v>
+      </c>
+      <c r="B451" s="1" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="452" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A452" t="s">
+        <v>643</v>
+      </c>
+      <c r="B452" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="453" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A453" t="s">
+        <v>633</v>
+      </c>
+      <c r="B453" s="1" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="454" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A454" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="455" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A455" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="456" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A456" t="s">
+        <v>645</v>
+      </c>
+      <c r="B456" s="1" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="457" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A457" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="458" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A458" t="s">
+        <v>647</v>
+      </c>
+      <c r="B458" s="1" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="459" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A459" t="s">
+        <v>646</v>
+      </c>
+      <c r="B459" s="1" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="460" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A460" t="s">
+        <v>648</v>
+      </c>
+      <c r="B460" s="1" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="461" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A461" t="s">
+        <v>649</v>
+      </c>
+      <c r="B461" s="1" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="462" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A462" t="s">
+        <v>650</v>
+      </c>
+      <c r="B462" s="1" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="463" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A463" t="s">
+        <v>652</v>
+      </c>
+      <c r="B463" s="1" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="464" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A464" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="465" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A465" t="s">
+        <v>653</v>
+      </c>
+      <c r="B465" s="1" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="466" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A466" t="s">
+        <v>654</v>
+      </c>
+      <c r="B466" s="1" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="467" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A467" t="s">
+        <v>655</v>
+      </c>
+      <c r="B467" s="1" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="468" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A468" t="s">
+        <v>656</v>
+      </c>
+      <c r="B468" s="1" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="469" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A469" t="s">
+        <v>657</v>
+      </c>
+      <c r="B469" s="1" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="470" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A470" t="s">
+        <v>658</v>
+      </c>
+      <c r="B470" s="1" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="471" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A471" t="s">
+        <v>659</v>
+      </c>
+      <c r="B471" s="1" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="472" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A472" t="s">
+        <v>660</v>
+      </c>
+      <c r="B472" s="1" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="473" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A473" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="474" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A474" t="s">
+        <v>662</v>
+      </c>
+      <c r="B474" s="1" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="475" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A475" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="476" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A476" t="s">
+        <v>664</v>
+      </c>
+      <c r="B476" s="1" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="477" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A477" t="s">
+        <v>664</v>
+      </c>
+      <c r="B477" s="1" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="478" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A478" t="s">
+        <v>665</v>
+      </c>
+      <c r="B478" s="1" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="479" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A479" t="s">
+        <v>666</v>
+      </c>
+      <c r="B479" s="1" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="480" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A480" t="s">
+        <v>667</v>
+      </c>
+      <c r="B480" s="1" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="481" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A481" t="s">
+        <v>668</v>
+      </c>
+      <c r="B481" s="1" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="482" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A482" t="s">
+        <v>669</v>
+      </c>
+      <c r="B482" s="1" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="483" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A483" t="s">
+        <v>670</v>
+      </c>
+      <c r="B483" s="1" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="484" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A484" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="485" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A485" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="486" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A486" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="487" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A487" t="s">
+        <v>674</v>
+      </c>
+      <c r="B487" s="1" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="488" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A488" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="490" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A490" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="491" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A491" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="492" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A492" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="493" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A493" t="s">
+        <v>656</v>
+      </c>
+      <c r="B493" s="1" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="494" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A494" t="s">
+        <v>733</v>
+      </c>
+      <c r="B494" s="1" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="495" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A495" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="496" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A496" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="497" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A497" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="498" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A498" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="499" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A499" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="500" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A500" t="s">
+        <v>739</v>
+      </c>
+      <c r="B500" s="1" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="501" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A501" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="502" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A502" t="s">
+        <v>741</v>
+      </c>
+      <c r="B502" s="1" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="503" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A503" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="504" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A504" t="s">
+        <v>743</v>
+      </c>
+      <c r="B504" s="1" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="505" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A505" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="506" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A506" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="507" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A507" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="508" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A508" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="509" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A509" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="510" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A510" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="511" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A511" t="s">
+        <v>750</v>
+      </c>
+      <c r="B511" s="1" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="512" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A512" t="s">
+        <v>751</v>
+      </c>
+      <c r="B512" s="1" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="513" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A513" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="514" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A514" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="515" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A515" t="s">
+        <v>751</v>
+      </c>
+      <c r="B515" s="1" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="516" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A516" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="517" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A517" t="s">
+        <v>755</v>
+      </c>
+      <c r="B517" s="1" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="518" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A518" t="s">
+        <v>756</v>
+      </c>
+      <c r="B518" s="1" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="519" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A519" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="520" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A520" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="521" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A521" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="522" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A522" t="s">
+        <v>760</v>
+      </c>
+      <c r="B522" s="1" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="523" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A523" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="524" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A524" t="s">
+        <v>762</v>
+      </c>
+      <c r="B524" s="1" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="525" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A525" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="526" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A526" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="527" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A527" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="528" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A528" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="529" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A529" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="530" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A530" t="s">
+        <v>768</v>
+      </c>
+      <c r="B530" s="1" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="531" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A531" t="s">
+        <v>767</v>
+      </c>
+      <c r="B531" s="1" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="532" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A532" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="533" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A533" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="534" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A534" t="s">
+        <v>771</v>
+      </c>
+      <c r="B534" s="1" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="535" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A535" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="536" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A536" t="s">
+        <v>773</v>
+      </c>
+      <c r="B536" s="1" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="537" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A537" t="s">
+        <v>774</v>
+      </c>
+      <c r="B537" s="1" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="538" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A538" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="539" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A539" t="s">
+        <v>777</v>
+      </c>
+      <c r="B539" s="1" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="540" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A540" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="541" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A541" t="s">
+        <v>779</v>
+      </c>
+      <c r="B541" s="1" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="542" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A542" t="s">
+        <v>780</v>
+      </c>
+      <c r="B542" s="1" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="543" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A543" t="s">
+        <v>778</v>
+      </c>
+      <c r="B543" s="1" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="544" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A544" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="545" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A545" t="s">
+        <v>782</v>
+      </c>
+      <c r="B545" s="1" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="546" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A546" t="s">
+        <v>783</v>
+      </c>
+      <c r="B546" s="1" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="547" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A547" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="548" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A548" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="549" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A549" t="s">
+        <v>786</v>
+      </c>
+      <c r="B549" s="1" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="550" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A550" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="551" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A551" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="552" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A552" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="553" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A553" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="554" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A554" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="555" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A555" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="556" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A556" t="s">
+        <v>793</v>
+      </c>
+      <c r="B556" s="1" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="557" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A557" t="s">
+        <v>794</v>
+      </c>
+      <c r="B557" s="1" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="558" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A558" t="s">
+        <v>795</v>
+      </c>
+      <c r="B558" s="1" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="559" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A559" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="560" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A560" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="561" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A561" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="562" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A562" t="s">
+        <v>799</v>
+      </c>
+      <c r="B562" s="1" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="563" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A563" t="s">
+        <v>800</v>
+      </c>
+      <c r="B563" s="1" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="564" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A564" t="s">
+        <v>801</v>
+      </c>
+      <c r="B564" s="1" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="565" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A565" t="s">
+        <v>800</v>
+      </c>
+      <c r="B565" s="1" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="566" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A566" t="s">
+        <v>802</v>
+      </c>
+      <c r="B566" s="1" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="567" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A567" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="568" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A568" t="s">
+        <v>806</v>
+      </c>
+      <c r="B568" s="1" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="569" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A569" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="570" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A570" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="571" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A571" t="s">
+        <v>807</v>
+      </c>
+      <c r="B571" s="1" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="572" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A572" t="s">
+        <v>808</v>
+      </c>
+      <c r="B572" s="1" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="573" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A573" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="574" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A574" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="575" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A575" t="s">
+        <v>807</v>
+      </c>
+      <c r="B575" s="1" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="576" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A576" t="s">
+        <v>811</v>
+      </c>
+      <c r="B576" s="1" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="577" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A577" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="578" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A578" t="s">
+        <v>813</v>
+      </c>
+      <c r="B578" s="1" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="579" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A579" t="s">
+        <v>814</v>
+      </c>
+      <c r="B579" s="1" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="580" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A580" t="s">
+        <v>811</v>
+      </c>
+      <c r="B580" s="1" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="581" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A581" t="s">
+        <v>815</v>
+      </c>
+      <c r="B581" s="1" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="582" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A582" t="s">
+        <v>816</v>
+      </c>
+      <c r="B582" s="1" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="583" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A583" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="584" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A584" t="s">
+        <v>818</v>
+      </c>
+      <c r="B584" s="1" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="585" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A585" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="586" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A586" t="s">
+        <v>820</v>
+      </c>
+      <c r="B586" s="1" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="587" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A587" t="s">
+        <v>821</v>
+      </c>
+      <c r="B587" s="1" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="588" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A588" t="s">
+        <v>822</v>
+      </c>
+      <c r="B588" s="1" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="589" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A589" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="590" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A590" t="s">
+        <v>821</v>
+      </c>
+      <c r="B590" s="1" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="591" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A591" t="s">
+        <v>822</v>
+      </c>
+      <c r="B591" s="1" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="592" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A592" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="593" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A593" t="s">
+        <v>825</v>
+      </c>
+      <c r="B593" s="1" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="594" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A594" t="s">
+        <v>826</v>
+      </c>
+      <c r="B594" s="1" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="595" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A595" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="596" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A596" t="s">
+        <v>821</v>
+      </c>
+      <c r="B596" s="1" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="597" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A597" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="598" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A598" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="599" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A599" t="s">
+        <v>828</v>
+      </c>
+      <c r="B599" s="1" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="600" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A600" t="s">
+        <v>830</v>
+      </c>
+      <c r="B600" s="1" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="601" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A601" t="s">
+        <v>831</v>
+      </c>
+      <c r="B601" s="1" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="602" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A602" t="s">
+        <v>825</v>
+      </c>
+      <c r="B602" s="1" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="603" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A603" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="604" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A604" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="605" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A605" t="s">
+        <v>821</v>
+      </c>
+      <c r="B605" s="1" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="606" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A606" t="s">
+        <v>821</v>
+      </c>
+      <c r="B606" s="1" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="607" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A607" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="608" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A608" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="609" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A609" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="610" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A610" t="s">
+        <v>836</v>
+      </c>
+      <c r="B610" s="1" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="611" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A611" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="612" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A612" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="613" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A613" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="614" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A614" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="615" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A615" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="616" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A616" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="617" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A617" t="s">
+        <v>843</v>
+      </c>
+      <c r="B617" s="1" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="618" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A618" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="619" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A619" t="s">
+        <v>845</v>
+      </c>
+      <c r="B619" s="1" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="620" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A620" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="621" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A621" t="s">
+        <v>847</v>
+      </c>
+      <c r="B621" s="1" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="622" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A622" t="s">
+        <v>848</v>
+      </c>
+      <c r="B622" s="1" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="623" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A623" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="624" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A624" t="s">
+        <v>850</v>
+      </c>
+      <c r="B624" s="1" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="625" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A625" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="626" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A626" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="627" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A627" t="s">
+        <v>853</v>
+      </c>
+      <c r="B627" s="1" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="628" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A628" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="629" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A629" t="s">
+        <v>825</v>
+      </c>
+      <c r="B629" s="1" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="630" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A630" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="631" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A631" t="s">
+        <v>848</v>
+      </c>
+      <c r="B631" s="1" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="632" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A632" t="s">
+        <v>848</v>
+      </c>
+      <c r="B632" s="1" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="633" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A633" t="s">
+        <v>825</v>
+      </c>
+      <c r="B633" s="1" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="634" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A634" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="635" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A635" t="s">
+        <v>857</v>
       </c>
     </row>
   </sheetData>

--- a/WangLu-C3.xlsx
+++ b/WangLu-C3.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25831"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\LearningforIELTS\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02A017DD-1B31-474D-9CE6-652370994E56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="21000" windowHeight="11190"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1076" uniqueCount="887">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1228" uniqueCount="1030">
   <si>
     <t>Test1</t>
   </si>
@@ -2675,19 +2681,585 @@
   </si>
   <si>
     <t>mountain</t>
+  </si>
+  <si>
+    <t>Test6</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>mosta</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>mouth</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>movie</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>museum</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>music</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>musical</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>muscle</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>nap</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>nature</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>musition</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>not</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>neck</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>net</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>newspaper</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>noise</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>northeast</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>north</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>northwest</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>nose</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>note</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>notice</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>nurse</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>nurser</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>nurthing</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>no</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>nutrition</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>objective</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>osscation</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ocu</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ocean</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>oculist</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>wintment</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>option</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>order</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ordinary</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>organizer</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>original</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>outline</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>over</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>owner</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>package</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>page</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>painting</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>paint</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>pair</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>pawl</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>palace</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>panic</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>paper</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>passive</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>parent</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>part</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>parking</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>participant</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>pa</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>passenger</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>passtime</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>patient</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>payment</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>padestrin</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>progo</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>pressent</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>period</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>periodical</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>permit</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>person</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>personality</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>patrol</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>patroline</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>photo</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>photography</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ph</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>phi</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>p</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>piano</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>picnic</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>picture</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>pull</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>pink</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>place</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>placement</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>plan</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>plans</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>plant</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>planting</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>plastic</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>pl</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>player</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>playground</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>pocket</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>point</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>plint</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>pluten</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>pollution</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>pollute</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>position</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>pot</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>porticular</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>moustache</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>musician</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>naught=nought</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>night</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>nursery</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>nursing</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>nut</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>occupant</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ointment</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>overdraft</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ownership</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Oxford</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>pal</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>parcel</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>park</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>passages</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>pastime</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>pedestrian</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>pension</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>pensioners</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>percent</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>performer</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>perfume</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>perk</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>pet</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>petrol</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>petroleum</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>philosopher</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>photograph</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>physician</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>physics</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>pianist</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>pie</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>pill</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>planners</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>plate</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>pleasure</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>police</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>poll</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>pollutant</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>port</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>post</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>postgraduate</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>particulars</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="23">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2710,352 +3282,37 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="9"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -3063,255 +3320,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3321,62 +3336,24 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -3634,19 +3611,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:D637"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D750"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" topLeftCell="A631" workbookViewId="0">
-      <selection activeCell="A638" sqref="A638"/>
+    <sheetView tabSelected="1" topLeftCell="A731" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="A752" sqref="A752"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
     <col min="2" max="2" width="16.625" style="1" customWidth="1"/>
@@ -3654,12 +3631,12 @@
     <col min="4" max="4" width="11.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -3667,7 +3644,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -3675,7 +3652,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -3686,7 +3663,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -3694,7 +3671,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -3702,7 +3679,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -3710,7 +3687,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -3718,7 +3695,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -3726,7 +3703,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -3734,7 +3711,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -3742,7 +3719,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="2:3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
         <v>12</v>
       </c>
@@ -3750,7 +3727,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -3761,7 +3738,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>16</v>
       </c>
@@ -3769,7 +3746,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -3777,7 +3754,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>18</v>
       </c>
@@ -3785,7 +3762,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -3793,7 +3770,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -3801,7 +3778,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>21</v>
       </c>
@@ -3815,7 +3792,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -3823,7 +3800,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -3831,7 +3808,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>25</v>
       </c>
@@ -3842,7 +3819,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>27</v>
       </c>
@@ -3850,7 +3827,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>28</v>
       </c>
@@ -3861,7 +3838,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>30</v>
       </c>
@@ -3872,7 +3849,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>32</v>
       </c>
@@ -3880,7 +3857,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>33</v>
       </c>
@@ -3891,7 +3868,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>35</v>
       </c>
@@ -3905,7 +3882,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>38</v>
       </c>
@@ -3916,7 +3893,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>40</v>
       </c>
@@ -3927,7 +3904,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>42</v>
       </c>
@@ -3941,7 +3918,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>44</v>
       </c>
@@ -3952,7 +3929,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>46</v>
       </c>
@@ -3960,7 +3937,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>47</v>
       </c>
@@ -3971,7 +3948,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>49</v>
       </c>
@@ -3982,7 +3959,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>51</v>
       </c>
@@ -3996,7 +3973,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>55</v>
       </c>
@@ -4007,7 +3984,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>57</v>
       </c>
@@ -4015,7 +3992,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>58</v>
       </c>
@@ -4023,7 +4000,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>59</v>
       </c>
@@ -4034,7 +4011,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>61</v>
       </c>
@@ -4042,7 +4019,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>62</v>
       </c>
@@ -4050,7 +4027,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>63</v>
       </c>
@@ -4061,7 +4038,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>65</v>
       </c>
@@ -4069,7 +4046,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>66</v>
       </c>
@@ -4080,7 +4057,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>68</v>
       </c>
@@ -4091,7 +4068,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>70</v>
       </c>
@@ -4102,7 +4079,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>72</v>
       </c>
@@ -4110,7 +4087,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>73</v>
       </c>
@@ -4121,7 +4098,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>75</v>
       </c>
@@ -4132,7 +4109,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>77</v>
       </c>
@@ -4143,7 +4120,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>79</v>
       </c>
@@ -4154,7 +4131,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="53" spans="2:3">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B53" s="1" t="s">
         <v>81</v>
       </c>
@@ -4162,7 +4139,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>82</v>
       </c>
@@ -4173,7 +4150,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="55" spans="1:4">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>21</v>
       </c>
@@ -4187,7 +4164,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>86</v>
       </c>
@@ -4195,7 +4172,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>87</v>
       </c>
@@ -4203,7 +4180,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>88</v>
       </c>
@@ -4214,7 +4191,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="59" spans="2:4">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B59" s="1" t="s">
         <v>90</v>
       </c>
@@ -4222,7 +4199,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>91</v>
       </c>
@@ -4230,7 +4207,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>92</v>
       </c>
@@ -4238,7 +4215,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="62" spans="2:3">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B62" s="1" t="s">
         <v>93</v>
       </c>
@@ -4246,7 +4223,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>94</v>
       </c>
@@ -4254,7 +4231,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>95</v>
       </c>
@@ -4265,7 +4242,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="65" spans="1:4">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>94</v>
       </c>
@@ -4279,7 +4256,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>99</v>
       </c>
@@ -4287,7 +4264,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>99</v>
       </c>
@@ -4298,7 +4275,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>101</v>
       </c>
@@ -4309,7 +4286,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>103</v>
       </c>
@@ -4317,7 +4294,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="70" spans="1:4">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>104</v>
       </c>
@@ -4328,7 +4305,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="71" spans="1:4">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>105</v>
       </c>
@@ -4339,7 +4316,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>106</v>
       </c>
@@ -4350,7 +4327,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="73" spans="1:4">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>108</v>
       </c>
@@ -4364,7 +4341,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>107</v>
       </c>
@@ -4375,7 +4352,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>111</v>
       </c>
@@ -4383,7 +4360,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>112</v>
       </c>
@@ -4391,7 +4368,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>113</v>
       </c>
@@ -4402,7 +4379,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>115</v>
       </c>
@@ -4410,7 +4387,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>91</v>
       </c>
@@ -4421,7 +4398,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>117</v>
       </c>
@@ -4429,7 +4406,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>118</v>
       </c>
@@ -4440,7 +4417,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="82" spans="1:3">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>116</v>
       </c>
@@ -4451,7 +4428,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="83" spans="1:4">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>121</v>
       </c>
@@ -4465,7 +4442,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="84" spans="1:4">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>116</v>
       </c>
@@ -4476,7 +4453,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>125</v>
       </c>
@@ -4484,7 +4461,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="86" spans="1:4">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>126</v>
       </c>
@@ -4498,7 +4475,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="87" spans="1:3">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>129</v>
       </c>
@@ -4509,7 +4486,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="88" spans="1:3">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>131</v>
       </c>
@@ -4517,7 +4494,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="89" spans="1:3">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>132</v>
       </c>
@@ -4528,7 +4505,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="90" spans="1:3">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>134</v>
       </c>
@@ -4539,7 +4516,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="91" spans="1:3">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>136</v>
       </c>
@@ -4547,7 +4524,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="92" spans="1:4">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>138</v>
       </c>
@@ -4561,7 +4538,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="93" spans="1:3">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>140</v>
       </c>
@@ -4569,7 +4546,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="94" spans="1:4">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>141</v>
       </c>
@@ -4583,7 +4560,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="95" spans="1:3">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>144</v>
       </c>
@@ -4594,7 +4571,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="96" spans="1:4">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>146</v>
       </c>
@@ -4608,7 +4585,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="97" spans="1:3">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>147</v>
       </c>
@@ -4619,7 +4596,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="98" spans="1:3">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>149</v>
       </c>
@@ -4630,7 +4607,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="99" spans="1:3">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>151</v>
       </c>
@@ -4641,7 +4618,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="100" spans="1:3">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>147</v>
       </c>
@@ -4652,7 +4629,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="101" spans="1:3">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>154</v>
       </c>
@@ -4663,7 +4640,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="102" spans="1:3">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>156</v>
       </c>
@@ -4674,7 +4651,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="103" spans="1:3">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>158</v>
       </c>
@@ -4685,7 +4662,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="104" spans="1:3">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>160</v>
       </c>
@@ -4693,7 +4670,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="105" spans="1:4">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>161</v>
       </c>
@@ -4707,7 +4684,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="106" spans="1:3">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>164</v>
       </c>
@@ -4718,7 +4695,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="107" spans="1:4">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>165</v>
       </c>
@@ -4732,7 +4709,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="108" spans="1:3">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>168</v>
       </c>
@@ -4740,7 +4717,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="109" spans="1:4">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>169</v>
       </c>
@@ -4754,7 +4731,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="110" spans="1:3">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>172</v>
       </c>
@@ -4762,7 +4739,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="111" spans="1:3">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>171</v>
       </c>
@@ -4770,7 +4747,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="112" spans="1:4">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>107</v>
       </c>
@@ -4784,7 +4761,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="113" spans="1:3">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>174</v>
       </c>
@@ -4795,22 +4772,22 @@
         <v>175</v>
       </c>
     </row>
-    <row r="115" spans="1:1">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="116" spans="1:1">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="117" spans="1:1">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="118" spans="1:2">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>179</v>
       </c>
@@ -4818,7 +4795,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="119" spans="1:2">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>181</v>
       </c>
@@ -4826,12 +4803,12 @@
         <v>182</v>
       </c>
     </row>
-    <row r="120" spans="1:1">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="121" spans="1:2">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>184</v>
       </c>
@@ -4839,7 +4816,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="122" spans="1:2">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>186</v>
       </c>
@@ -4847,17 +4824,17 @@
         <v>187</v>
       </c>
     </row>
-    <row r="123" spans="1:1">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="124" spans="1:1">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="125" spans="1:2">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>190</v>
       </c>
@@ -4865,32 +4842,32 @@
         <v>191</v>
       </c>
     </row>
-    <row r="126" spans="1:1">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="127" spans="1:1">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="128" spans="1:1">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="129" spans="1:1">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="130" spans="2:2">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B130" s="1" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="131" spans="1:2">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>197</v>
       </c>
@@ -4898,17 +4875,17 @@
         <v>198</v>
       </c>
     </row>
-    <row r="132" spans="1:1">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="133" spans="1:1">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="134" spans="1:2">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>201</v>
       </c>
@@ -4916,7 +4893,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="135" spans="1:2">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>203</v>
       </c>
@@ -4924,7 +4901,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="136" spans="1:2">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>205</v>
       </c>
@@ -4932,7 +4909,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="137" spans="1:2">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>207</v>
       </c>
@@ -4940,7 +4917,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="138" spans="1:2">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>181</v>
       </c>
@@ -4948,7 +4925,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="139" spans="1:2">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>210</v>
       </c>
@@ -4956,17 +4933,17 @@
         <v>211</v>
       </c>
     </row>
-    <row r="140" spans="1:1">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="141" spans="1:1">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="142" spans="1:2">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>214</v>
       </c>
@@ -4974,12 +4951,12 @@
         <v>215</v>
       </c>
     </row>
-    <row r="143" spans="1:1">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="144" spans="1:2">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>217</v>
       </c>
@@ -4987,12 +4964,12 @@
         <v>218</v>
       </c>
     </row>
-    <row r="145" spans="1:1">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="146" spans="1:2">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>220</v>
       </c>
@@ -5000,7 +4977,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="147" spans="1:2">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>222</v>
       </c>
@@ -5008,12 +4985,12 @@
         <v>223</v>
       </c>
     </row>
-    <row r="148" spans="1:1">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="149" spans="1:2">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>225</v>
       </c>
@@ -5021,22 +4998,22 @@
         <v>226</v>
       </c>
     </row>
-    <row r="150" spans="1:1">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="151" spans="1:1">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="152" spans="1:1">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="153" spans="1:2">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>230</v>
       </c>
@@ -5044,7 +5021,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="154" spans="1:2">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>232</v>
       </c>
@@ -5052,7 +5029,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="155" spans="1:2">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>234</v>
       </c>
@@ -5060,7 +5037,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="156" spans="1:2">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>220</v>
       </c>
@@ -5068,7 +5045,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="157" spans="1:2">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>237</v>
       </c>
@@ -5076,7 +5053,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="158" spans="1:2">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>239</v>
       </c>
@@ -5084,12 +5061,12 @@
         <v>240</v>
       </c>
     </row>
-    <row r="159" spans="1:1">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="160" spans="1:2">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>220</v>
       </c>
@@ -5097,7 +5074,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="161" spans="1:2">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>243</v>
       </c>
@@ -5105,12 +5082,12 @@
         <v>243</v>
       </c>
     </row>
-    <row r="162" spans="1:1">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="163" spans="1:2">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>245</v>
       </c>
@@ -5118,7 +5095,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="164" spans="1:2">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>247</v>
       </c>
@@ -5126,12 +5103,12 @@
         <v>248</v>
       </c>
     </row>
-    <row r="165" spans="1:1">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="166" spans="1:2">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>250</v>
       </c>
@@ -5139,7 +5116,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="167" spans="1:2">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>252</v>
       </c>
@@ -5147,32 +5124,32 @@
         <v>253</v>
       </c>
     </row>
-    <row r="168" spans="1:1">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="169" spans="1:1">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="170" spans="1:1">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="171" spans="1:1">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="172" spans="1:1">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="173" spans="1:2">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>259</v>
       </c>
@@ -5180,7 +5157,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="174" spans="1:2">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>261</v>
       </c>
@@ -5188,17 +5165,17 @@
         <v>262</v>
       </c>
     </row>
-    <row r="175" spans="1:1">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="176" spans="1:1">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="177" spans="1:2">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>264</v>
       </c>
@@ -5206,7 +5183,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="178" spans="1:2">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>266</v>
       </c>
@@ -5214,23 +5191,23 @@
         <v>264</v>
       </c>
     </row>
-    <row r="179" spans="2:2">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B179" s="1" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="180" spans="1:2">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>268</v>
       </c>
       <c r="B180" s="2"/>
     </row>
-    <row r="181" spans="1:1">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="182" spans="1:2">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>270</v>
       </c>
@@ -5238,7 +5215,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="183" spans="1:2">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>272</v>
       </c>
@@ -5246,12 +5223,12 @@
         <v>273</v>
       </c>
     </row>
-    <row r="184" spans="1:1">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="185" spans="1:2">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>275</v>
       </c>
@@ -5259,7 +5236,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="186" spans="1:2">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>277</v>
       </c>
@@ -5267,17 +5244,17 @@
         <v>278</v>
       </c>
     </row>
-    <row r="187" spans="1:1">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="188" spans="1:1">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="189" spans="1:2">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>281</v>
       </c>
@@ -5285,7 +5262,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="190" spans="1:2">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>283</v>
       </c>
@@ -5293,22 +5270,22 @@
         <v>284</v>
       </c>
     </row>
-    <row r="191" spans="1:1">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="192" spans="1:1">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="193" spans="1:1">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="194" spans="1:2">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>288</v>
       </c>
@@ -5316,32 +5293,32 @@
         <v>289</v>
       </c>
     </row>
-    <row r="195" spans="1:1">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="196" spans="1:1">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="197" spans="1:1">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="198" spans="1:1">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="199" spans="1:1">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="200" spans="1:2">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>295</v>
       </c>
@@ -5349,12 +5326,12 @@
         <v>296</v>
       </c>
     </row>
-    <row r="201" spans="1:1">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="202" spans="1:2">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>298</v>
       </c>
@@ -5362,12 +5339,12 @@
         <v>299</v>
       </c>
     </row>
-    <row r="203" spans="1:1">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="204" spans="1:2">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>301</v>
       </c>
@@ -5375,27 +5352,27 @@
         <v>302</v>
       </c>
     </row>
-    <row r="205" spans="1:1">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="206" spans="1:1">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="207" spans="1:1">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="208" spans="1:1">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="209" spans="1:2">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>307</v>
       </c>
@@ -5403,17 +5380,17 @@
         <v>308</v>
       </c>
     </row>
-    <row r="210" spans="1:1">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="211" spans="1:1">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="212" spans="1:2">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>307</v>
       </c>
@@ -5421,7 +5398,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="213" spans="1:2">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>312</v>
       </c>
@@ -5429,7 +5406,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="214" spans="1:2">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>314</v>
       </c>
@@ -5437,7 +5414,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="215" spans="1:2">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>307</v>
       </c>
@@ -5445,7 +5422,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="216" spans="1:2">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>317</v>
       </c>
@@ -5453,12 +5430,12 @@
         <v>318</v>
       </c>
     </row>
-    <row r="217" spans="1:1">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="218" spans="1:2">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>320</v>
       </c>
@@ -5466,7 +5443,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="219" spans="1:2">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>322</v>
       </c>
@@ -5474,7 +5451,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="220" spans="1:2">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>324</v>
       </c>
@@ -5482,7 +5459,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="221" spans="1:2">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>326</v>
       </c>
@@ -5490,7 +5467,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="222" spans="1:2">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>207</v>
       </c>
@@ -5498,12 +5475,12 @@
         <v>328</v>
       </c>
     </row>
-    <row r="223" spans="1:1">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="224" spans="1:2">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>330</v>
       </c>
@@ -5511,7 +5488,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="225" spans="1:2">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>207</v>
       </c>
@@ -5519,7 +5496,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="226" spans="1:2">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>333</v>
       </c>
@@ -5527,7 +5504,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="227" spans="1:2">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>307</v>
       </c>
@@ -5535,7 +5512,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="228" spans="1:2">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>336</v>
       </c>
@@ -5543,7 +5520,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="229" spans="1:2">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>307</v>
       </c>
@@ -5551,7 +5528,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="230" spans="1:2">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>339</v>
       </c>
@@ -5559,7 +5536,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="231" spans="1:2">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>341</v>
       </c>
@@ -5567,7 +5544,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="232" spans="1:2">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>307</v>
       </c>
@@ -5575,7 +5552,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="233" spans="1:2">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>343</v>
       </c>
@@ -5583,7 +5560,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="234" spans="1:2">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>345</v>
       </c>
@@ -5591,12 +5568,12 @@
         <v>346</v>
       </c>
     </row>
-    <row r="235" spans="1:1">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="236" spans="1:2">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>348</v>
       </c>
@@ -5604,12 +5581,12 @@
         <v>349</v>
       </c>
     </row>
-    <row r="237" spans="1:1">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="238" spans="1:2">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>351</v>
       </c>
@@ -5617,7 +5594,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="239" spans="1:2">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>353</v>
       </c>
@@ -5625,7 +5602,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="240" spans="1:2">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>350</v>
       </c>
@@ -5633,7 +5610,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="241" spans="1:2">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>356</v>
       </c>
@@ -5641,7 +5618,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="242" spans="1:2">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>358</v>
       </c>
@@ -5649,7 +5626,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="243" spans="1:2">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>360</v>
       </c>
@@ -5657,7 +5634,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="244" spans="1:2">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>305</v>
       </c>
@@ -5665,7 +5642,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="245" spans="1:2">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>307</v>
       </c>
@@ -5673,7 +5650,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="246" spans="1:2">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>364</v>
       </c>
@@ -5681,7 +5658,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="247" spans="1:2">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>366</v>
       </c>
@@ -5689,7 +5666,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="248" spans="1:2">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>368</v>
       </c>
@@ -5697,7 +5674,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="249" spans="1:2">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>369</v>
       </c>
@@ -5705,7 +5682,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="250" spans="1:2">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>371</v>
       </c>
@@ -5713,7 +5690,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="251" spans="1:2">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>254</v>
       </c>
@@ -5721,62 +5698,62 @@
         <v>373</v>
       </c>
     </row>
-    <row r="252" spans="2:2">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B252" s="1" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="253" spans="1:1">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="254" spans="1:1">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="255" spans="1:1">
+    <row r="255" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="256" spans="1:1">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="257" spans="1:1">
+    <row r="257" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="258" spans="1:1">
+    <row r="258" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="259" spans="1:1">
+    <row r="259" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="261" spans="1:1">
+    <row r="261" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="262" spans="1:1">
+    <row r="262" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="263" spans="1:1">
+    <row r="263" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="264" spans="1:2">
+    <row r="264" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>385</v>
       </c>
@@ -5784,12 +5761,12 @@
         <v>386</v>
       </c>
     </row>
-    <row r="265" spans="1:1">
+    <row r="265" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="266" spans="1:2">
+    <row r="266" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>388</v>
       </c>
@@ -5797,17 +5774,17 @@
         <v>389</v>
       </c>
     </row>
-    <row r="267" spans="1:1">
+    <row r="267" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="268" spans="1:1">
+    <row r="268" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="269" spans="1:2">
+    <row r="269" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>392</v>
       </c>
@@ -5815,7 +5792,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="270" spans="1:2">
+    <row r="270" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>394</v>
       </c>
@@ -5823,22 +5800,22 @@
         <v>395</v>
       </c>
     </row>
-    <row r="271" spans="1:1">
+    <row r="271" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="272" spans="1:1">
+    <row r="272" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="273" spans="1:1">
+    <row r="273" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="274" spans="1:2">
+    <row r="274" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>399</v>
       </c>
@@ -5846,7 +5823,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="275" spans="1:2">
+    <row r="275" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>401</v>
       </c>
@@ -5854,27 +5831,27 @@
         <v>402</v>
       </c>
     </row>
-    <row r="276" spans="1:1">
+    <row r="276" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="277" spans="1:1">
+    <row r="277" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="278" spans="1:1">
+    <row r="278" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="279" spans="1:1">
+    <row r="279" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="280" spans="1:2">
+    <row r="280" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
         <v>406</v>
       </c>
@@ -5882,7 +5859,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="281" spans="1:2">
+    <row r="281" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>408</v>
       </c>
@@ -5890,7 +5867,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="282" spans="1:2">
+    <row r="282" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>410</v>
       </c>
@@ -5898,42 +5875,42 @@
         <v>410</v>
       </c>
     </row>
-    <row r="283" spans="1:1">
+    <row r="283" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="284" spans="1:1">
+    <row r="284" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="285" spans="1:1">
+    <row r="285" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="286" spans="1:1">
+    <row r="286" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="287" spans="1:1">
+    <row r="287" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="288" spans="1:1">
+    <row r="288" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="289" spans="1:1">
+    <row r="289" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="290" spans="1:2">
+    <row r="290" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
         <v>418</v>
       </c>
@@ -5941,17 +5918,17 @@
         <v>419</v>
       </c>
     </row>
-    <row r="291" spans="1:1">
+    <row r="291" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="292" spans="1:1">
+    <row r="292" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="293" spans="1:2">
+    <row r="293" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
         <v>422</v>
       </c>
@@ -5959,7 +5936,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="294" spans="1:2">
+    <row r="294" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
         <v>424</v>
       </c>
@@ -5967,7 +5944,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="295" spans="1:2">
+    <row r="295" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
         <v>426</v>
       </c>
@@ -5975,7 +5952,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="296" spans="1:2">
+    <row r="296" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
         <v>428</v>
       </c>
@@ -5983,7 +5960,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="297" spans="1:2">
+    <row r="297" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
         <v>430</v>
       </c>
@@ -5991,17 +5968,17 @@
         <v>431</v>
       </c>
     </row>
-    <row r="298" spans="1:1">
+    <row r="298" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="299" spans="1:1">
+    <row r="299" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="300" spans="1:2">
+    <row r="300" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
         <v>434</v>
       </c>
@@ -6009,7 +5986,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="301" spans="1:2">
+    <row r="301" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
         <v>436</v>
       </c>
@@ -6017,7 +5994,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="302" spans="1:2">
+    <row r="302" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
         <v>437</v>
       </c>
@@ -6025,7 +6002,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="303" spans="1:2">
+    <row r="303" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
         <v>439</v>
       </c>
@@ -6033,27 +6010,27 @@
         <v>440</v>
       </c>
     </row>
-    <row r="304" spans="1:1">
+    <row r="304" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="305" spans="1:1">
+    <row r="305" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="306" spans="1:1">
+    <row r="306" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="307" spans="1:1">
+    <row r="307" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="308" spans="1:2">
+    <row r="308" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
         <v>445</v>
       </c>
@@ -6061,12 +6038,12 @@
         <v>446</v>
       </c>
     </row>
-    <row r="309" spans="1:1">
+    <row r="309" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="310" spans="1:2">
+    <row r="310" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
         <v>448</v>
       </c>
@@ -6074,42 +6051,42 @@
         <v>449</v>
       </c>
     </row>
-    <row r="311" spans="1:1">
+    <row r="311" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="312" spans="1:1">
+    <row r="312" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="313" spans="1:1">
+    <row r="313" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="314" spans="1:1">
+    <row r="314" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="315" spans="1:1">
+    <row r="315" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="316" spans="1:1">
+    <row r="316" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="317" spans="1:1">
+    <row r="317" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="318" spans="1:2">
+    <row r="318" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
         <v>457</v>
       </c>
@@ -6117,7 +6094,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="319" spans="1:2">
+    <row r="319" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
         <v>459</v>
       </c>
@@ -6125,7 +6102,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="320" spans="1:2">
+    <row r="320" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
         <v>461</v>
       </c>
@@ -6133,7 +6110,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="321" spans="1:2">
+    <row r="321" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
         <v>463</v>
       </c>
@@ -6141,27 +6118,27 @@
         <v>464</v>
       </c>
     </row>
-    <row r="322" spans="1:1">
+    <row r="322" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="323" spans="1:1">
+    <row r="323" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="324" spans="1:1">
+    <row r="324" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="325" spans="1:1">
+    <row r="325" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="326" spans="1:2">
+    <row r="326" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
         <v>469</v>
       </c>
@@ -6169,12 +6146,12 @@
         <v>470</v>
       </c>
     </row>
-    <row r="327" spans="1:1">
+    <row r="327" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="328" spans="1:2">
+    <row r="328" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
         <v>472</v>
       </c>
@@ -6182,22 +6159,22 @@
         <v>473</v>
       </c>
     </row>
-    <row r="329" spans="1:1">
+    <row r="329" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="330" spans="1:1">
+    <row r="330" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="331" spans="1:1">
+    <row r="331" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="332" spans="1:2">
+    <row r="332" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
         <v>477</v>
       </c>
@@ -6205,7 +6182,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="333" spans="1:2">
+    <row r="333" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
         <v>479</v>
       </c>
@@ -6213,7 +6190,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="334" spans="1:2">
+    <row r="334" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
         <v>480</v>
       </c>
@@ -6221,32 +6198,32 @@
         <v>481</v>
       </c>
     </row>
-    <row r="335" spans="1:1">
+    <row r="335" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="336" spans="1:1">
+    <row r="336" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="337" spans="1:1">
+    <row r="337" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="338" spans="1:1">
+    <row r="338" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="339" spans="1:1">
+    <row r="339" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="340" spans="1:2">
+    <row r="340" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
         <v>487</v>
       </c>
@@ -6254,12 +6231,12 @@
         <v>488</v>
       </c>
     </row>
-    <row r="341" spans="1:1">
+    <row r="341" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="342" spans="1:2">
+    <row r="342" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
         <v>490</v>
       </c>
@@ -6267,17 +6244,17 @@
         <v>491</v>
       </c>
     </row>
-    <row r="343" spans="1:1">
+    <row r="343" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="344" spans="1:1">
+    <row r="344" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="345" spans="1:2">
+    <row r="345" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
         <v>494</v>
       </c>
@@ -6285,7 +6262,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="346" spans="1:2">
+    <row r="346" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
         <v>496</v>
       </c>
@@ -6293,22 +6270,22 @@
         <v>497</v>
       </c>
     </row>
-    <row r="347" spans="1:1">
+    <row r="347" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="348" spans="1:1">
+    <row r="348" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="349" spans="1:1">
+    <row r="349" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="350" spans="1:2">
+    <row r="350" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
         <v>501</v>
       </c>
@@ -6316,12 +6293,12 @@
         <v>502</v>
       </c>
     </row>
-    <row r="351" spans="1:1">
+    <row r="351" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="352" spans="1:2">
+    <row r="352" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
         <v>504</v>
       </c>
@@ -6329,12 +6306,12 @@
         <v>505</v>
       </c>
     </row>
-    <row r="353" spans="1:1">
+    <row r="353" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="354" spans="1:2">
+    <row r="354" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
         <v>507</v>
       </c>
@@ -6342,17 +6319,17 @@
         <v>508</v>
       </c>
     </row>
-    <row r="355" spans="1:1">
+    <row r="355" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="356" spans="1:1">
+    <row r="356" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="357" spans="1:2">
+    <row r="357" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
         <v>511</v>
       </c>
@@ -6360,7 +6337,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="358" spans="1:2">
+    <row r="358" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
         <v>513</v>
       </c>
@@ -6368,7 +6345,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="359" spans="1:2">
+    <row r="359" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
         <v>515</v>
       </c>
@@ -6376,7 +6353,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="360" spans="1:2">
+    <row r="360" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
         <v>517</v>
       </c>
@@ -6384,12 +6361,12 @@
         <v>518</v>
       </c>
     </row>
-    <row r="361" spans="1:1">
+    <row r="361" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="362" spans="1:2">
+    <row r="362" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
         <v>511</v>
       </c>
@@ -6397,12 +6374,12 @@
         <v>520</v>
       </c>
     </row>
-    <row r="363" spans="1:1">
+    <row r="363" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="364" spans="1:2">
+    <row r="364" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
         <v>522</v>
       </c>
@@ -6410,12 +6387,12 @@
         <v>523</v>
       </c>
     </row>
-    <row r="365" spans="1:1">
+    <row r="365" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="366" spans="1:2">
+    <row r="366" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
         <v>511</v>
       </c>
@@ -6423,22 +6400,22 @@
         <v>525</v>
       </c>
     </row>
-    <row r="367" spans="1:1">
+    <row r="367" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="368" spans="1:1">
+    <row r="368" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="369" spans="1:1">
+    <row r="369" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="370" spans="1:2">
+    <row r="370" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
         <v>529</v>
       </c>
@@ -6446,42 +6423,42 @@
         <v>530</v>
       </c>
     </row>
-    <row r="371" spans="1:1">
+    <row r="371" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="372" spans="1:1">
+    <row r="372" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="373" spans="1:1">
+    <row r="373" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="374" spans="1:1">
+    <row r="374" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="376" spans="1:1">
+    <row r="376" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="377" spans="1:1">
+    <row r="377" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="378" spans="1:1">
+    <row r="378" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="379" spans="1:2">
+    <row r="379" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
         <v>538</v>
       </c>
@@ -6489,12 +6466,12 @@
         <v>539</v>
       </c>
     </row>
-    <row r="380" spans="1:1">
+    <row r="380" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="381" spans="1:2">
+    <row r="381" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A381" t="s">
         <v>541</v>
       </c>
@@ -6502,27 +6479,27 @@
         <v>542</v>
       </c>
     </row>
-    <row r="382" spans="1:1">
+    <row r="382" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="383" spans="1:1">
+    <row r="383" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="384" spans="1:1">
+    <row r="384" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="385" spans="1:1">
+    <row r="385" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="386" spans="1:2">
+    <row r="386" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A386" t="s">
         <v>547</v>
       </c>
@@ -6530,7 +6507,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="387" spans="1:2">
+    <row r="387" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A387" t="s">
         <v>549</v>
       </c>
@@ -6538,7 +6515,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="388" spans="1:2">
+    <row r="388" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A388" t="s">
         <v>551</v>
       </c>
@@ -6546,27 +6523,27 @@
         <v>552</v>
       </c>
     </row>
-    <row r="389" spans="1:1">
+    <row r="389" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A389" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="390" spans="1:1">
+    <row r="390" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A390" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="391" spans="1:1">
+    <row r="391" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A391" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="392" spans="1:1">
+    <row r="392" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A392" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="393" spans="1:2">
+    <row r="393" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A393" t="s">
         <v>557</v>
       </c>
@@ -6574,12 +6551,12 @@
         <v>558</v>
       </c>
     </row>
-    <row r="394" spans="1:1">
+    <row r="394" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A394" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="395" spans="1:2">
+    <row r="395" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A395" t="s">
         <v>560</v>
       </c>
@@ -6587,27 +6564,27 @@
         <v>561</v>
       </c>
     </row>
-    <row r="396" spans="2:2">
+    <row r="396" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B396" s="1" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="397" spans="1:1">
+    <row r="397" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A397" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="398" spans="1:1">
+    <row r="398" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A398" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="399" spans="1:1">
+    <row r="399" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A399" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="400" spans="1:2">
+    <row r="400" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A400" t="s">
         <v>566</v>
       </c>
@@ -6615,27 +6592,27 @@
         <v>567</v>
       </c>
     </row>
-    <row r="401" spans="1:1">
+    <row r="401" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A401" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="402" spans="1:1">
+    <row r="402" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A402" t="s">
         <v>569</v>
       </c>
     </row>
-    <row r="403" spans="1:1">
+    <row r="403" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A403" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="404" spans="1:1">
+    <row r="404" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A404" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="405" spans="1:2">
+    <row r="405" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A405" t="s">
         <v>572</v>
       </c>
@@ -6643,12 +6620,12 @@
         <v>573</v>
       </c>
     </row>
-    <row r="406" spans="1:1">
+    <row r="406" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A406" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="407" spans="1:2">
+    <row r="407" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A407" t="s">
         <v>575</v>
       </c>
@@ -6656,7 +6633,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="408" spans="1:2">
+    <row r="408" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A408" t="s">
         <v>577</v>
       </c>
@@ -6664,7 +6641,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="409" spans="1:2">
+    <row r="409" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A409" t="s">
         <v>579</v>
       </c>
@@ -6672,7 +6649,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="410" spans="1:2">
+    <row r="410" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A410" t="s">
         <v>581</v>
       </c>
@@ -6680,12 +6657,12 @@
         <v>582</v>
       </c>
     </row>
-    <row r="411" spans="1:1">
+    <row r="411" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A411" t="s">
         <v>583</v>
       </c>
     </row>
-    <row r="412" spans="1:2">
+    <row r="412" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A412" t="s">
         <v>584</v>
       </c>
@@ -6693,17 +6670,17 @@
         <v>585</v>
       </c>
     </row>
-    <row r="413" spans="1:1">
+    <row r="413" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A413" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="414" spans="2:2">
+    <row r="414" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B414" s="1" t="s">
         <v>587</v>
       </c>
     </row>
-    <row r="415" spans="1:2">
+    <row r="415" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A415" t="s">
         <v>588</v>
       </c>
@@ -6711,12 +6688,12 @@
         <v>589</v>
       </c>
     </row>
-    <row r="416" spans="1:1">
+    <row r="416" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A416" t="s">
         <v>590</v>
       </c>
     </row>
-    <row r="417" spans="1:2">
+    <row r="417" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A417" t="s">
         <v>591</v>
       </c>
@@ -6724,17 +6701,17 @@
         <v>592</v>
       </c>
     </row>
-    <row r="418" spans="1:1">
+    <row r="418" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A418" t="s">
         <v>593</v>
       </c>
     </row>
-    <row r="419" spans="1:1">
+    <row r="419" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A419" t="s">
         <v>594</v>
       </c>
     </row>
-    <row r="420" spans="1:2">
+    <row r="420" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A420" t="s">
         <v>595</v>
       </c>
@@ -6742,7 +6719,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="421" spans="1:2">
+    <row r="421" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A421" t="s">
         <v>597</v>
       </c>
@@ -6750,7 +6727,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="422" spans="1:2">
+    <row r="422" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A422" t="s">
         <v>599</v>
       </c>
@@ -6758,7 +6735,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="423" spans="1:2">
+    <row r="423" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A423" t="s">
         <v>601</v>
       </c>
@@ -6766,52 +6743,52 @@
         <v>602</v>
       </c>
     </row>
-    <row r="424" spans="1:1">
+    <row r="424" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A424" t="s">
         <v>603</v>
       </c>
     </row>
-    <row r="425" spans="1:1">
+    <row r="425" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A425" t="s">
         <v>604</v>
       </c>
     </row>
-    <row r="426" spans="1:1">
+    <row r="426" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A426" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="427" spans="1:1">
+    <row r="427" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A427" t="s">
         <v>606</v>
       </c>
     </row>
-    <row r="428" spans="1:1">
+    <row r="428" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A428" t="s">
         <v>607</v>
       </c>
     </row>
-    <row r="429" spans="1:1">
+    <row r="429" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A429" t="s">
         <v>608</v>
       </c>
     </row>
-    <row r="430" spans="1:1">
+    <row r="430" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A430" t="s">
         <v>609</v>
       </c>
     </row>
-    <row r="431" spans="1:1">
+    <row r="431" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A431" t="s">
         <v>610</v>
       </c>
     </row>
-    <row r="432" spans="1:1">
+    <row r="432" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A432" t="s">
         <v>611</v>
       </c>
     </row>
-    <row r="433" spans="1:2">
+    <row r="433" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A433" t="s">
         <v>612</v>
       </c>
@@ -6819,12 +6796,12 @@
         <v>613</v>
       </c>
     </row>
-    <row r="434" spans="1:1">
+    <row r="434" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A434" t="s">
         <v>614</v>
       </c>
     </row>
-    <row r="435" spans="1:2">
+    <row r="435" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A435" t="s">
         <v>615</v>
       </c>
@@ -6832,7 +6809,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="436" spans="1:2">
+    <row r="436" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A436" t="s">
         <v>617</v>
       </c>
@@ -6840,17 +6817,17 @@
         <v>617</v>
       </c>
     </row>
-    <row r="437" spans="1:1">
+    <row r="437" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A437" t="s">
         <v>618</v>
       </c>
     </row>
-    <row r="438" spans="1:1">
+    <row r="438" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A438" t="s">
         <v>619</v>
       </c>
     </row>
-    <row r="439" spans="1:2">
+    <row r="439" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A439" t="s">
         <v>620</v>
       </c>
@@ -6858,12 +6835,12 @@
         <v>621</v>
       </c>
     </row>
-    <row r="440" spans="1:1">
+    <row r="440" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A440" t="s">
         <v>622</v>
       </c>
     </row>
-    <row r="441" spans="1:2">
+    <row r="441" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A441" t="s">
         <v>623</v>
       </c>
@@ -6871,7 +6848,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="442" spans="1:2">
+    <row r="442" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A442" t="s">
         <v>625</v>
       </c>
@@ -6879,12 +6856,12 @@
         <v>626</v>
       </c>
     </row>
-    <row r="443" spans="1:1">
+    <row r="443" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A443" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="444" spans="1:2">
+    <row r="444" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A444" t="s">
         <v>627</v>
       </c>
@@ -6892,7 +6869,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="445" spans="1:2">
+    <row r="445" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A445" t="s">
         <v>629</v>
       </c>
@@ -6900,7 +6877,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="446" spans="1:2">
+    <row r="446" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A446" t="s">
         <v>631</v>
       </c>
@@ -6908,17 +6885,17 @@
         <v>632</v>
       </c>
     </row>
-    <row r="447" spans="1:1">
+    <row r="447" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A447" t="s">
         <v>629</v>
       </c>
     </row>
-    <row r="448" spans="1:1">
+    <row r="448" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A448" t="s">
         <v>633</v>
       </c>
     </row>
-    <row r="449" spans="1:2">
+    <row r="449" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A449" t="s">
         <v>634</v>
       </c>
@@ -6926,7 +6903,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="450" spans="1:2">
+    <row r="450" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A450" t="s">
         <v>636</v>
       </c>
@@ -6934,7 +6911,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="451" spans="1:2">
+    <row r="451" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A451" t="s">
         <v>638</v>
       </c>
@@ -6942,7 +6919,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="452" spans="1:2">
+    <row r="452" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A452" t="s">
         <v>640</v>
       </c>
@@ -6950,7 +6927,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="453" spans="1:2">
+    <row r="453" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A453" t="s">
         <v>622</v>
       </c>
@@ -6958,17 +6935,17 @@
         <v>642</v>
       </c>
     </row>
-    <row r="454" spans="1:1">
+    <row r="454" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A454" t="s">
         <v>640</v>
       </c>
     </row>
-    <row r="455" spans="1:1">
+    <row r="455" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A455" t="s">
         <v>643</v>
       </c>
     </row>
-    <row r="456" spans="1:2">
+    <row r="456" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A456" t="s">
         <v>644</v>
       </c>
@@ -6976,12 +6953,12 @@
         <v>645</v>
       </c>
     </row>
-    <row r="457" spans="1:1">
+    <row r="457" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A457" t="s">
         <v>646</v>
       </c>
     </row>
-    <row r="458" spans="1:2">
+    <row r="458" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A458" t="s">
         <v>647</v>
       </c>
@@ -6989,7 +6966,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="459" spans="1:2">
+    <row r="459" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A459" t="s">
         <v>646</v>
       </c>
@@ -6997,7 +6974,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="460" spans="1:2">
+    <row r="460" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A460" t="s">
         <v>650</v>
       </c>
@@ -7005,7 +6982,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="461" spans="1:2">
+    <row r="461" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A461" t="s">
         <v>652</v>
       </c>
@@ -7013,7 +6990,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="462" spans="1:2">
+    <row r="462" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A462" t="s">
         <v>654</v>
       </c>
@@ -7021,7 +6998,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="463" spans="1:2">
+    <row r="463" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A463" t="s">
         <v>656</v>
       </c>
@@ -7029,12 +7006,12 @@
         <v>656</v>
       </c>
     </row>
-    <row r="464" spans="1:1">
+    <row r="464" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A464" t="s">
         <v>657</v>
       </c>
     </row>
-    <row r="465" spans="1:2">
+    <row r="465" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A465" t="s">
         <v>658</v>
       </c>
@@ -7042,7 +7019,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="466" spans="1:2">
+    <row r="466" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A466" t="s">
         <v>660</v>
       </c>
@@ -7050,7 +7027,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="467" spans="1:2">
+    <row r="467" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A467" t="s">
         <v>662</v>
       </c>
@@ -7058,7 +7035,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="468" spans="1:2">
+    <row r="468" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A468" t="s">
         <v>664</v>
       </c>
@@ -7066,7 +7043,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="469" spans="1:2">
+    <row r="469" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A469" t="s">
         <v>666</v>
       </c>
@@ -7074,7 +7051,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="470" spans="1:2">
+    <row r="470" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A470" t="s">
         <v>663</v>
       </c>
@@ -7082,7 +7059,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="471" spans="1:2">
+    <row r="471" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A471" t="s">
         <v>668</v>
       </c>
@@ -7090,7 +7067,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="472" spans="1:2">
+    <row r="472" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A472" t="s">
         <v>669</v>
       </c>
@@ -7098,12 +7075,12 @@
         <v>670</v>
       </c>
     </row>
-    <row r="473" spans="1:1">
+    <row r="473" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A473" t="s">
         <v>671</v>
       </c>
     </row>
-    <row r="474" spans="1:2">
+    <row r="474" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A474" t="s">
         <v>672</v>
       </c>
@@ -7111,12 +7088,12 @@
         <v>673</v>
       </c>
     </row>
-    <row r="475" spans="1:1">
+    <row r="475" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A475" t="s">
         <v>674</v>
       </c>
     </row>
-    <row r="476" spans="1:2">
+    <row r="476" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A476" t="s">
         <v>675</v>
       </c>
@@ -7124,7 +7101,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="477" spans="1:2">
+    <row r="477" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A477" t="s">
         <v>675</v>
       </c>
@@ -7132,7 +7109,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="478" spans="1:2">
+    <row r="478" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A478" t="s">
         <v>678</v>
       </c>
@@ -7140,7 +7117,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="479" spans="1:2">
+    <row r="479" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A479" t="s">
         <v>680</v>
       </c>
@@ -7148,7 +7125,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="480" spans="1:2">
+    <row r="480" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A480" t="s">
         <v>682</v>
       </c>
@@ -7156,7 +7133,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="481" spans="1:2">
+    <row r="481" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A481" t="s">
         <v>684</v>
       </c>
@@ -7164,7 +7141,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="482" spans="1:2">
+    <row r="482" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A482" t="s">
         <v>685</v>
       </c>
@@ -7172,7 +7149,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="483" spans="1:2">
+    <row r="483" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A483" t="s">
         <v>686</v>
       </c>
@@ -7180,22 +7157,22 @@
         <v>687</v>
       </c>
     </row>
-    <row r="484" spans="1:1">
+    <row r="484" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A484" t="s">
         <v>688</v>
       </c>
     </row>
-    <row r="485" spans="1:1">
+    <row r="485" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A485" t="s">
         <v>689</v>
       </c>
     </row>
-    <row r="486" spans="1:1">
+    <row r="486" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A486" t="s">
         <v>690</v>
       </c>
     </row>
-    <row r="487" spans="1:2">
+    <row r="487" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A487" t="s">
         <v>691</v>
       </c>
@@ -7203,27 +7180,27 @@
         <v>692</v>
       </c>
     </row>
-    <row r="488" spans="1:1">
+    <row r="488" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A488" t="s">
         <v>693</v>
       </c>
     </row>
-    <row r="490" spans="1:1">
+    <row r="490" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A490" t="s">
         <v>694</v>
       </c>
     </row>
-    <row r="491" spans="1:1">
+    <row r="491" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A491" t="s">
         <v>695</v>
       </c>
     </row>
-    <row r="492" spans="1:1">
+    <row r="492" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A492" t="s">
         <v>696</v>
       </c>
     </row>
-    <row r="493" spans="1:2">
+    <row r="493" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A493" t="s">
         <v>664</v>
       </c>
@@ -7231,7 +7208,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="494" spans="1:2">
+    <row r="494" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A494" t="s">
         <v>698</v>
       </c>
@@ -7239,32 +7216,32 @@
         <v>699</v>
       </c>
     </row>
-    <row r="495" spans="1:1">
+    <row r="495" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A495" t="s">
         <v>700</v>
       </c>
     </row>
-    <row r="496" spans="1:1">
+    <row r="496" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A496" t="s">
         <v>701</v>
       </c>
     </row>
-    <row r="497" spans="1:1">
+    <row r="497" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A497" t="s">
         <v>702</v>
       </c>
     </row>
-    <row r="498" spans="1:1">
+    <row r="498" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A498" t="s">
         <v>703</v>
       </c>
     </row>
-    <row r="499" spans="1:1">
+    <row r="499" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A499" t="s">
         <v>704</v>
       </c>
     </row>
-    <row r="500" spans="1:2">
+    <row r="500" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A500" t="s">
         <v>705</v>
       </c>
@@ -7272,12 +7249,12 @@
         <v>706</v>
       </c>
     </row>
-    <row r="501" spans="1:1">
+    <row r="501" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A501" t="s">
         <v>707</v>
       </c>
     </row>
-    <row r="502" spans="1:2">
+    <row r="502" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A502" t="s">
         <v>708</v>
       </c>
@@ -7285,12 +7262,12 @@
         <v>709</v>
       </c>
     </row>
-    <row r="503" spans="1:1">
+    <row r="503" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A503" t="s">
         <v>710</v>
       </c>
     </row>
-    <row r="504" spans="1:2">
+    <row r="504" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A504" t="s">
         <v>711</v>
       </c>
@@ -7298,37 +7275,37 @@
         <v>712</v>
       </c>
     </row>
-    <row r="505" spans="1:1">
+    <row r="505" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A505" t="s">
         <v>713</v>
       </c>
     </row>
-    <row r="506" spans="1:1">
+    <row r="506" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A506" t="s">
         <v>714</v>
       </c>
     </row>
-    <row r="507" spans="1:1">
+    <row r="507" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A507" t="s">
         <v>715</v>
       </c>
     </row>
-    <row r="508" spans="1:1">
+    <row r="508" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A508" t="s">
         <v>716</v>
       </c>
     </row>
-    <row r="509" spans="1:1">
+    <row r="509" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A509" t="s">
         <v>717</v>
       </c>
     </row>
-    <row r="510" spans="1:1">
+    <row r="510" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A510" t="s">
         <v>718</v>
       </c>
     </row>
-    <row r="511" spans="1:2">
+    <row r="511" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A511" t="s">
         <v>719</v>
       </c>
@@ -7336,7 +7313,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="512" spans="1:2">
+    <row r="512" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A512" t="s">
         <v>721</v>
       </c>
@@ -7344,17 +7321,17 @@
         <v>722</v>
       </c>
     </row>
-    <row r="513" spans="1:1">
+    <row r="513" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A513" t="s">
         <v>723</v>
       </c>
     </row>
-    <row r="514" spans="1:1">
+    <row r="514" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A514" t="s">
         <v>724</v>
       </c>
     </row>
-    <row r="515" spans="1:2">
+    <row r="515" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A515" t="s">
         <v>721</v>
       </c>
@@ -7362,12 +7339,12 @@
         <v>725</v>
       </c>
     </row>
-    <row r="516" spans="1:1">
+    <row r="516" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A516" t="s">
         <v>726</v>
       </c>
     </row>
-    <row r="517" spans="1:2">
+    <row r="517" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A517" t="s">
         <v>727</v>
       </c>
@@ -7375,7 +7352,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="518" spans="1:2">
+    <row r="518" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A518" t="s">
         <v>729</v>
       </c>
@@ -7383,22 +7360,22 @@
         <v>730</v>
       </c>
     </row>
-    <row r="519" spans="1:1">
+    <row r="519" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A519" t="s">
         <v>731</v>
       </c>
     </row>
-    <row r="520" spans="1:1">
+    <row r="520" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A520" t="s">
         <v>732</v>
       </c>
     </row>
-    <row r="521" spans="1:1">
+    <row r="521" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A521" t="s">
         <v>733</v>
       </c>
     </row>
-    <row r="522" spans="1:2">
+    <row r="522" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A522" t="s">
         <v>734</v>
       </c>
@@ -7406,12 +7383,12 @@
         <v>735</v>
       </c>
     </row>
-    <row r="523" spans="1:1">
+    <row r="523" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A523" t="s">
         <v>736</v>
       </c>
     </row>
-    <row r="524" spans="1:2">
+    <row r="524" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A524" t="s">
         <v>737</v>
       </c>
@@ -7419,32 +7396,32 @@
         <v>738</v>
       </c>
     </row>
-    <row r="525" spans="1:1">
+    <row r="525" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A525" t="s">
         <v>739</v>
       </c>
     </row>
-    <row r="526" spans="1:1">
+    <row r="526" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A526" t="s">
         <v>740</v>
       </c>
     </row>
-    <row r="527" spans="1:1">
+    <row r="527" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A527" t="s">
         <v>741</v>
       </c>
     </row>
-    <row r="528" spans="1:1">
+    <row r="528" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A528" t="s">
         <v>742</v>
       </c>
     </row>
-    <row r="529" spans="1:1">
+    <row r="529" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A529" t="s">
         <v>743</v>
       </c>
     </row>
-    <row r="530" spans="1:2">
+    <row r="530" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A530" t="s">
         <v>744</v>
       </c>
@@ -7452,7 +7429,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="531" spans="1:2">
+    <row r="531" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A531" t="s">
         <v>743</v>
       </c>
@@ -7460,17 +7437,17 @@
         <v>746</v>
       </c>
     </row>
-    <row r="532" spans="1:1">
+    <row r="532" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A532" t="s">
         <v>747</v>
       </c>
     </row>
-    <row r="533" spans="1:1">
+    <row r="533" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A533" t="s">
         <v>748</v>
       </c>
     </row>
-    <row r="534" spans="1:2">
+    <row r="534" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A534" t="s">
         <v>749</v>
       </c>
@@ -7478,12 +7455,12 @@
         <v>750</v>
       </c>
     </row>
-    <row r="535" spans="1:1">
+    <row r="535" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A535" t="s">
         <v>751</v>
       </c>
     </row>
-    <row r="536" spans="1:2">
+    <row r="536" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A536" t="s">
         <v>752</v>
       </c>
@@ -7491,7 +7468,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="537" spans="1:2">
+    <row r="537" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A537" t="s">
         <v>754</v>
       </c>
@@ -7499,12 +7476,12 @@
         <v>755</v>
       </c>
     </row>
-    <row r="538" spans="1:1">
+    <row r="538" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A538" t="s">
         <v>756</v>
       </c>
     </row>
-    <row r="539" spans="1:2">
+    <row r="539" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A539" t="s">
         <v>757</v>
       </c>
@@ -7512,12 +7489,12 @@
         <v>758</v>
       </c>
     </row>
-    <row r="540" spans="1:1">
+    <row r="540" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A540" t="s">
         <v>759</v>
       </c>
     </row>
-    <row r="541" spans="1:2">
+    <row r="541" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A541" t="s">
         <v>760</v>
       </c>
@@ -7525,7 +7502,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="542" spans="1:2">
+    <row r="542" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A542" t="s">
         <v>762</v>
       </c>
@@ -7533,7 +7510,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="543" spans="1:2">
+    <row r="543" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A543" t="s">
         <v>759</v>
       </c>
@@ -7541,12 +7518,12 @@
         <v>764</v>
       </c>
     </row>
-    <row r="544" spans="1:1">
+    <row r="544" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A544" t="s">
         <v>765</v>
       </c>
     </row>
-    <row r="545" spans="1:2">
+    <row r="545" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A545" t="s">
         <v>766</v>
       </c>
@@ -7554,7 +7531,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="546" spans="1:2">
+    <row r="546" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A546" t="s">
         <v>768</v>
       </c>
@@ -7562,17 +7539,17 @@
         <v>769</v>
       </c>
     </row>
-    <row r="547" spans="1:1">
+    <row r="547" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A547" t="s">
         <v>770</v>
       </c>
     </row>
-    <row r="548" spans="1:1">
+    <row r="548" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A548" t="s">
         <v>771</v>
       </c>
     </row>
-    <row r="549" spans="1:2">
+    <row r="549" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A549" t="s">
         <v>772</v>
       </c>
@@ -7580,37 +7557,37 @@
         <v>773</v>
       </c>
     </row>
-    <row r="550" spans="1:1">
+    <row r="550" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A550" t="s">
         <v>774</v>
       </c>
     </row>
-    <row r="551" spans="1:1">
+    <row r="551" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A551" t="s">
         <v>775</v>
       </c>
     </row>
-    <row r="552" spans="1:1">
+    <row r="552" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A552" t="s">
         <v>776</v>
       </c>
     </row>
-    <row r="553" spans="1:1">
+    <row r="553" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A553" t="s">
         <v>777</v>
       </c>
     </row>
-    <row r="554" spans="1:1">
+    <row r="554" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A554" t="s">
         <v>778</v>
       </c>
     </row>
-    <row r="555" spans="1:1">
+    <row r="555" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A555" t="s">
         <v>779</v>
       </c>
     </row>
-    <row r="556" spans="1:2">
+    <row r="556" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A556" t="s">
         <v>773</v>
       </c>
@@ -7618,7 +7595,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="557" spans="1:2">
+    <row r="557" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A557" t="s">
         <v>781</v>
       </c>
@@ -7626,7 +7603,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="558" spans="1:2">
+    <row r="558" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A558" t="s">
         <v>783</v>
       </c>
@@ -7634,22 +7611,22 @@
         <v>784</v>
       </c>
     </row>
-    <row r="559" spans="1:1">
+    <row r="559" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A559" t="s">
         <v>785</v>
       </c>
     </row>
-    <row r="560" spans="1:1">
+    <row r="560" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A560" t="s">
         <v>786</v>
       </c>
     </row>
-    <row r="561" spans="1:1">
+    <row r="561" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A561" t="s">
         <v>787</v>
       </c>
     </row>
-    <row r="562" spans="1:2">
+    <row r="562" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A562" t="s">
         <v>788</v>
       </c>
@@ -7657,7 +7634,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="563" spans="1:2">
+    <row r="563" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A563" t="s">
         <v>790</v>
       </c>
@@ -7665,7 +7642,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="564" spans="1:2">
+    <row r="564" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A564" t="s">
         <v>792</v>
       </c>
@@ -7673,7 +7650,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="565" spans="1:2">
+    <row r="565" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A565" t="s">
         <v>790</v>
       </c>
@@ -7681,7 +7658,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="566" spans="1:2">
+    <row r="566" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A566" t="s">
         <v>794</v>
       </c>
@@ -7689,12 +7666,12 @@
         <v>795</v>
       </c>
     </row>
-    <row r="567" spans="1:1">
+    <row r="567" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A567" t="s">
         <v>796</v>
       </c>
     </row>
-    <row r="568" spans="1:2">
+    <row r="568" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A568" t="s">
         <v>797</v>
       </c>
@@ -7702,17 +7679,17 @@
         <v>798</v>
       </c>
     </row>
-    <row r="569" spans="1:1">
+    <row r="569" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A569" t="s">
         <v>799</v>
       </c>
     </row>
-    <row r="570" spans="1:1">
+    <row r="570" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A570" t="s">
         <v>800</v>
       </c>
     </row>
-    <row r="571" spans="1:2">
+    <row r="571" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A571" t="s">
         <v>801</v>
       </c>
@@ -7720,7 +7697,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="572" spans="1:2">
+    <row r="572" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A572" t="s">
         <v>803</v>
       </c>
@@ -7728,17 +7705,17 @@
         <v>804</v>
       </c>
     </row>
-    <row r="573" spans="1:1">
+    <row r="573" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A573" t="s">
         <v>805</v>
       </c>
     </row>
-    <row r="574" spans="1:1">
+    <row r="574" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A574" t="s">
         <v>806</v>
       </c>
     </row>
-    <row r="575" spans="1:2">
+    <row r="575" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A575" t="s">
         <v>801</v>
       </c>
@@ -7746,7 +7723,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="576" spans="1:2">
+    <row r="576" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A576" t="s">
         <v>808</v>
       </c>
@@ -7754,12 +7731,12 @@
         <v>809</v>
       </c>
     </row>
-    <row r="577" spans="1:1">
+    <row r="577" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A577" t="s">
         <v>810</v>
       </c>
     </row>
-    <row r="578" spans="1:2">
+    <row r="578" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A578" t="s">
         <v>811</v>
       </c>
@@ -7767,7 +7744,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="579" spans="1:2">
+    <row r="579" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A579" t="s">
         <v>813</v>
       </c>
@@ -7775,7 +7752,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="580" spans="1:2">
+    <row r="580" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A580" t="s">
         <v>808</v>
       </c>
@@ -7783,7 +7760,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="581" spans="1:2">
+    <row r="581" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A581" t="s">
         <v>816</v>
       </c>
@@ -7791,7 +7768,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="582" spans="1:2">
+    <row r="582" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A582" t="s">
         <v>818</v>
       </c>
@@ -7799,12 +7776,12 @@
         <v>819</v>
       </c>
     </row>
-    <row r="583" spans="1:1">
+    <row r="583" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A583" t="s">
         <v>820</v>
       </c>
     </row>
-    <row r="584" spans="1:2">
+    <row r="584" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A584" t="s">
         <v>821</v>
       </c>
@@ -7812,12 +7789,12 @@
         <v>822</v>
       </c>
     </row>
-    <row r="585" spans="1:1">
+    <row r="585" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A585" t="s">
         <v>823</v>
       </c>
     </row>
-    <row r="586" spans="1:2">
+    <row r="586" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A586" t="s">
         <v>824</v>
       </c>
@@ -7825,7 +7802,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="587" spans="1:2">
+    <row r="587" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A587" t="s">
         <v>826</v>
       </c>
@@ -7833,7 +7810,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="588" spans="1:2">
+    <row r="588" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A588" t="s">
         <v>828</v>
       </c>
@@ -7841,12 +7818,12 @@
         <v>829</v>
       </c>
     </row>
-    <row r="589" spans="1:1">
+    <row r="589" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A589" t="s">
         <v>830</v>
       </c>
     </row>
-    <row r="590" spans="1:2">
+    <row r="590" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A590" t="s">
         <v>826</v>
       </c>
@@ -7854,7 +7831,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="591" spans="1:2">
+    <row r="591" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A591" t="s">
         <v>828</v>
       </c>
@@ -7862,12 +7839,12 @@
         <v>832</v>
       </c>
     </row>
-    <row r="592" spans="1:1">
+    <row r="592" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A592" t="s">
         <v>833</v>
       </c>
     </row>
-    <row r="593" spans="1:2">
+    <row r="593" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A593" t="s">
         <v>834</v>
       </c>
@@ -7875,7 +7852,7 @@
         <v>835</v>
       </c>
     </row>
-    <row r="594" spans="1:2">
+    <row r="594" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A594" t="s">
         <v>836</v>
       </c>
@@ -7883,12 +7860,12 @@
         <v>837</v>
       </c>
     </row>
-    <row r="595" spans="1:1">
+    <row r="595" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A595" t="s">
         <v>838</v>
       </c>
     </row>
-    <row r="596" spans="1:2">
+    <row r="596" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A596" t="s">
         <v>826</v>
       </c>
@@ -7896,17 +7873,17 @@
         <v>839</v>
       </c>
     </row>
-    <row r="597" spans="1:1">
+    <row r="597" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A597" t="s">
         <v>840</v>
       </c>
     </row>
-    <row r="598" spans="1:1">
+    <row r="598" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A598" t="s">
         <v>841</v>
       </c>
     </row>
-    <row r="599" spans="1:2">
+    <row r="599" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A599" t="s">
         <v>840</v>
       </c>
@@ -7914,7 +7891,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="600" spans="1:2">
+    <row r="600" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A600" t="s">
         <v>843</v>
       </c>
@@ -7922,7 +7899,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="601" spans="1:2">
+    <row r="601" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A601" t="s">
         <v>845</v>
       </c>
@@ -7930,7 +7907,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="602" spans="1:2">
+    <row r="602" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A602" t="s">
         <v>834</v>
       </c>
@@ -7938,17 +7915,17 @@
         <v>847</v>
       </c>
     </row>
-    <row r="603" spans="1:1">
+    <row r="603" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A603" t="s">
         <v>848</v>
       </c>
     </row>
-    <row r="604" spans="1:1">
+    <row r="604" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A604" t="s">
         <v>849</v>
       </c>
     </row>
-    <row r="605" spans="1:2">
+    <row r="605" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A605" t="s">
         <v>826</v>
       </c>
@@ -7956,7 +7933,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="606" spans="1:2">
+    <row r="606" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A606" t="s">
         <v>826</v>
       </c>
@@ -7964,22 +7941,22 @@
         <v>851</v>
       </c>
     </row>
-    <row r="607" spans="1:1">
+    <row r="607" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A607" t="s">
         <v>828</v>
       </c>
     </row>
-    <row r="608" spans="1:1">
+    <row r="608" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A608" t="s">
         <v>852</v>
       </c>
     </row>
-    <row r="609" spans="1:1">
+    <row r="609" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A609" t="s">
         <v>853</v>
       </c>
     </row>
-    <row r="610" spans="1:2">
+    <row r="610" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A610" t="s">
         <v>854</v>
       </c>
@@ -7987,37 +7964,37 @@
         <v>855</v>
       </c>
     </row>
-    <row r="611" spans="1:1">
+    <row r="611" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A611" t="s">
         <v>856</v>
       </c>
     </row>
-    <row r="612" spans="1:1">
+    <row r="612" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A612" t="s">
         <v>857</v>
       </c>
     </row>
-    <row r="613" spans="1:1">
+    <row r="613" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A613" t="s">
         <v>858</v>
       </c>
     </row>
-    <row r="614" spans="1:1">
+    <row r="614" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A614" t="s">
         <v>859</v>
       </c>
     </row>
-    <row r="615" spans="1:1">
+    <row r="615" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A615" t="s">
         <v>860</v>
       </c>
     </row>
-    <row r="616" spans="1:1">
+    <row r="616" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A616" t="s">
         <v>861</v>
       </c>
     </row>
-    <row r="617" spans="1:2">
+    <row r="617" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A617" t="s">
         <v>862</v>
       </c>
@@ -8025,12 +8002,12 @@
         <v>863</v>
       </c>
     </row>
-    <row r="618" spans="1:1">
+    <row r="618" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A618" t="s">
         <v>864</v>
       </c>
     </row>
-    <row r="619" spans="1:2">
+    <row r="619" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A619" t="s">
         <v>865</v>
       </c>
@@ -8038,12 +8015,12 @@
         <v>866</v>
       </c>
     </row>
-    <row r="620" spans="1:1">
+    <row r="620" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A620" t="s">
         <v>867</v>
       </c>
     </row>
-    <row r="621" spans="1:2">
+    <row r="621" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A621" t="s">
         <v>868</v>
       </c>
@@ -8051,7 +8028,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="622" spans="1:2">
+    <row r="622" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A622" t="s">
         <v>870</v>
       </c>
@@ -8059,12 +8036,12 @@
         <v>871</v>
       </c>
     </row>
-    <row r="623" spans="1:1">
+    <row r="623" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A623" t="s">
         <v>872</v>
       </c>
     </row>
-    <row r="624" spans="1:2">
+    <row r="624" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A624" t="s">
         <v>873</v>
       </c>
@@ -8072,17 +8049,17 @@
         <v>874</v>
       </c>
     </row>
-    <row r="625" spans="1:1">
+    <row r="625" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A625" t="s">
         <v>875</v>
       </c>
     </row>
-    <row r="626" spans="1:1">
+    <row r="626" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A626" t="s">
         <v>876</v>
       </c>
     </row>
-    <row r="627" spans="1:2">
+    <row r="627" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A627" t="s">
         <v>877</v>
       </c>
@@ -8090,12 +8067,12 @@
         <v>878</v>
       </c>
     </row>
-    <row r="628" spans="1:1">
+    <row r="628" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A628" t="s">
         <v>879</v>
       </c>
     </row>
-    <row r="629" spans="1:2">
+    <row r="629" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A629" t="s">
         <v>834</v>
       </c>
@@ -8103,12 +8080,12 @@
         <v>880</v>
       </c>
     </row>
-    <row r="630" spans="1:1">
+    <row r="630" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A630" t="s">
         <v>881</v>
       </c>
     </row>
-    <row r="631" spans="1:2">
+    <row r="631" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A631" t="s">
         <v>870</v>
       </c>
@@ -8116,7 +8093,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="632" spans="1:2">
+    <row r="632" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A632" t="s">
         <v>870</v>
       </c>
@@ -8124,7 +8101,7 @@
         <v>883</v>
       </c>
     </row>
-    <row r="633" spans="1:2">
+    <row r="633" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A633" t="s">
         <v>834</v>
       </c>
@@ -8132,24 +8109,709 @@
         <v>884</v>
       </c>
     </row>
-    <row r="634" spans="1:1">
+    <row r="634" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A634" t="s">
         <v>885</v>
       </c>
     </row>
-    <row r="635" spans="1:1">
+    <row r="635" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A635" t="s">
         <v>886</v>
       </c>
     </row>
-    <row r="637" spans="1:1">
-      <c r="A637" t="s">
-        <v>535</v>
+    <row r="637" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A637" s="3" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="638" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A638" s="3" t="s">
+        <v>888</v>
+      </c>
+      <c r="B638" s="4" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="639" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A639" s="3" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="640" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A640" s="3" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="641" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A641" s="3" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="642" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A642" s="3" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="643" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A643" s="3" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="644" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A644" s="3" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="645" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A645" s="3" t="s">
+        <v>897</v>
+      </c>
+      <c r="B645" s="4" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="646" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A646" s="3" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="647" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A647" s="3" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="648" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A648" s="3" t="s">
+        <v>898</v>
+      </c>
+      <c r="B648" s="4" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="649" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A649" s="3" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="650" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A650" s="3" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="651" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A651" s="3" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="652" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A652" s="3" t="s">
+        <v>898</v>
+      </c>
+      <c r="B652" s="4" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="653" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A653" s="3" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="654" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A654" s="3" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="655" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A655" s="3" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="656" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A656" s="3" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="657" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A657" s="3" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="658" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A658" s="3" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="659" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A659" s="3" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="660" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A660" s="3" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="661" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A661" s="3" t="s">
+        <v>910</v>
+      </c>
+      <c r="B661" s="4" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="662" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A662" s="3" t="s">
+        <v>911</v>
+      </c>
+      <c r="B662" s="4" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="663" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A663" s="3" t="s">
+        <v>912</v>
+      </c>
+      <c r="B663" s="4" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="664" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A664" s="3" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="665" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A665" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="666" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A666" s="3" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="667" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A667" s="3" t="s">
+        <v>916</v>
+      </c>
+      <c r="B667" s="4" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="668" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A668" s="3" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="669" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A669" s="3" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="670" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A670" s="3" t="s">
+        <v>919</v>
+      </c>
+      <c r="B670" s="4" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="671" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A671" s="3" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="672" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A672" s="3" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="673" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A673" s="3" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="674" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A674" s="3" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="675" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A675" s="3" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="676" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A676" s="3" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="677" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A677" s="3" t="s">
+        <v>926</v>
+      </c>
+      <c r="B677" s="4" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="678" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A678" s="3" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="679" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A679" s="3" t="s">
+        <v>927</v>
+      </c>
+      <c r="B679" s="4" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="680" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B680" s="4" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="681" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A681" s="3" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="682" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A682" s="3" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="683" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A683" s="3" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="684" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A684" s="3" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="685" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A685" s="3" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="686" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A686" s="3" t="s">
+        <v>933</v>
+      </c>
+      <c r="B686" s="4" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="687" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A687" s="3" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="688" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A688" s="3" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="689" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A689" s="3" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="690" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A690" s="3" t="s">
+        <v>937</v>
+      </c>
+      <c r="B690" s="4" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="691" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A691" s="3" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="692" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A692" s="3" t="s">
+        <v>939</v>
+      </c>
+      <c r="B692" s="4" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="693" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A693" s="3" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="694" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A694" s="3" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="695" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A695" s="3" t="s">
+        <v>942</v>
+      </c>
+      <c r="B695" s="4" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="696" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A696" s="3" t="s">
+        <v>943</v>
+      </c>
+      <c r="B696" s="4"/>
+    </row>
+    <row r="697" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A697" s="3" t="s">
+        <v>944</v>
+      </c>
+      <c r="B697" s="4" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="698" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A698" s="3" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="699" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A699" s="3" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="700" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A700" s="3" t="s">
+        <v>947</v>
+      </c>
+      <c r="B700" s="4" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="701" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A701" s="3" t="s">
+        <v>945</v>
+      </c>
+      <c r="B701" s="4" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="702" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A702" s="3" t="s">
+        <v>945</v>
+      </c>
+      <c r="B702" s="4" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="703" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A703" s="3" t="s">
+        <v>949</v>
+      </c>
+      <c r="B703" s="4" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="704" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A704" s="3" t="s">
+        <v>948</v>
+      </c>
+      <c r="B704" s="4" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="705" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B705" s="4" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="706" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A706" s="3" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="707" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A707" s="3" t="s">
+        <v>951</v>
+      </c>
+      <c r="B707" s="4" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="708" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B708" s="4" t="s">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="709" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A709" s="3" t="s">
+        <v>952</v>
+      </c>
+      <c r="B709" s="4" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="710" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A710" s="3" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="711" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A711" s="3" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="712" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A712" s="3" t="s">
+        <v>942</v>
+      </c>
+      <c r="B712" s="4" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="713" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A713" s="3" t="s">
+        <v>955</v>
+      </c>
+      <c r="B713" s="4" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="714" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A714" s="3" t="s">
+        <v>956</v>
+      </c>
+      <c r="B714" s="4" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="715" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B715" s="4" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="716" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A716" s="3" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="717" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A717" s="3" t="s">
+        <v>958</v>
+      </c>
+      <c r="B717" s="4" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="718" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A718" s="3" t="s">
+        <v>959</v>
+      </c>
+      <c r="B718" s="4" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="719" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A719" s="3" t="s">
+        <v>960</v>
+      </c>
+      <c r="B719" s="4" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="720" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A720" s="3" t="s">
+        <v>961</v>
+      </c>
+      <c r="B720" s="4" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="721" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A721" s="3" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="722" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A722" s="3" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="723" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A723" s="3" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="724" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B724" s="4" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="725" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A725" s="3" t="s">
+        <v>965</v>
+      </c>
+      <c r="B725" s="4" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="726" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A726" s="3" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="727" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A727" s="3" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="728" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A728" s="3" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="729" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A729" s="3" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="730" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A730" s="3" t="s">
+        <v>970</v>
+      </c>
+      <c r="B730" s="4" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="731" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A731" s="3"/>
+      <c r="B731" s="4" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="732" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A732" s="3" t="s">
+        <v>971</v>
+      </c>
+      <c r="B732" s="4"/>
+    </row>
+    <row r="733" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A733" s="3" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="734" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A734" s="3" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="735" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A735" s="3" t="s">
+        <v>974</v>
+      </c>
+      <c r="B735" s="4" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="736" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A736" s="3" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="737" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A737" s="3" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="738" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A738" s="3" t="s">
+        <v>975</v>
+      </c>
+      <c r="B738" s="4" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="739" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A739" s="3" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="740" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A740" s="3" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="741" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A741" s="3" t="s">
+        <v>979</v>
+      </c>
+      <c r="B741" s="4" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="742" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A742" s="3" t="s">
+        <v>965</v>
+      </c>
+      <c r="B742" s="4" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="743" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A743" s="3" t="s">
+        <v>980</v>
+      </c>
+      <c r="B743" s="4" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="744" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A744" s="3" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="745" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A745" s="3" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="746" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A746" s="3" t="s">
+        <v>984</v>
+      </c>
+      <c r="B746" s="4" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="747" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A747" s="3" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="748" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B748" s="4" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="749" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B749" s="4" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="750" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A750" s="3" t="s">
+        <v>985</v>
+      </c>
+      <c r="B750" s="4" t="s">
+        <v>1029</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/WangLu-C3.xlsx
+++ b/WangLu-C3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\LearningforIELTS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02A017DD-1B31-474D-9CE6-652370994E56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90C26094-7FCF-4C34-9840-735C98FFC74B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1228" uniqueCount="1030">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1229" uniqueCount="1031">
   <si>
     <t>Test1</t>
   </si>
@@ -3252,6 +3252,10 @@
   </si>
   <si>
     <t>particulars</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Test7</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -3617,10 +3621,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D750"/>
+  <dimension ref="A1:D752"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A731" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A752" sqref="A752"/>
+    <sheetView tabSelected="1" topLeftCell="A746" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="A753" sqref="A753"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -8809,6 +8813,11 @@
         <v>1029</v>
       </c>
     </row>
+    <row r="752" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A752" s="3" t="s">
+        <v>1030</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/WangLu-C3.xlsx
+++ b/WangLu-C3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\LearningforIELTS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90C26094-7FCF-4C34-9840-735C98FFC74B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4F9980B-BE99-4CAD-88FC-9A0D39328372}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="14055" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1229" uniqueCount="1031">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1868" uniqueCount="1600">
   <si>
     <t>Test1</t>
   </si>
@@ -3256,6 +3256,2282 @@
   </si>
   <si>
     <t>Test7</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>poterey</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>power</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>powerpoint</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>percussion</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>persition</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>prepersition</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>persicription</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>perservation</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>persident</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>pervesion</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>painting</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>preo</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>priversy</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>price</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>problem</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>product</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>production</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>professor</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>profect</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>project</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>promotion</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>prone</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>property</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>persce</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>pri</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>phy</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>phycologist</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>phyco</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>probulation</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>pron</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>per</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>quality</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>quantity</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>quarter</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>question</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>rader</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>radiater</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>radio</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>railway</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>rad</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>rainfall</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>range</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>rank</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>rock</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>rate</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>rice</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>rise</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ridar</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>reading</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>reason</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>reception</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>recipe</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>recoder</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>recording</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>retriation</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>recrute</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>recycling</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>re</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>reference</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>reflection</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>reform</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>refu</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>region</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>regulation</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>relation</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>relationship</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>relaxation</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>relief</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>relagion</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>remark</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>removal</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>renewal</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>rent</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>rentful</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>repo</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>replacement</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>report</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>reproduce</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>research</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>reservation</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>resedent</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>resource</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>respon</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>response</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>resteraut</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>result</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>retirement</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>return</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>review</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>right</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>rider</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>rides</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>risk</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>river</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>rival</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>rocket</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>roll</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Test8</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>roommate</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>room</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>rule</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>the</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>thisty</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>thill</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>thilling</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>salad</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>salads</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>salary</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>sell</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>sort</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>sample</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>sando</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>sightlight</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>soul</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>s</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>sil</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>se</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ga</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>scarf</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>sent</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>sad</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>think</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>sc</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>scholarship</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>science</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>scientist</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>score</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>script</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">sc </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>see</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>season</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>second</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>scacreraty</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>section</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>selection</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>seminar</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>send</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>sentence</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>sen</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>service</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>su</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>sour</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ship</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>she</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>shay</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>shaw</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>short</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>shoe</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>shoper</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>shortage</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>shower</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>shi</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>sight</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>si</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>signature</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>sila</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>similation</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>single</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>sitting</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>line</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>lake</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>lape</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>lapping</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>lift</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>mile</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>mouk</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>mouking</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>nap</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>oil</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>solution</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>song</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>southeast</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>south</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>southwest</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>th</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>theater</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>thinking</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>thi</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>both</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>boss</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ability</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>stage</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>there</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>sandige</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>theft</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>thition</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>save</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>sake</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>souk</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>stomach</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>boring</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>bore</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>strategy</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>drink</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>submit</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>subject</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>suger</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>supervisor</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>support</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>surface</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>surgeon</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>surname</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>surprise</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>survey</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>survive</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>witch</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>w</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>t</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>table</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>tablet</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>potteries</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>precaution</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>precision</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>preference</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>preposition</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>prescription</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>presentation</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>preservation</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>president</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>prevention</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>printing</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>priority</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>privacy</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>prize</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>professors</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>profit</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>prospectus</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>protein</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>psychiatrist</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>psychologist</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>psychotherapy</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>publication</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>pump</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>purpose</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>purse</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>radar</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>radiator</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>rain</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>rat</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>rats</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ray</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>reader</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>recorder</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>recreation</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>recruit</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>referee</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>reflectance</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>refuge</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>religion</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>rental</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>repetition</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>reserve</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>residence</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>resident</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>respondent</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>restaurant</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>revision</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>rice</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>riders</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>robot</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>role</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>roommates</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>route</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>safari</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>safety</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>sall</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>sailing</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>sale</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>salt</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>sandal</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>satellite</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>sauce</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>saving</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>scale</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>scandal</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>scandals</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>scar</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>scent</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>schedule</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>scheme</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>scholar</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>sculpture</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>sea</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>seat</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>secretary</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>sector</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>selections</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>sense</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>servant</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>sewage</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>sewer</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>sex</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>shade</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>sheep</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>sheet</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>shelf</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>shell</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>shelter</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>shoplifers</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>shopper</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>side</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>sign</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>silence</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>simulation</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>site</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>size</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>skating</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>skeleton</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>skin</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>skirt</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>slang</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>slave</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>sleep</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>sleeping</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>slip</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>smell</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>smoke</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>smoking</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>snack</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>soil</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>sound</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>source</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>space</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>speaker</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>speaking</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>speed</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>spending</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>spider</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>sponsor</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>spoons</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>sportsman</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>spot</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>stability</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>stack</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>stair</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>standard</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>star</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>starter</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>starting</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>state</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>statement</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>station</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>status</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>steak</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>steam</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>step</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>sting</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>stock</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>stomachache</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>stone</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>store</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>story</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>strike</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>style</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>subsidy</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>suburb</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>sugar</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>suit</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>sunshield</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>supports</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>survival</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>sweater</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>switch</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>switches</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>symptom</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>syndicate</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>syrup</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>system</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>tape</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>tax</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Test9</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>taxi</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>tea</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>teacher</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>teaching</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>team</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>jungle</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>tech</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>technology</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>telephone</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>telescope</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>television</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>temper</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>tempal</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>tem</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>tex</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>therapy</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>thesis</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>thef</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>thin</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>thought</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>thriller</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>tired</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ti</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>till</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>tinber</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>time</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>tittle</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>toaster</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>toil</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>tomato</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>to</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>top</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>topic</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>total</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>touching</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>tall</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>toring</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>torithem</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>tourist</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>tower</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>town</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>tri</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>tracter</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>train</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>tram</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>tragety</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>triler</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>training</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>trains</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>travel</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>traveller</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>trip</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>try</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>tribute</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>trinoty</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>tarnel</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>tu</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>tutor</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>unpair</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>understanding</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>uniform</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>uni</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>university</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>usage</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>u</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>value</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>vocation</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>va</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>variety</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>vegetable</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>v</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>vex</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>video</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>village</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>vineger</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>vi</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>visitor</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>wait</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>volunteer</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>volunteers</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>waitor</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>work</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>working</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>wall</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>well</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>warming</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>washing</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>wa</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>waitline</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>water</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>wet</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>wealth</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>win</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>weather</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>weekdays</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>week</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>weekends</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>wellfare</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>wetline</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>will</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>wit</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>willow</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>what</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>workfor</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>wood</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>writing</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>year</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>yoga</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>you</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>zero</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>jargon</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>term</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>teeth</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>temple</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>text</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>texture</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>galaxy</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>theory</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>therapist</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>thief</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>thieves</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>third</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>threat</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ticket</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>tide</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>tides</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>tile</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>timber</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>title</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>toilet</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>tone</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>tool</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>tour</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>touring</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>tourism</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>towel</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>track</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>tractor</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>trade</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>tragedy</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>trailer</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>trend</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>traveler</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>treatment</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>tribe</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>tributes</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Trinity</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>trolley</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>trouble</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>tube</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>tunnels</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>tuition</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>tune</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>tunes</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>umpire</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>utensil</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>union</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>vacancy</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>vacation</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>particulars</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>velvet</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>vet</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>view</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>vinegar</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>visa</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>visitor</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>vitamin</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>vocation</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>waist</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>waiter</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>walk</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>walking</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>world</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>wasp</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>waste</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>wasteland</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>wave</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>wax</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>weapon</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>weeds</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>weekday</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>weekend</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>weight</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>welfare</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>west</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>wetland</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>whale</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>wheel</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>width</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>willows</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>wind</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>wing</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>word</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>workforce</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>wound</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>youth</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -3621,10 +5897,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D752"/>
+  <dimension ref="A1:D1153"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A746" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A753" sqref="A753"/>
+    <sheetView tabSelected="1" topLeftCell="A1130" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B1154" sqref="B1154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -8818,9 +11094,2733 @@
         <v>1030</v>
       </c>
     </row>
+    <row r="753" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A753" s="3" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B753" s="4" t="s">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="754" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A754" s="3" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="755" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A755" s="3" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="756" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A756" s="3" t="s">
+        <v>1034</v>
+      </c>
+      <c r="B756" s="4" t="s">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="757" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A757" s="3" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B757" s="4" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="758" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B758" s="4" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="759" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A759" s="3" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B759" s="4" t="s">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="760" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A760" s="3" t="s">
+        <v>1037</v>
+      </c>
+      <c r="B760" s="4" t="s">
+        <v>1246</v>
+      </c>
+    </row>
+    <row r="761" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B761" s="4" t="s">
+        <v>1247</v>
+      </c>
+    </row>
+    <row r="762" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A762" s="3" t="s">
+        <v>1038</v>
+      </c>
+      <c r="B762" s="4" t="s">
+        <v>1248</v>
+      </c>
+    </row>
+    <row r="763" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A763" s="3" t="s">
+        <v>1039</v>
+      </c>
+      <c r="B763" s="4" t="s">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="764" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A764" s="3" t="s">
+        <v>1040</v>
+      </c>
+      <c r="B764" s="4" t="s">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="765" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A765" s="3" t="s">
+        <v>1041</v>
+      </c>
+      <c r="B765" s="4" t="s">
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="766" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A766" s="3" t="s">
+        <v>1042</v>
+      </c>
+      <c r="B766" s="4" t="s">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="767" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A767" s="3" t="s">
+        <v>1043</v>
+      </c>
+      <c r="B767" s="4" t="s">
+        <v>1253</v>
+      </c>
+    </row>
+    <row r="768" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A768" s="3" t="s">
+        <v>1044</v>
+      </c>
+      <c r="B768" s="4" t="s">
+        <v>1254</v>
+      </c>
+    </row>
+    <row r="769" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A769" s="3" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="770" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A770" s="3" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="771" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A771" s="3" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="772" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A772" s="3" t="s">
+        <v>1048</v>
+      </c>
+      <c r="B772" s="4" t="s">
+        <v>1255</v>
+      </c>
+    </row>
+    <row r="773" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A773" s="3" t="s">
+        <v>1049</v>
+      </c>
+      <c r="B773" s="4" t="s">
+        <v>1256</v>
+      </c>
+    </row>
+    <row r="774" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A774" s="3" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="775" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A775" s="3" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="776" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A776" s="3" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="777" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A777" s="3" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="778" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A778" s="3" t="s">
+        <v>1054</v>
+      </c>
+      <c r="B778" s="4" t="s">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="779" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A779" s="3" t="s">
+        <v>1055</v>
+      </c>
+      <c r="B779" s="4" t="s">
+        <v>1258</v>
+      </c>
+    </row>
+    <row r="780" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A780" s="3" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B780" s="4" t="s">
+        <v>1259</v>
+      </c>
+    </row>
+    <row r="781" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A781" s="3" t="s">
+        <v>1057</v>
+      </c>
+      <c r="B781" s="4" t="s">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="782" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A782" s="3" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B782" s="4" t="s">
+        <v>1261</v>
+      </c>
+    </row>
+    <row r="783" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A783" s="3" t="s">
+        <v>1059</v>
+      </c>
+      <c r="B783" s="4" t="s">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="784" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A784" s="3" t="s">
+        <v>1060</v>
+      </c>
+      <c r="B784" s="4" t="s">
+        <v>1263</v>
+      </c>
+    </row>
+    <row r="785" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A785" s="3" t="s">
+        <v>1061</v>
+      </c>
+      <c r="B785" s="4" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="786" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A786" s="3" t="s">
+        <v>1061</v>
+      </c>
+      <c r="B786" s="4" t="s">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="787" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A787" s="3" t="s">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="788" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A788" s="3" t="s">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="789" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A789" s="3" t="s">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="790" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A790" s="3" t="s">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="791" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A791" s="3" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B791" s="4" t="s">
+        <v>1266</v>
+      </c>
+    </row>
+    <row r="792" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A792" s="3" t="s">
+        <v>1067</v>
+      </c>
+      <c r="B792" s="4" t="s">
+        <v>1267</v>
+      </c>
+    </row>
+    <row r="793" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A793" s="3" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="794" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A794" s="3" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="795" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A795" s="3" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B795" s="4" t="s">
+        <v>1268</v>
+      </c>
+    </row>
+    <row r="796" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A796" s="3" t="s">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="797" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A797" s="3" t="s">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="798" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A798" s="3" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="799" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A799" s="3" t="s">
+        <v>1074</v>
+      </c>
+      <c r="B799" s="4" t="s">
+        <v>1269</v>
+      </c>
+    </row>
+    <row r="800" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A800" s="3" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="801" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A801" s="3" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B801" s="4" t="s">
+        <v>1270</v>
+      </c>
+    </row>
+    <row r="802" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A802" s="3" t="s">
+        <v>1077</v>
+      </c>
+      <c r="B802" s="4" t="s">
+        <v>1271</v>
+      </c>
+    </row>
+    <row r="803" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A803" s="3" t="s">
+        <v>1078</v>
+      </c>
+      <c r="B803" s="4" t="s">
+        <v>1272</v>
+      </c>
+    </row>
+    <row r="804" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A804" s="3" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="805" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A805" s="3" t="s">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="806" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A806" s="3" t="s">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="807" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A807" s="3" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="808" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A808" s="3" t="s">
+        <v>1083</v>
+      </c>
+      <c r="B808" s="4" t="s">
+        <v>1273</v>
+      </c>
+    </row>
+    <row r="809" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A809" s="3" t="s">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="810" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A810" s="3" t="s">
+        <v>1085</v>
+      </c>
+      <c r="B810" s="4" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="811" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A811" s="3" t="s">
+        <v>1086</v>
+      </c>
+      <c r="B811" s="4" t="s">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="812" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A812" s="3" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="813" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A813" s="3" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B813" s="4" t="s">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="814" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A814" s="3" t="s">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="815" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A815" s="3" t="s">
+        <v>1090</v>
+      </c>
+      <c r="B815" s="4" t="s">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="816" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A816" s="3" t="s">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="817" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A817" s="3" t="s">
+        <v>1092</v>
+      </c>
+      <c r="B817" s="4" t="s">
+        <v>1278</v>
+      </c>
+    </row>
+    <row r="818" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A818" s="3" t="s">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="819" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A819" s="3" t="s">
+        <v>1094</v>
+      </c>
+    </row>
+    <row r="820" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A820" s="3" t="s">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="821" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A821" s="3" t="s">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="822" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A822" s="3" t="s">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="823" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A823" s="3" t="s">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="824" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A824" s="3" t="s">
+        <v>1099</v>
+      </c>
+      <c r="B824" s="4" t="s">
+        <v>1279</v>
+      </c>
+    </row>
+    <row r="825" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A825" s="3" t="s">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="826" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A826" s="3" t="s">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="827" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A827" s="3" t="s">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="828" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A828" s="3" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="829" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A829" s="3" t="s">
+        <v>1104</v>
+      </c>
+      <c r="B829" s="4" t="s">
+        <v>1280</v>
+      </c>
+    </row>
+    <row r="830" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A830" s="3" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B830" s="4" t="s">
+        <v>1281</v>
+      </c>
+    </row>
+    <row r="831" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A831" s="3" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="832" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A832" s="3" t="s">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="833" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A833" s="3" t="s">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="834" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A834" s="3" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="835" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A835" s="3" t="s">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="836" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B836" s="4" t="s">
+        <v>1282</v>
+      </c>
+    </row>
+    <row r="837" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B837" s="4" t="s">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="838" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A838" s="3" t="s">
+        <v>1111</v>
+      </c>
+      <c r="B838" s="4" t="s">
+        <v>1284</v>
+      </c>
+    </row>
+    <row r="839" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A839" s="3" t="s">
+        <v>1112</v>
+      </c>
+      <c r="B839" s="4"/>
+    </row>
+    <row r="840" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A840" s="3" t="s">
+        <v>1113</v>
+      </c>
+      <c r="B840" s="4" t="s">
+        <v>1285</v>
+      </c>
+    </row>
+    <row r="841" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A841" s="3" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="842" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A842" s="3" t="s">
+        <v>1115</v>
+      </c>
+      <c r="B842" s="4" t="s">
+        <v>1286</v>
+      </c>
+    </row>
+    <row r="843" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A843" s="3" t="s">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="844" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A844" s="3" t="s">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="845" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A845" s="3" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="846" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A846" s="3" t="s">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="847" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A847" s="3" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B847" s="4" t="s">
+        <v>1287</v>
+      </c>
+    </row>
+    <row r="848" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A848" s="3" t="s">
+        <v>1120</v>
+      </c>
+      <c r="B848" s="4" t="s">
+        <v>1288</v>
+      </c>
+    </row>
+    <row r="849" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A849" s="3" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="850" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A850" s="3" t="s">
+        <v>1122</v>
+      </c>
+      <c r="B850" s="4" t="s">
+        <v>1289</v>
+      </c>
+    </row>
+    <row r="851" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A851" s="3" t="s">
+        <v>1123</v>
+      </c>
+    </row>
+    <row r="852" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A852" s="3" t="s">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="853" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A853" s="3" t="s">
+        <v>1125</v>
+      </c>
+      <c r="B853" s="4" t="s">
+        <v>1290</v>
+      </c>
+    </row>
+    <row r="854" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A854" s="3" t="s">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="855" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A855" s="3" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="856" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A856" s="3" t="s">
+        <v>1127</v>
+      </c>
+      <c r="B856" s="4" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="858" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A858" s="3" t="s">
+        <v>1128</v>
+      </c>
+    </row>
+    <row r="859" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A859" s="3" t="s">
+        <v>1129</v>
+      </c>
+      <c r="B859" s="4" t="s">
+        <v>1292</v>
+      </c>
+    </row>
+    <row r="860" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A860" s="3" t="s">
+        <v>1130</v>
+      </c>
+      <c r="B860" s="4" t="s">
+        <v>1293</v>
+      </c>
+    </row>
+    <row r="861" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A861" s="3" t="s">
+        <v>1131</v>
+      </c>
+      <c r="B861" s="4"/>
+    </row>
+    <row r="862" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A862" s="3" t="s">
+        <v>1132</v>
+      </c>
+      <c r="B862" s="4" t="s">
+        <v>1294</v>
+      </c>
+    </row>
+    <row r="863" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A863" s="3" t="s">
+        <v>1133</v>
+      </c>
+      <c r="B863" s="4" t="s">
+        <v>1295</v>
+      </c>
+    </row>
+    <row r="864" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A864" s="3" t="s">
+        <v>1134</v>
+      </c>
+      <c r="B864" s="4" t="s">
+        <v>1296</v>
+      </c>
+    </row>
+    <row r="865" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A865" s="3" t="s">
+        <v>1135</v>
+      </c>
+      <c r="B865" s="4" t="s">
+        <v>1297</v>
+      </c>
+    </row>
+    <row r="866" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A866" s="3" t="s">
+        <v>1136</v>
+      </c>
+    </row>
+    <row r="867" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A867" s="3" t="s">
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="868" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A868" s="3" t="s">
+        <v>1138</v>
+      </c>
+    </row>
+    <row r="869" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A869" s="3" t="s">
+        <v>1139</v>
+      </c>
+      <c r="B869" s="4" t="s">
+        <v>1298</v>
+      </c>
+    </row>
+    <row r="870" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A870" s="3" t="s">
+        <v>1140</v>
+      </c>
+      <c r="B870" s="4" t="s">
+        <v>1299</v>
+      </c>
+    </row>
+    <row r="871" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A871" s="3" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="872" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A872" s="3" t="s">
+        <v>1142</v>
+      </c>
+      <c r="B872" s="4" t="s">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="873" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A873" s="3" t="s">
+        <v>1143</v>
+      </c>
+      <c r="B873" s="4" t="s">
+        <v>1301</v>
+      </c>
+    </row>
+    <row r="874" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A874" s="3" t="s">
+        <v>1144</v>
+      </c>
+      <c r="B874" s="4" t="s">
+        <v>1302</v>
+      </c>
+    </row>
+    <row r="875" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A875" s="3" t="s">
+        <v>1145</v>
+      </c>
+      <c r="B875" s="4" t="s">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="876" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A876" s="3" t="s">
+        <v>1146</v>
+      </c>
+      <c r="B876" s="4" t="s">
+        <v>1304</v>
+      </c>
+    </row>
+    <row r="877" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A877" s="3" t="s">
+        <v>1147</v>
+      </c>
+      <c r="B877" s="4" t="s">
+        <v>1305</v>
+      </c>
+    </row>
+    <row r="878" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A878" s="3" t="s">
+        <v>1148</v>
+      </c>
+      <c r="B878" s="4" t="s">
+        <v>1306</v>
+      </c>
+    </row>
+    <row r="879" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A879" s="3" t="s">
+        <v>1149</v>
+      </c>
+      <c r="B879" s="4" t="s">
+        <v>1307</v>
+      </c>
+    </row>
+    <row r="880" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A880" s="3" t="s">
+        <v>1150</v>
+      </c>
+      <c r="B880" s="4" t="s">
+        <v>1308</v>
+      </c>
+    </row>
+    <row r="881" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A881" s="3" t="s">
+        <v>1151</v>
+      </c>
+      <c r="B881" s="4" t="s">
+        <v>1309</v>
+      </c>
+    </row>
+    <row r="882" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A882" s="3" t="s">
+        <v>1152</v>
+      </c>
+      <c r="B882" s="4" t="s">
+        <v>1310</v>
+      </c>
+    </row>
+    <row r="883" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A883" s="3" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B883" s="4" t="s">
+        <v>1311</v>
+      </c>
+    </row>
+    <row r="884" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A884" s="3" t="s">
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="885" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A885" s="3" t="s">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="886" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A886" s="3" t="s">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="887" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A887" s="3" t="s">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="888" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A888" s="3" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="889" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A889" s="3" t="s">
+        <v>1159</v>
+      </c>
+      <c r="B889" s="4" t="s">
+        <v>1312</v>
+      </c>
+    </row>
+    <row r="890" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A890" s="3" t="s">
+        <v>1160</v>
+      </c>
+      <c r="B890" s="4" t="s">
+        <v>1313</v>
+      </c>
+    </row>
+    <row r="891" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A891" s="3" t="s">
+        <v>1161</v>
+      </c>
+    </row>
+    <row r="892" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A892" s="3" t="s">
+        <v>1145</v>
+      </c>
+      <c r="B892" s="4" t="s">
+        <v>1314</v>
+      </c>
+    </row>
+    <row r="893" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A893" s="3" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="894" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A894" s="3" t="s">
+        <v>1163</v>
+      </c>
+      <c r="B894" s="4" t="s">
+        <v>1315</v>
+      </c>
+    </row>
+    <row r="895" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A895" s="3" t="s">
+        <v>1164</v>
+      </c>
+    </row>
+    <row r="896" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A896" s="3" t="s">
+        <v>1147</v>
+      </c>
+      <c r="B896" s="4" t="s">
+        <v>1316</v>
+      </c>
+    </row>
+    <row r="897" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A897" s="3" t="s">
+        <v>1165</v>
+      </c>
+    </row>
+    <row r="898" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A898" s="3" t="s">
+        <v>1165</v>
+      </c>
+      <c r="B898" s="4" t="s">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="899" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A899" s="3" t="s">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="900" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A900" s="3" t="s">
+        <v>1167</v>
+      </c>
+      <c r="B900" s="4" t="s">
+        <v>1318</v>
+      </c>
+    </row>
+    <row r="901" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A901" s="3" t="s">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="902" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A902" s="3" t="s">
+        <v>1169</v>
+      </c>
+      <c r="B902" s="4" t="s">
+        <v>1319</v>
+      </c>
+    </row>
+    <row r="903" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A903" s="3" t="s">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="904" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A904" s="3" t="s">
+        <v>1171</v>
+      </c>
+      <c r="B904" s="4" t="s">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="905" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A905" s="3" t="s">
+        <v>1172</v>
+      </c>
+      <c r="B905" s="4" t="s">
+        <v>1321</v>
+      </c>
+    </row>
+    <row r="906" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A906" s="3" t="s">
+        <v>1151</v>
+      </c>
+      <c r="B906" s="4" t="s">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="907" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A907" s="3" t="s">
+        <v>1175</v>
+      </c>
+      <c r="B907" s="4" t="s">
+        <v>1323</v>
+      </c>
+    </row>
+    <row r="908" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A908" s="3" t="s">
+        <v>1173</v>
+      </c>
+      <c r="B908" s="4" t="s">
+        <v>1324</v>
+      </c>
+    </row>
+    <row r="909" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A909" s="3" t="s">
+        <v>1174</v>
+      </c>
+      <c r="B909" s="4" t="s">
+        <v>1325</v>
+      </c>
+    </row>
+    <row r="910" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A910" s="3" t="s">
+        <v>1176</v>
+      </c>
+      <c r="B910" s="4" t="s">
+        <v>1326</v>
+      </c>
+    </row>
+    <row r="911" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A911" s="3" t="s">
+        <v>1176</v>
+      </c>
+      <c r="B911" s="4" t="s">
+        <v>1327</v>
+      </c>
+    </row>
+    <row r="912" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A912" s="3" t="s">
+        <v>1177</v>
+      </c>
+      <c r="B912" s="4" t="s">
+        <v>1328</v>
+      </c>
+    </row>
+    <row r="913" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A913" s="3" t="s">
+        <v>1173</v>
+      </c>
+    </row>
+    <row r="914" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A914" s="3" t="s">
+        <v>1178</v>
+      </c>
+    </row>
+    <row r="915" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A915" s="3" t="s">
+        <v>1173</v>
+      </c>
+      <c r="B915" s="4" t="s">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="916" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A916" s="3" t="s">
+        <v>1179</v>
+      </c>
+      <c r="B916" s="4" t="s">
+        <v>1330</v>
+      </c>
+    </row>
+    <row r="917" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A917" s="3" t="s">
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="918" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A918" s="3" t="s">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="919" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A919" s="3" t="s">
+        <v>1182</v>
+      </c>
+      <c r="B919" s="4" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="920" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A920" s="3" t="s">
+        <v>1183</v>
+      </c>
+      <c r="B920" s="4"/>
+    </row>
+    <row r="921" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A921" s="3" t="s">
+        <v>1184</v>
+      </c>
+      <c r="B921" s="4" t="s">
+        <v>1332</v>
+      </c>
+    </row>
+    <row r="922" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A922" s="3" t="s">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="923" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A923" s="3" t="s">
+        <v>1186</v>
+      </c>
+      <c r="B923" s="4" t="s">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="924" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A924" s="3" t="s">
+        <v>1187</v>
+      </c>
+      <c r="B924" s="4" t="s">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="925" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A925" s="3" t="s">
+        <v>1188</v>
+      </c>
+    </row>
+    <row r="926" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A926" s="3" t="s">
+        <v>1183</v>
+      </c>
+      <c r="B926" s="4" t="s">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="927" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A927" s="3" t="s">
+        <v>1184</v>
+      </c>
+      <c r="B927" s="4" t="s">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="928" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A928" s="3" t="s">
+        <v>1189</v>
+      </c>
+      <c r="B928" s="4" t="s">
+        <v>1337</v>
+      </c>
+    </row>
+    <row r="929" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A929" s="3" t="s">
+        <v>1184</v>
+      </c>
+      <c r="B929" s="4" t="s">
+        <v>1338</v>
+      </c>
+    </row>
+    <row r="930" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A930" s="3" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B930" s="4" t="s">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="931" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A931" s="3" t="s">
+        <v>1145</v>
+      </c>
+      <c r="B931" s="4" t="s">
+        <v>1340</v>
+      </c>
+    </row>
+    <row r="932" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A932" s="3" t="s">
+        <v>1145</v>
+      </c>
+      <c r="B932" s="4" t="s">
+        <v>1341</v>
+      </c>
+    </row>
+    <row r="933" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A933" s="3" t="s">
+        <v>1190</v>
+      </c>
+      <c r="B933" s="4" t="s">
+        <v>1342</v>
+      </c>
+    </row>
+    <row r="934" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A934" s="3" t="s">
+        <v>1191</v>
+      </c>
+      <c r="B934" s="4" t="s">
+        <v>1343</v>
+      </c>
+    </row>
+    <row r="935" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A935" s="3" t="s">
+        <v>1192</v>
+      </c>
+      <c r="B935" s="4" t="s">
+        <v>1344</v>
+      </c>
+    </row>
+    <row r="936" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A936" s="3" t="s">
+        <v>1193</v>
+      </c>
+      <c r="B936" s="4" t="s">
+        <v>1345</v>
+      </c>
+    </row>
+    <row r="937" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A937" s="3" t="s">
+        <v>1194</v>
+      </c>
+      <c r="B937" s="4" t="s">
+        <v>1346</v>
+      </c>
+    </row>
+    <row r="938" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A938" s="3" t="s">
+        <v>1195</v>
+      </c>
+      <c r="B938" s="4" t="s">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="939" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A939" s="3" t="s">
+        <v>1196</v>
+      </c>
+      <c r="B939" s="4" t="s">
+        <v>1348</v>
+      </c>
+    </row>
+    <row r="940" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A940" s="3" t="s">
+        <v>1197</v>
+      </c>
+      <c r="B940" s="4" t="s">
+        <v>1349</v>
+      </c>
+    </row>
+    <row r="941" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A941" s="3" t="s">
+        <v>1198</v>
+      </c>
+      <c r="B941" s="4" t="s">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="942" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A942" s="3" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B942" s="4" t="s">
+        <v>1351</v>
+      </c>
+    </row>
+    <row r="943" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A943" s="3" t="s">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="944" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A944" s="3" t="s">
+        <v>1201</v>
+      </c>
+      <c r="B944" s="4" t="s">
+        <v>1352</v>
+      </c>
+    </row>
+    <row r="945" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A945" s="3" t="s">
+        <v>1172</v>
+      </c>
+      <c r="B945" s="4" t="s">
+        <v>1353</v>
+      </c>
+    </row>
+    <row r="946" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A946" s="3" t="s">
+        <v>1203</v>
+      </c>
+    </row>
+    <row r="947" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A947" s="3" t="s">
+        <v>1202</v>
+      </c>
+    </row>
+    <row r="948" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A948" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="949" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A949" s="3" t="s">
+        <v>1205</v>
+      </c>
+      <c r="B949" s="4" t="s">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="950" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A950" s="3" t="s">
+        <v>1206</v>
+      </c>
+      <c r="B950" s="4" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="951" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A951" s="3" t="s">
+        <v>1207</v>
+      </c>
+      <c r="B951" s="4" t="s">
+        <v>1356</v>
+      </c>
+    </row>
+    <row r="952" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A952" s="3" t="s">
+        <v>1205</v>
+      </c>
+      <c r="B952" s="4" t="s">
+        <v>1357</v>
+      </c>
+    </row>
+    <row r="953" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A953" s="3" t="s">
+        <v>1208</v>
+      </c>
+      <c r="B953" s="4" t="s">
+        <v>1358</v>
+      </c>
+    </row>
+    <row r="954" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A954" s="3" t="s">
+        <v>1205</v>
+      </c>
+      <c r="B954" s="4" t="s">
+        <v>1359</v>
+      </c>
+    </row>
+    <row r="955" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A955" s="3" t="s">
+        <v>1205</v>
+      </c>
+      <c r="B955" s="4" t="s">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="956" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A956" s="3" t="s">
+        <v>1145</v>
+      </c>
+      <c r="B956" s="4" t="s">
+        <v>1361</v>
+      </c>
+    </row>
+    <row r="957" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A957" s="3" t="s">
+        <v>1209</v>
+      </c>
+      <c r="B957" s="4" t="s">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="958" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A958" s="3" t="s">
+        <v>1210</v>
+      </c>
+      <c r="B958" s="4" t="s">
+        <v>1363</v>
+      </c>
+    </row>
+    <row r="959" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A959" s="3" t="s">
+        <v>1211</v>
+      </c>
+      <c r="B959" s="4" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="960" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A960" s="3" t="s">
+        <v>1205</v>
+      </c>
+      <c r="B960" s="4" t="s">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="961" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A961" s="3" t="s">
+        <v>1212</v>
+      </c>
+      <c r="B961" s="4" t="s">
+        <v>1212</v>
+      </c>
+    </row>
+    <row r="962" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A962" s="3" t="s">
+        <v>1213</v>
+      </c>
+      <c r="B962" s="4" t="s">
+        <v>1366</v>
+      </c>
+    </row>
+    <row r="963" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A963" s="3" t="s">
+        <v>1214</v>
+      </c>
+      <c r="B963" s="4" t="s">
+        <v>1367</v>
+      </c>
+    </row>
+    <row r="964" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A964" s="3" t="s">
+        <v>1205</v>
+      </c>
+      <c r="B964" s="4" t="s">
+        <v>1368</v>
+      </c>
+    </row>
+    <row r="965" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A965" s="3" t="s">
+        <v>1205</v>
+      </c>
+      <c r="B965" s="4" t="s">
+        <v>1369</v>
+      </c>
+    </row>
+    <row r="966" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A966" s="3" t="s">
+        <v>1205</v>
+      </c>
+      <c r="B966" s="4" t="s">
+        <v>1370</v>
+      </c>
+    </row>
+    <row r="967" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A967" s="3" t="s">
+        <v>1215</v>
+      </c>
+      <c r="B967" s="4" t="s">
+        <v>1371</v>
+      </c>
+    </row>
+    <row r="968" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A968" s="3" t="s">
+        <v>1205</v>
+      </c>
+      <c r="B968" s="4" t="s">
+        <v>1372</v>
+      </c>
+    </row>
+    <row r="969" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A969" s="3" t="s">
+        <v>1216</v>
+      </c>
+      <c r="B969" s="4" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="970" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A970" s="3" t="s">
+        <v>1205</v>
+      </c>
+      <c r="B970" s="4" t="s">
+        <v>1374</v>
+      </c>
+    </row>
+    <row r="971" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A971" s="3" t="s">
+        <v>1205</v>
+      </c>
+      <c r="B971" s="4" t="s">
+        <v>1375</v>
+      </c>
+    </row>
+    <row r="972" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A972" s="3" t="s">
+        <v>1217</v>
+      </c>
+      <c r="B972" s="4" t="s">
+        <v>1376</v>
+      </c>
+    </row>
+    <row r="973" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A973" s="3" t="s">
+        <v>1218</v>
+      </c>
+      <c r="B973" s="4" t="s">
+        <v>1377</v>
+      </c>
+    </row>
+    <row r="974" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A974" s="3" t="s">
+        <v>1219</v>
+      </c>
+      <c r="B974" s="4" t="s">
+        <v>1378</v>
+      </c>
+    </row>
+    <row r="975" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A975" s="3" t="s">
+        <v>1220</v>
+      </c>
+      <c r="B975" s="4" t="s">
+        <v>1379</v>
+      </c>
+    </row>
+    <row r="976" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A976" s="3" t="s">
+        <v>1145</v>
+      </c>
+      <c r="B976" s="4" t="s">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="977" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A977" s="3" t="s">
+        <v>1145</v>
+      </c>
+      <c r="B977" s="4" t="s">
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="978" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A978" s="3" t="s">
+        <v>1222</v>
+      </c>
+      <c r="B978" s="4" t="s">
+        <v>1381</v>
+      </c>
+    </row>
+    <row r="979" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A979" s="3"/>
+      <c r="B979" s="4" t="s">
+        <v>1382</v>
+      </c>
+    </row>
+    <row r="980" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A980" s="3" t="s">
+        <v>1221</v>
+      </c>
+      <c r="B980" s="4" t="s">
+        <v>1383</v>
+      </c>
+    </row>
+    <row r="981" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A981" s="3" t="s">
+        <v>1223</v>
+      </c>
+    </row>
+    <row r="982" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A982" s="3" t="s">
+        <v>1224</v>
+      </c>
+      <c r="B982" s="4" t="s">
+        <v>1384</v>
+      </c>
+    </row>
+    <row r="983" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A983" s="3" t="s">
+        <v>1226</v>
+      </c>
+      <c r="B983" s="4" t="s">
+        <v>1385</v>
+      </c>
+    </row>
+    <row r="984" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A984" s="3" t="s">
+        <v>1225</v>
+      </c>
+      <c r="B984" s="4" t="s">
+        <v>1226</v>
+      </c>
+    </row>
+    <row r="985" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B985" s="4" t="s">
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="986" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B986" s="4" t="s">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="987" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B987" s="4" t="s">
+        <v>1387</v>
+      </c>
+    </row>
+    <row r="988" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A988" s="3" t="s">
+        <v>1227</v>
+      </c>
+      <c r="B988" s="4" t="s">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="989" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A989" s="3" t="s">
+        <v>1171</v>
+      </c>
+      <c r="B989" s="4" t="s">
+        <v>1389</v>
+      </c>
+    </row>
+    <row r="990" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A990" s="3"/>
+      <c r="B990" s="4" t="s">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="991" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A991" s="3" t="s">
+        <v>1228</v>
+      </c>
+    </row>
+    <row r="992" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A992" s="3" t="s">
+        <v>1229</v>
+      </c>
+      <c r="B992" s="4" t="s">
+        <v>1391</v>
+      </c>
+    </row>
+    <row r="993" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A993" s="3" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="994" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A994" s="3" t="s">
+        <v>1231</v>
+      </c>
+    </row>
+    <row r="995" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A995" s="3" t="s">
+        <v>1232</v>
+      </c>
+    </row>
+    <row r="996" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A996" s="3" t="s">
+        <v>1233</v>
+      </c>
+    </row>
+    <row r="997" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A997" s="3" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="998" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A998" s="3" t="s">
+        <v>1235</v>
+      </c>
+      <c r="B998" s="4" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="999" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A999" s="3" t="s">
+        <v>1145</v>
+      </c>
+      <c r="B999" s="4" t="s">
+        <v>1393</v>
+      </c>
+    </row>
+    <row r="1000" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1000" s="3" t="s">
+        <v>1236</v>
+      </c>
+      <c r="B1000" s="4" t="s">
+        <v>1394</v>
+      </c>
+    </row>
+    <row r="1001" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1001" s="3" t="s">
+        <v>1237</v>
+      </c>
+      <c r="B1001" s="4" t="s">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="1002" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1002" s="3" t="s">
+        <v>1238</v>
+      </c>
+      <c r="B1002" s="4" t="s">
+        <v>1396</v>
+      </c>
+    </row>
+    <row r="1003" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1003" s="3" t="s">
+        <v>1205</v>
+      </c>
+      <c r="B1003" s="4" t="s">
+        <v>1397</v>
+      </c>
+    </row>
+    <row r="1004" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B1004" s="4" t="s">
+        <v>1398</v>
+      </c>
+    </row>
+    <row r="1005" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B1005" s="4" t="s">
+        <v>1399</v>
+      </c>
+    </row>
+    <row r="1006" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1006" s="3" t="s">
+        <v>1239</v>
+      </c>
+    </row>
+    <row r="1007" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1007" s="3" t="s">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="1008" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B1008" s="4" t="s">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="1009" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B1009" s="4" t="s">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="1011" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1011" s="3" t="s">
+        <v>1402</v>
+      </c>
+    </row>
+    <row r="1012" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1012" s="3" t="s">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="1013" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1013" s="3" t="s">
+        <v>1404</v>
+      </c>
+    </row>
+    <row r="1014" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1014" s="3" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="1015" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1015" s="3" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="1016" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1016" s="3" t="s">
+        <v>1407</v>
+      </c>
+      <c r="B1016" s="4"/>
+    </row>
+    <row r="1017" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1017" s="3" t="s">
+        <v>1408</v>
+      </c>
+      <c r="B1017" s="4" t="s">
+        <v>1513</v>
+      </c>
+    </row>
+    <row r="1018" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1018" s="3" t="s">
+        <v>1409</v>
+      </c>
+      <c r="B1018" s="4" t="s">
+        <v>1514</v>
+      </c>
+    </row>
+    <row r="1019" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1019" s="3" t="s">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="1020" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1020" s="3" t="s">
+        <v>1238</v>
+      </c>
+      <c r="B1020" s="4" t="s">
+        <v>1515</v>
+      </c>
+    </row>
+    <row r="1021" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1021" s="3" t="s">
+        <v>1411</v>
+      </c>
+    </row>
+    <row r="1022" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1022" s="3" t="s">
+        <v>1412</v>
+      </c>
+    </row>
+    <row r="1023" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1023" s="3" t="s">
+        <v>1413</v>
+      </c>
+    </row>
+    <row r="1024" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1024" s="3" t="s">
+        <v>1414</v>
+      </c>
+    </row>
+    <row r="1025" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1025" s="3" t="s">
+        <v>1415</v>
+      </c>
+      <c r="B1025" s="4" t="s">
+        <v>1516</v>
+      </c>
+    </row>
+    <row r="1026" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1026" s="3" t="s">
+        <v>1416</v>
+      </c>
+      <c r="B1026" s="4" t="s">
+        <v>1517</v>
+      </c>
+    </row>
+    <row r="1027" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1027" s="3" t="s">
+        <v>1417</v>
+      </c>
+      <c r="B1027" s="4" t="s">
+        <v>1518</v>
+      </c>
+    </row>
+    <row r="1028" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1028" s="3" t="s">
+        <v>1238</v>
+      </c>
+      <c r="B1028" s="4" t="s">
+        <v>1519</v>
+      </c>
+    </row>
+    <row r="1029" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1029" s="3" t="s">
+        <v>1132</v>
+      </c>
+      <c r="B1029" s="4" t="s">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="1030" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1030" s="3" t="s">
+        <v>1205</v>
+      </c>
+      <c r="B1030" s="4" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="1031" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1031" s="3" t="s">
+        <v>1418</v>
+      </c>
+      <c r="B1031" s="4" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="1032" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1032" s="3" t="s">
+        <v>1418</v>
+      </c>
+    </row>
+    <row r="1033" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1033" s="3" t="s">
+        <v>1419</v>
+      </c>
+    </row>
+    <row r="1034" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1034" s="3" t="s">
+        <v>1420</v>
+      </c>
+      <c r="B1034" s="4" t="s">
+        <v>1522</v>
+      </c>
+    </row>
+    <row r="1035" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1035" s="3" t="s">
+        <v>1421</v>
+      </c>
+      <c r="B1035" s="4" t="s">
+        <v>1523</v>
+      </c>
+    </row>
+    <row r="1036" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1036" s="3" t="s">
+        <v>1207</v>
+      </c>
+    </row>
+    <row r="1037" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1037" s="3" t="s">
+        <v>1132</v>
+      </c>
+      <c r="B1037" s="4" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="1038" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1038" s="3" t="s">
+        <v>1422</v>
+      </c>
+    </row>
+    <row r="1039" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1039" s="3" t="s">
+        <v>1205</v>
+      </c>
+      <c r="B1039" s="4" t="s">
+        <v>1525</v>
+      </c>
+    </row>
+    <row r="1040" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1040" s="3" t="s">
+        <v>1423</v>
+      </c>
+    </row>
+    <row r="1041" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1041" s="3" t="s">
+        <v>1152</v>
+      </c>
+      <c r="B1041" s="4" t="s">
+        <v>1526</v>
+      </c>
+    </row>
+    <row r="1042" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1042" s="3" t="s">
+        <v>1424</v>
+      </c>
+      <c r="B1042" s="4" t="s">
+        <v>1527</v>
+      </c>
+    </row>
+    <row r="1043" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1043" s="3" t="s">
+        <v>1425</v>
+      </c>
+      <c r="B1043" s="4" t="s">
+        <v>1528</v>
+      </c>
+    </row>
+    <row r="1044" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1044" s="3" t="s">
+        <v>1426</v>
+      </c>
+      <c r="B1044" s="4" t="s">
+        <v>1529</v>
+      </c>
+    </row>
+    <row r="1045" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1045" s="3" t="s">
+        <v>1427</v>
+      </c>
+      <c r="B1045" s="4" t="s">
+        <v>1530</v>
+      </c>
+    </row>
+    <row r="1046" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1046" s="3" t="s">
+        <v>1428</v>
+      </c>
+    </row>
+    <row r="1047" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1047" s="3" t="s">
+        <v>1429</v>
+      </c>
+      <c r="B1047" s="4" t="s">
+        <v>1531</v>
+      </c>
+    </row>
+    <row r="1048" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1048" s="3" t="s">
+        <v>1430</v>
+      </c>
+    </row>
+    <row r="1049" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1049" s="3" t="s">
+        <v>1431</v>
+      </c>
+      <c r="B1049" s="4" t="s">
+        <v>1532</v>
+      </c>
+    </row>
+    <row r="1050" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1050" s="3" t="s">
+        <v>1432</v>
+      </c>
+    </row>
+    <row r="1051" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1051" s="3" t="s">
+        <v>1433</v>
+      </c>
+      <c r="B1051" s="4" t="s">
+        <v>1533</v>
+      </c>
+    </row>
+    <row r="1052" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1052" s="3" t="s">
+        <v>1433</v>
+      </c>
+      <c r="B1052" s="4" t="s">
+        <v>1534</v>
+      </c>
+    </row>
+    <row r="1053" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1053" s="3" t="s">
+        <v>1434</v>
+      </c>
+    </row>
+    <row r="1054" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1054" s="3" t="s">
+        <v>1435</v>
+      </c>
+    </row>
+    <row r="1055" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1055" s="3" t="s">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="1056" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1056" s="3" t="s">
+        <v>1437</v>
+      </c>
+    </row>
+    <row r="1057" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1057" s="3" t="s">
+        <v>1438</v>
+      </c>
+      <c r="B1057" s="4" t="s">
+        <v>1535</v>
+      </c>
+    </row>
+    <row r="1058" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1058" s="3" t="s">
+        <v>1439</v>
+      </c>
+      <c r="B1058" s="4" t="s">
+        <v>1536</v>
+      </c>
+    </row>
+    <row r="1059" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1059" s="3" t="s">
+        <v>1440</v>
+      </c>
+      <c r="B1059" s="4" t="s">
+        <v>1537</v>
+      </c>
+    </row>
+    <row r="1060" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1060" s="3" t="s">
+        <v>1441</v>
+      </c>
+    </row>
+    <row r="1061" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1061" s="3" t="s">
+        <v>1442</v>
+      </c>
+      <c r="B1061" s="4" t="s">
+        <v>1538</v>
+      </c>
+    </row>
+    <row r="1062" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1062" s="3" t="s">
+        <v>1442</v>
+      </c>
+    </row>
+    <row r="1063" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1063" s="3" t="s">
+        <v>1443</v>
+      </c>
+    </row>
+    <row r="1064" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1064" s="3" t="s">
+        <v>1444</v>
+      </c>
+      <c r="B1064" s="4" t="s">
+        <v>1539</v>
+      </c>
+    </row>
+    <row r="1065" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1065" s="3" t="s">
+        <v>1445</v>
+      </c>
+      <c r="B1065" s="4" t="s">
+        <v>1540</v>
+      </c>
+    </row>
+    <row r="1066" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1066" s="3" t="s">
+        <v>1446</v>
+      </c>
+      <c r="B1066" s="4" t="s">
+        <v>1541</v>
+      </c>
+    </row>
+    <row r="1067" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1067" s="3" t="s">
+        <v>1447</v>
+      </c>
+      <c r="B1067" s="4"/>
+    </row>
+    <row r="1068" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1068" s="3" t="s">
+        <v>1448</v>
+      </c>
+      <c r="B1068" s="4" t="s">
+        <v>1542</v>
+      </c>
+    </row>
+    <row r="1069" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1069" s="3" t="s">
+        <v>1449</v>
+      </c>
+      <c r="B1069" s="4" t="s">
+        <v>1543</v>
+      </c>
+    </row>
+    <row r="1070" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1070" s="3" t="s">
+        <v>1450</v>
+      </c>
+    </row>
+    <row r="1071" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1071" s="3" t="s">
+        <v>1451</v>
+      </c>
+      <c r="B1071" s="4" t="s">
+        <v>1544</v>
+      </c>
+    </row>
+    <row r="1072" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1072" s="3" t="s">
+        <v>1452</v>
+      </c>
+    </row>
+    <row r="1073" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1073" s="3" t="s">
+        <v>1453</v>
+      </c>
+      <c r="B1073" s="4" t="s">
+        <v>1545</v>
+      </c>
+    </row>
+    <row r="1074" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1074" s="3" t="s">
+        <v>1454</v>
+      </c>
+      <c r="B1074" s="4" t="s">
+        <v>1546</v>
+      </c>
+    </row>
+    <row r="1075" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1075" s="3" t="s">
+        <v>1455</v>
+      </c>
+      <c r="B1075" s="4" t="s">
+        <v>1454</v>
+      </c>
+    </row>
+    <row r="1076" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1076" s="3" t="s">
+        <v>1456</v>
+      </c>
+      <c r="B1076" s="4" t="s">
+        <v>1547</v>
+      </c>
+    </row>
+    <row r="1077" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1077" s="3" t="s">
+        <v>1456</v>
+      </c>
+    </row>
+    <row r="1078" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1078" s="3"/>
+      <c r="B1078" s="4" t="s">
+        <v>1548</v>
+      </c>
+    </row>
+    <row r="1079" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1079" s="3" t="s">
+        <v>1457</v>
+      </c>
+      <c r="B1079" s="4" t="s">
+        <v>1549</v>
+      </c>
+    </row>
+    <row r="1080" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1080" s="3" t="s">
+        <v>1444</v>
+      </c>
+      <c r="B1080" s="4" t="s">
+        <v>1550</v>
+      </c>
+    </row>
+    <row r="1081" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1081" s="3" t="s">
+        <v>1452</v>
+      </c>
+      <c r="B1081" s="4" t="s">
+        <v>1551</v>
+      </c>
+    </row>
+    <row r="1082" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1082" s="3" t="s">
+        <v>1205</v>
+      </c>
+      <c r="B1082" s="4" t="s">
+        <v>1552</v>
+      </c>
+    </row>
+    <row r="1083" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1083" s="3" t="s">
+        <v>1458</v>
+      </c>
+      <c r="B1083" s="4" t="s">
+        <v>1553</v>
+      </c>
+    </row>
+    <row r="1084" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1084" s="3" t="s">
+        <v>1238</v>
+      </c>
+      <c r="B1084" s="4" t="s">
+        <v>1554</v>
+      </c>
+    </row>
+    <row r="1085" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1085" s="3" t="s">
+        <v>1238</v>
+      </c>
+      <c r="B1085" s="4" t="s">
+        <v>1555</v>
+      </c>
+    </row>
+    <row r="1086" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1086" s="3" t="s">
+        <v>1459</v>
+      </c>
+      <c r="B1086" s="4" t="s">
+        <v>1556</v>
+      </c>
+    </row>
+    <row r="1087" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1087" s="3" t="s">
+        <v>1460</v>
+      </c>
+    </row>
+    <row r="1088" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1088" s="3" t="s">
+        <v>1400</v>
+      </c>
+      <c r="B1088" s="4" t="s">
+        <v>1557</v>
+      </c>
+    </row>
+    <row r="1089" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1089" s="3" t="s">
+        <v>1461</v>
+      </c>
+      <c r="B1089" s="4" t="s">
+        <v>1558</v>
+      </c>
+    </row>
+    <row r="1090" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1090" s="3" t="s">
+        <v>1462</v>
+      </c>
+    </row>
+    <row r="1091" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B1091" s="4" t="s">
+        <v>1559</v>
+      </c>
+    </row>
+    <row r="1092" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1092" s="3" t="s">
+        <v>1463</v>
+      </c>
+    </row>
+    <row r="1093" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1093" s="3" t="s">
+        <v>1464</v>
+      </c>
+      <c r="B1093" s="4" t="s">
+        <v>1560</v>
+      </c>
+    </row>
+    <row r="1094" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1094" s="3" t="s">
+        <v>1465</v>
+      </c>
+      <c r="B1094" s="4" t="s">
+        <v>1465</v>
+      </c>
+    </row>
+    <row r="1095" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1095" s="3" t="s">
+        <v>1466</v>
+      </c>
+      <c r="B1095" s="4" t="s">
+        <v>1466</v>
+      </c>
+    </row>
+    <row r="1096" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1096" s="3" t="s">
+        <v>1467</v>
+      </c>
+      <c r="B1096" s="4" t="s">
+        <v>1561</v>
+      </c>
+    </row>
+    <row r="1097" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1097" s="3" t="s">
+        <v>1469</v>
+      </c>
+      <c r="B1097" s="4" t="s">
+        <v>1562</v>
+      </c>
+    </row>
+    <row r="1098" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1098" s="3" t="s">
+        <v>1468</v>
+      </c>
+    </row>
+    <row r="1099" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1099" s="3" t="s">
+        <v>1470</v>
+      </c>
+      <c r="B1099" s="4" t="s">
+        <v>1563</v>
+      </c>
+    </row>
+    <row r="1100" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1100" s="3" t="s">
+        <v>1471</v>
+      </c>
+    </row>
+    <row r="1101" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1101" s="3" t="s">
+        <v>1472</v>
+      </c>
+    </row>
+    <row r="1102" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1102" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B1102" s="4" t="s">
+        <v>1564</v>
+      </c>
+    </row>
+    <row r="1103" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1103" s="3" t="s">
+        <v>1474</v>
+      </c>
+      <c r="B1103" s="4" t="s">
+        <v>1565</v>
+      </c>
+    </row>
+    <row r="1104" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1104" s="3" t="s">
+        <v>1475</v>
+      </c>
+    </row>
+    <row r="1105" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1105" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B1105" s="4" t="s">
+        <v>1566</v>
+      </c>
+    </row>
+    <row r="1106" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1106" s="3" t="s">
+        <v>1476</v>
+      </c>
+    </row>
+    <row r="1107" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1107" s="3" t="s">
+        <v>1477</v>
+      </c>
+      <c r="B1107" s="4" t="s">
+        <v>1567</v>
+      </c>
+    </row>
+    <row r="1108" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1108" s="3" t="s">
+        <v>1478</v>
+      </c>
+      <c r="B1108" s="4" t="s">
+        <v>1568</v>
+      </c>
+    </row>
+    <row r="1109" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1109" s="3" t="s">
+        <v>1479</v>
+      </c>
+      <c r="B1109" s="4" t="s">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="1110" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1110" s="3" t="s">
+        <v>1480</v>
+      </c>
+      <c r="B1110" s="4" t="s">
+        <v>1570</v>
+      </c>
+    </row>
+    <row r="1111" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1111" s="3" t="s">
+        <v>1469</v>
+      </c>
+      <c r="B1111" s="4" t="s">
+        <v>1571</v>
+      </c>
+    </row>
+    <row r="1112" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1112" s="3" t="s">
+        <v>1481</v>
+      </c>
+    </row>
+    <row r="1113" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1113" s="3" t="s">
+        <v>1482</v>
+      </c>
+    </row>
+    <row r="1114" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1114" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B1114" s="4" t="s">
+        <v>1572</v>
+      </c>
+    </row>
+    <row r="1115" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1115" s="3" t="s">
+        <v>1483</v>
+      </c>
+      <c r="B1115" s="4" t="s">
+        <v>1573</v>
+      </c>
+    </row>
+    <row r="1116" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1116" s="3" t="s">
+        <v>1484</v>
+      </c>
+      <c r="B1116" s="4" t="s">
+        <v>1574</v>
+      </c>
+    </row>
+    <row r="1117" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1117" s="3" t="s">
+        <v>1485</v>
+      </c>
+      <c r="B1117" s="4" t="s">
+        <v>1575</v>
+      </c>
+    </row>
+    <row r="1118" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1118" s="3" t="s">
+        <v>1486</v>
+      </c>
+      <c r="B1118" s="4"/>
+    </row>
+    <row r="1119" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1119" s="3" t="s">
+        <v>1487</v>
+      </c>
+      <c r="B1119" s="4" t="s">
+        <v>1576</v>
+      </c>
+    </row>
+    <row r="1120" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1120" s="3" t="s">
+        <v>1488</v>
+      </c>
+    </row>
+    <row r="1121" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1121" s="3" t="s">
+        <v>1489</v>
+      </c>
+    </row>
+    <row r="1122" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1122" s="3" t="s">
+        <v>1490</v>
+      </c>
+      <c r="B1122" s="4" t="s">
+        <v>1577</v>
+      </c>
+    </row>
+    <row r="1123" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1123" s="3" t="s">
+        <v>1480</v>
+      </c>
+      <c r="B1123" s="4" t="s">
+        <v>1578</v>
+      </c>
+    </row>
+    <row r="1124" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1124" s="3" t="s">
+        <v>1491</v>
+      </c>
+      <c r="B1124" s="4" t="s">
+        <v>1579</v>
+      </c>
+    </row>
+    <row r="1125" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1125" s="3" t="s">
+        <v>1492</v>
+      </c>
+    </row>
+    <row r="1126" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1126" s="3" t="s">
+        <v>1237</v>
+      </c>
+      <c r="B1126" s="4" t="s">
+        <v>1580</v>
+      </c>
+    </row>
+    <row r="1127" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1127" s="3" t="s">
+        <v>1493</v>
+      </c>
+      <c r="B1127" s="4" t="s">
+        <v>1581</v>
+      </c>
+    </row>
+    <row r="1128" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1128" s="3" t="s">
+        <v>1494</v>
+      </c>
+    </row>
+    <row r="1129" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1129" s="3" t="s">
+        <v>1495</v>
+      </c>
+      <c r="B1129" s="4" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="1130" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1130" s="3" t="s">
+        <v>1496</v>
+      </c>
+    </row>
+    <row r="1131" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1131" s="3" t="s">
+        <v>1480</v>
+      </c>
+      <c r="B1131" s="4" t="s">
+        <v>1583</v>
+      </c>
+    </row>
+    <row r="1132" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1132" s="3" t="s">
+        <v>1498</v>
+      </c>
+    </row>
+    <row r="1133" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1133" s="3" t="s">
+        <v>1497</v>
+      </c>
+      <c r="B1133" s="4" t="s">
+        <v>1584</v>
+      </c>
+    </row>
+    <row r="1134" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1134" s="3" t="s">
+        <v>1499</v>
+      </c>
+      <c r="B1134" s="4" t="s">
+        <v>1585</v>
+      </c>
+    </row>
+    <row r="1135" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B1135" s="4" t="s">
+        <v>1586</v>
+      </c>
+    </row>
+    <row r="1136" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1136" s="3" t="s">
+        <v>1500</v>
+      </c>
+      <c r="B1136" s="4" t="s">
+        <v>1587</v>
+      </c>
+    </row>
+    <row r="1137" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1137" s="3" t="s">
+        <v>1493</v>
+      </c>
+      <c r="B1137" s="4" t="s">
+        <v>1588</v>
+      </c>
+    </row>
+    <row r="1138" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1138" s="3" t="s">
+        <v>1501</v>
+      </c>
+      <c r="B1138" s="4" t="s">
+        <v>1589</v>
+      </c>
+    </row>
+    <row r="1139" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1139" s="3" t="s">
+        <v>1487</v>
+      </c>
+      <c r="B1139" s="4" t="s">
+        <v>1590</v>
+      </c>
+    </row>
+    <row r="1140" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1140" s="3" t="s">
+        <v>1502</v>
+      </c>
+      <c r="B1140" s="4" t="s">
+        <v>1591</v>
+      </c>
+    </row>
+    <row r="1141" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1141" s="3" t="s">
+        <v>1503</v>
+      </c>
+      <c r="B1141" s="4" t="s">
+        <v>1592</v>
+      </c>
+    </row>
+    <row r="1142" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1142" s="3" t="s">
+        <v>1504</v>
+      </c>
+      <c r="B1142" s="4" t="s">
+        <v>1593</v>
+      </c>
+    </row>
+    <row r="1143" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1143" s="3" t="s">
+        <v>1495</v>
+      </c>
+      <c r="B1143" s="4" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="1144" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1144" s="3" t="s">
+        <v>1495</v>
+      </c>
+      <c r="B1144" s="4" t="s">
+        <v>1595</v>
+      </c>
+    </row>
+    <row r="1145" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1145" s="3" t="s">
+        <v>1505</v>
+      </c>
+      <c r="B1145" s="4" t="s">
+        <v>1596</v>
+      </c>
+    </row>
+    <row r="1146" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1146" s="3" t="s">
+        <v>1506</v>
+      </c>
+      <c r="B1146" s="4" t="s">
+        <v>1597</v>
+      </c>
+    </row>
+    <row r="1147" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1147" s="3" t="s">
+        <v>1485</v>
+      </c>
+    </row>
+    <row r="1148" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1148" s="3" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B1148" s="4" t="s">
+        <v>1598</v>
+      </c>
+    </row>
+    <row r="1149" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1149" s="3" t="s">
+        <v>1508</v>
+      </c>
+    </row>
+    <row r="1150" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1150" s="3" t="s">
+        <v>1509</v>
+      </c>
+    </row>
+    <row r="1151" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1151" s="3" t="s">
+        <v>1510</v>
+      </c>
+    </row>
+    <row r="1152" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1152" s="3" t="s">
+        <v>1511</v>
+      </c>
+      <c r="B1152" s="4" t="s">
+        <v>1599</v>
+      </c>
+    </row>
+    <row r="1153" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1153" s="3" t="s">
+        <v>1512</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/WangLu-C3.xlsx
+++ b/WangLu-C3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\LearningforIELTS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAA03450-A46C-4C14-9BF7-2C248D5D96F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5AEA92B-13FE-4B98-93DA-7BC174C01D5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2700" yWindow="375" windowWidth="14055" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-8040" yWindow="2055" windowWidth="17235" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3040" uniqueCount="2734">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3234" uniqueCount="2919">
   <si>
     <t>Test1</t>
   </si>
@@ -10068,6 +10068,745 @@
   </si>
   <si>
     <t>tax</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>texi</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>tea</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>teacher</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>teaching</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>team</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>jorgen</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>term</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>technology</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>t</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>telephone</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>telescope</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>television</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>temper</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>temple</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>tech</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>tec</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>galaxy</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>thirst</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>theory</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>therapy</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>thesis</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>theft</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>th</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>thinking</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>third</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>thought</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>thr</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>thriller</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>take</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ti</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>tides</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>till</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ten</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>time</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>title</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>toaster</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>toilter</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>tomato</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>tone</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>to</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>top</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>topic</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>total</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>touching</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>told</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>touring</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>tourism</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>tour</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>towel</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>tow</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>town</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>track</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>tracker</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>tree</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>tram</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>tragedy</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>trai</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>training</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>trend</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>travel</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>traveler</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>treatment</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>trip</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>tribe</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>tribute</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>tributes</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>trinity</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>tr</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>tu</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>tunnel</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>tuation</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>tune</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>tutor</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>unpair</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>understanding</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>de</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>uniform</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>union</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>university</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>usage</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>v</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>vacation</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>value</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>paricular</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>variety</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>vegetable</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>va</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>vet</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>video</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>view</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>village</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>venegar</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>vi</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>visitor</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>vitamin</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>vocation</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>volunteer</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>volunteers</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>waist</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>waiter</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>walk</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>walking</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>wall</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>while</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>warming</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>washing</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>waste</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>wasland</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>water</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>wave</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>wi</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>wealth</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>wea</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>weather</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>weeds</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>week</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>weekday</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>weekend</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>wei</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>wealfare</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>west</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>westland</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>whale</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>will</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>which</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>willow</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>wind</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>world</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>workforce</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>working</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>wu</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>wriiting</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>year</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>yogurt</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>youth</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>zero</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>taxi</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>jardon</t>
+  </si>
+  <si>
+    <t>teeth</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>text</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>texture</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>therapist</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>thief</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>thieves</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>threat</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ticket</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>tide</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>tile</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>timber</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>toilet</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>tool</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>tourist</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>tower</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>trackor</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>trade</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>trailer</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Trinity</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>trolley</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>trouble</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>tube</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>tunnels</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>tuition</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>tunes</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>umpire</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>utensil</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>vacancy</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>particulars</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>velvet</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>vinegar</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>visa</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>wasp</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>wastemand</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>wax</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>weapon</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>weight</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>welfare</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>wheel</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>width</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>willows</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>wing</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>word</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>wound</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>writing</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>yoga</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -10435,8 +11174,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F1152"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A839" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D858" sqref="D858"/>
+    <sheetView tabSelected="1" topLeftCell="A1109" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="D1118" sqref="D1118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -20900,987 +21639,1572 @@
         <v>2733</v>
       </c>
     </row>
-    <row r="1010" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1010" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1010" s="3" t="s">
         <v>1402</v>
       </c>
     </row>
-    <row r="1011" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1011" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1011" s="3" t="s">
         <v>1403</v>
       </c>
-    </row>
-    <row r="1012" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1011" s="3" t="s">
+        <v>2734</v>
+      </c>
+      <c r="D1011" s="4" t="s">
+        <v>2871</v>
+      </c>
+    </row>
+    <row r="1012" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1012" s="3" t="s">
         <v>1404</v>
       </c>
-    </row>
-    <row r="1013" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1012" s="3" t="s">
+        <v>2735</v>
+      </c>
+    </row>
+    <row r="1013" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1013" s="3" t="s">
         <v>1405</v>
       </c>
-    </row>
-    <row r="1014" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1013" s="3" t="s">
+        <v>2736</v>
+      </c>
+    </row>
+    <row r="1014" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1014" s="3" t="s">
         <v>1406</v>
       </c>
-    </row>
-    <row r="1015" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1014" s="3" t="s">
+        <v>2737</v>
+      </c>
+    </row>
+    <row r="1015" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1015" s="3" t="s">
         <v>1407</v>
       </c>
       <c r="B1015" s="4"/>
-    </row>
-    <row r="1016" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1015" s="3" t="s">
+        <v>2738</v>
+      </c>
+      <c r="D1015" s="4"/>
+    </row>
+    <row r="1016" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1016" s="3" t="s">
         <v>1408</v>
       </c>
       <c r="B1016" s="4" t="s">
         <v>1513</v>
       </c>
-    </row>
-    <row r="1017" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1016" s="3" t="s">
+        <v>2739</v>
+      </c>
+      <c r="D1016" s="1" t="s">
+        <v>2872</v>
+      </c>
+    </row>
+    <row r="1017" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1017" s="3" t="s">
         <v>1409</v>
       </c>
       <c r="B1017" s="4" t="s">
         <v>1514</v>
       </c>
-    </row>
-    <row r="1018" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1017" s="3" t="s">
+        <v>2740</v>
+      </c>
+    </row>
+    <row r="1018" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1018" s="3" t="s">
         <v>1410</v>
       </c>
-    </row>
-    <row r="1019" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1018" s="3" t="s">
+        <v>2741</v>
+      </c>
+    </row>
+    <row r="1019" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1019" s="3" t="s">
         <v>1238</v>
       </c>
       <c r="B1019" s="4" t="s">
         <v>1515</v>
       </c>
-    </row>
-    <row r="1020" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1019" s="3" t="s">
+        <v>2742</v>
+      </c>
+      <c r="D1019" s="4" t="s">
+        <v>2873</v>
+      </c>
+    </row>
+    <row r="1020" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1020" s="3" t="s">
         <v>1411</v>
       </c>
-    </row>
-    <row r="1021" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1020" s="3" t="s">
+        <v>2743</v>
+      </c>
+    </row>
+    <row r="1021" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1021" s="3" t="s">
         <v>1412</v>
       </c>
-    </row>
-    <row r="1022" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1021" s="3" t="s">
+        <v>2744</v>
+      </c>
+    </row>
+    <row r="1022" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1022" s="3" t="s">
         <v>1413</v>
       </c>
-    </row>
-    <row r="1023" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1022" s="3" t="s">
+        <v>2745</v>
+      </c>
+    </row>
+    <row r="1023" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1023" s="3" t="s">
         <v>1414</v>
       </c>
-    </row>
-    <row r="1024" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1023" s="3" t="s">
+        <v>2746</v>
+      </c>
+    </row>
+    <row r="1024" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1024" s="3" t="s">
         <v>1415</v>
       </c>
       <c r="B1024" s="4" t="s">
         <v>1516</v>
       </c>
-    </row>
-    <row r="1025" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1024" s="3" t="s">
+        <v>2747</v>
+      </c>
+    </row>
+    <row r="1025" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1025" s="3" t="s">
         <v>1416</v>
       </c>
       <c r="B1025" s="4" t="s">
         <v>1517</v>
       </c>
-    </row>
-    <row r="1026" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1025" s="3" t="s">
+        <v>2748</v>
+      </c>
+      <c r="D1025" s="4" t="s">
+        <v>2874</v>
+      </c>
+    </row>
+    <row r="1026" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1026" s="3" t="s">
         <v>1417</v>
       </c>
       <c r="B1026" s="4" t="s">
         <v>1518</v>
       </c>
-    </row>
-    <row r="1027" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1026" s="3" t="s">
+        <v>2749</v>
+      </c>
+      <c r="D1026" s="4" t="s">
+        <v>2875</v>
+      </c>
+    </row>
+    <row r="1027" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1027" s="3" t="s">
         <v>1238</v>
       </c>
       <c r="B1027" s="4" t="s">
         <v>1519</v>
       </c>
-    </row>
-    <row r="1028" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1027" s="3" t="s">
+        <v>2750</v>
+      </c>
+    </row>
+    <row r="1028" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1028" s="3" t="s">
         <v>1132</v>
       </c>
       <c r="B1028" s="4" t="s">
         <v>1215</v>
       </c>
-    </row>
-    <row r="1029" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1028" s="3" t="s">
+        <v>2751</v>
+      </c>
+      <c r="D1028" s="4" t="s">
+        <v>2755</v>
+      </c>
+    </row>
+    <row r="1029" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1029" s="3" t="s">
         <v>1205</v>
       </c>
       <c r="B1029" s="4" t="s">
         <v>1520</v>
       </c>
-    </row>
-    <row r="1030" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1029" s="3" t="s">
+        <v>2752</v>
+      </c>
+    </row>
+    <row r="1030" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1030" s="3" t="s">
         <v>1418</v>
       </c>
       <c r="B1030" s="4" t="s">
         <v>1521</v>
       </c>
-    </row>
-    <row r="1031" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1030" s="3" t="s">
+        <v>2753</v>
+      </c>
+      <c r="D1030" s="4" t="s">
+        <v>2876</v>
+      </c>
+    </row>
+    <row r="1031" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1031" s="3" t="s">
         <v>1418</v>
       </c>
-    </row>
-    <row r="1032" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1031" s="3" t="s">
+        <v>2753</v>
+      </c>
+    </row>
+    <row r="1032" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1032" s="3" t="s">
         <v>1419</v>
       </c>
-    </row>
-    <row r="1033" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1032" s="3" t="s">
+        <v>2754</v>
+      </c>
+    </row>
+    <row r="1033" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1033" s="3" t="s">
         <v>1420</v>
       </c>
       <c r="B1033" s="4" t="s">
         <v>1522</v>
       </c>
-    </row>
-    <row r="1034" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1033" s="3" t="s">
+        <v>2755</v>
+      </c>
+      <c r="D1033" s="4" t="s">
+        <v>2877</v>
+      </c>
+    </row>
+    <row r="1034" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1034" s="3" t="s">
         <v>1421</v>
       </c>
       <c r="B1034" s="4" t="s">
         <v>1523</v>
       </c>
-    </row>
-    <row r="1035" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1034" s="3" t="s">
+        <v>2756</v>
+      </c>
+      <c r="D1034" s="4" t="s">
+        <v>2878</v>
+      </c>
+    </row>
+    <row r="1035" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1035" s="3" t="s">
         <v>1207</v>
       </c>
-    </row>
-    <row r="1036" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1035" s="3" t="s">
+        <v>2757</v>
+      </c>
+    </row>
+    <row r="1036" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1036" s="3" t="s">
         <v>1132</v>
       </c>
       <c r="B1036" s="4" t="s">
         <v>1524</v>
       </c>
-    </row>
-    <row r="1037" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1036" s="3" t="s">
+        <v>2758</v>
+      </c>
+    </row>
+    <row r="1037" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1037" s="3" t="s">
         <v>1422</v>
       </c>
-    </row>
-    <row r="1038" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1037" s="3" t="s">
+        <v>2759</v>
+      </c>
+    </row>
+    <row r="1038" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1038" s="3" t="s">
         <v>1205</v>
       </c>
       <c r="B1038" s="4" t="s">
         <v>1525</v>
       </c>
-    </row>
-    <row r="1039" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1038" s="3" t="s">
+        <v>2760</v>
+      </c>
+      <c r="D1038" s="4" t="s">
+        <v>2879</v>
+      </c>
+    </row>
+    <row r="1039" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1039" s="3" t="s">
         <v>1423</v>
       </c>
-    </row>
-    <row r="1040" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1039" s="3" t="s">
+        <v>2761</v>
+      </c>
+    </row>
+    <row r="1040" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1040" s="3" t="s">
         <v>1152</v>
       </c>
       <c r="B1040" s="4" t="s">
         <v>1526</v>
       </c>
-    </row>
-    <row r="1041" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1040" s="3" t="s">
+        <v>2762</v>
+      </c>
+      <c r="D1040" s="4" t="s">
+        <v>2880</v>
+      </c>
+    </row>
+    <row r="1041" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1041" s="3" t="s">
         <v>1424</v>
       </c>
       <c r="B1041" s="4" t="s">
         <v>1527</v>
       </c>
-    </row>
-    <row r="1042" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1041" s="3" t="s">
+        <v>2763</v>
+      </c>
+      <c r="D1041" s="4" t="s">
+        <v>2881</v>
+      </c>
+    </row>
+    <row r="1042" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1042" s="3" t="s">
         <v>1425</v>
       </c>
       <c r="B1042" s="4" t="s">
         <v>1528</v>
       </c>
-    </row>
-    <row r="1043" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1042" s="3" t="s">
+        <v>2764</v>
+      </c>
+      <c r="D1042" s="4"/>
+    </row>
+    <row r="1043" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1043" s="3" t="s">
         <v>1426</v>
       </c>
       <c r="B1043" s="4" t="s">
         <v>1529</v>
       </c>
-    </row>
-    <row r="1044" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1043" s="3" t="s">
+        <v>2765</v>
+      </c>
+      <c r="D1043" s="4" t="s">
+        <v>2882</v>
+      </c>
+    </row>
+    <row r="1044" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1044" s="3" t="s">
         <v>1427</v>
       </c>
       <c r="B1044" s="4" t="s">
         <v>1530</v>
       </c>
-    </row>
-    <row r="1045" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1044" s="3" t="s">
+        <v>2766</v>
+      </c>
+      <c r="D1044" s="4" t="s">
+        <v>2883</v>
+      </c>
+    </row>
+    <row r="1045" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1045" s="3" t="s">
         <v>1428</v>
       </c>
-    </row>
-    <row r="1046" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1045" s="3" t="s">
+        <v>2767</v>
+      </c>
+    </row>
+    <row r="1046" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1046" s="3" t="s">
         <v>1429</v>
       </c>
       <c r="B1046" s="4" t="s">
         <v>1531</v>
       </c>
-    </row>
-    <row r="1047" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1046" s="3" t="s">
+        <v>2768</v>
+      </c>
+    </row>
+    <row r="1047" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1047" s="3" t="s">
         <v>1430</v>
       </c>
-    </row>
-    <row r="1048" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1047" s="3" t="s">
+        <v>2769</v>
+      </c>
+    </row>
+    <row r="1048" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1048" s="3" t="s">
         <v>1431</v>
       </c>
       <c r="B1048" s="4" t="s">
         <v>1532</v>
       </c>
-    </row>
-    <row r="1049" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1048" s="3" t="s">
+        <v>2770</v>
+      </c>
+      <c r="D1048" s="4" t="s">
+        <v>2884</v>
+      </c>
+    </row>
+    <row r="1049" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1049" s="3" t="s">
         <v>1432</v>
       </c>
-    </row>
-    <row r="1050" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1049" s="3" t="s">
+        <v>2771</v>
+      </c>
+    </row>
+    <row r="1050" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1050" s="3" t="s">
         <v>1433</v>
       </c>
       <c r="B1050" s="4" t="s">
         <v>1533</v>
       </c>
-    </row>
-    <row r="1051" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1050" s="3" t="s">
+        <v>2772</v>
+      </c>
+    </row>
+    <row r="1051" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1051" s="3" t="s">
         <v>1433</v>
       </c>
       <c r="B1051" s="4" t="s">
         <v>1534</v>
       </c>
-    </row>
-    <row r="1052" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1051" s="3" t="s">
+        <v>2773</v>
+      </c>
+      <c r="D1051" s="4" t="s">
+        <v>2885</v>
+      </c>
+    </row>
+    <row r="1052" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1052" s="3" t="s">
         <v>1434</v>
       </c>
-    </row>
-    <row r="1053" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1052" s="3" t="s">
+        <v>2774</v>
+      </c>
+    </row>
+    <row r="1053" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1053" s="3" t="s">
         <v>1435</v>
       </c>
-    </row>
-    <row r="1054" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1053" s="3" t="s">
+        <v>2775</v>
+      </c>
+    </row>
+    <row r="1054" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1054" s="3" t="s">
         <v>1436</v>
       </c>
-    </row>
-    <row r="1055" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1054" s="3" t="s">
+        <v>2776</v>
+      </c>
+    </row>
+    <row r="1055" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1055" s="3" t="s">
         <v>1437</v>
       </c>
-    </row>
-    <row r="1056" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1055" s="3" t="s">
+        <v>2777</v>
+      </c>
+    </row>
+    <row r="1056" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1056" s="3" t="s">
         <v>1438</v>
       </c>
       <c r="B1056" s="4" t="s">
         <v>1535</v>
       </c>
-    </row>
-    <row r="1057" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1056" s="3" t="s">
+        <v>2778</v>
+      </c>
+      <c r="D1056" s="4" t="s">
+        <v>2781</v>
+      </c>
+    </row>
+    <row r="1057" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1057" s="3" t="s">
         <v>1439</v>
       </c>
       <c r="B1057" s="4" t="s">
         <v>1536</v>
       </c>
-    </row>
-    <row r="1058" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1057" s="3" t="s">
+        <v>2779</v>
+      </c>
+    </row>
+    <row r="1058" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1058" s="3" t="s">
         <v>1440</v>
       </c>
       <c r="B1058" s="4" t="s">
         <v>1537</v>
       </c>
-    </row>
-    <row r="1059" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1058" s="3" t="s">
+        <v>2780</v>
+      </c>
+    </row>
+    <row r="1059" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1059" s="3" t="s">
         <v>1441</v>
       </c>
-    </row>
-    <row r="1060" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1059" s="3" t="s">
+        <v>2781</v>
+      </c>
+      <c r="D1059" s="4" t="s">
+        <v>2886</v>
+      </c>
+    </row>
+    <row r="1060" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1060" s="3" t="s">
         <v>1442</v>
       </c>
       <c r="B1060" s="4" t="s">
         <v>1538</v>
       </c>
-    </row>
-    <row r="1061" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1060" s="3" t="s">
+        <v>2782</v>
+      </c>
+    </row>
+    <row r="1061" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1061" s="3" t="s">
         <v>1442</v>
       </c>
-    </row>
-    <row r="1062" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1061" s="3" t="s">
+        <v>2783</v>
+      </c>
+      <c r="D1061" s="4" t="s">
+        <v>2887</v>
+      </c>
+    </row>
+    <row r="1062" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1062" s="3" t="s">
         <v>1443</v>
       </c>
-    </row>
-    <row r="1063" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1062" s="3" t="s">
+        <v>2784</v>
+      </c>
+    </row>
+    <row r="1063" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1063" s="3" t="s">
         <v>1444</v>
       </c>
       <c r="B1063" s="4" t="s">
         <v>1539</v>
       </c>
-    </row>
-    <row r="1064" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1063" s="3" t="s">
+        <v>2785</v>
+      </c>
+    </row>
+    <row r="1064" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1064" s="3" t="s">
         <v>1445</v>
       </c>
       <c r="B1064" s="4" t="s">
         <v>1540</v>
       </c>
-    </row>
-    <row r="1065" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1064" s="3" t="s">
+        <v>2786</v>
+      </c>
+      <c r="D1064" s="4" t="s">
+        <v>2888</v>
+      </c>
+    </row>
+    <row r="1065" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1065" s="3" t="s">
         <v>1446</v>
       </c>
       <c r="B1065" s="4" t="s">
         <v>1541</v>
       </c>
-    </row>
-    <row r="1066" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1065" s="3" t="s">
+        <v>2787</v>
+      </c>
+      <c r="D1065" s="4" t="s">
+        <v>2889</v>
+      </c>
+    </row>
+    <row r="1066" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1066" s="3" t="s">
         <v>1447</v>
       </c>
       <c r="B1066" s="4"/>
-    </row>
-    <row r="1067" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1066" s="3" t="s">
+        <v>2788</v>
+      </c>
+    </row>
+    <row r="1067" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1067" s="3" t="s">
         <v>1448</v>
       </c>
       <c r="B1067" s="4" t="s">
         <v>1542</v>
       </c>
-    </row>
-    <row r="1068" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1067" s="3" t="s">
+        <v>2789</v>
+      </c>
+    </row>
+    <row r="1068" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1068" s="3" t="s">
         <v>1449</v>
       </c>
       <c r="B1068" s="4" t="s">
         <v>1543</v>
       </c>
-    </row>
-    <row r="1069" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1068" s="3" t="s">
+        <v>2790</v>
+      </c>
+      <c r="D1068" s="4" t="s">
+        <v>2890</v>
+      </c>
+    </row>
+    <row r="1069" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1069" s="3" t="s">
         <v>1450</v>
       </c>
-    </row>
-    <row r="1070" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1069" s="3" t="s">
+        <v>2791</v>
+      </c>
+    </row>
+    <row r="1070" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1070" s="3" t="s">
         <v>1451</v>
       </c>
       <c r="B1070" s="4" t="s">
         <v>1544</v>
       </c>
-    </row>
-    <row r="1071" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1070" s="3" t="s">
+        <v>2792</v>
+      </c>
+    </row>
+    <row r="1071" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1071" s="3" t="s">
         <v>1452</v>
       </c>
-    </row>
-    <row r="1072" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1071" s="3" t="s">
+        <v>2793</v>
+      </c>
+    </row>
+    <row r="1072" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1072" s="3" t="s">
         <v>1453</v>
       </c>
       <c r="B1072" s="4" t="s">
         <v>1545</v>
       </c>
-    </row>
-    <row r="1073" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1072" s="3" t="s">
+        <v>2794</v>
+      </c>
+    </row>
+    <row r="1073" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1073" s="3" t="s">
         <v>1454</v>
       </c>
       <c r="B1073" s="4" t="s">
         <v>1546</v>
       </c>
-    </row>
-    <row r="1074" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1073" s="3" t="s">
+        <v>2795</v>
+      </c>
+    </row>
+    <row r="1074" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1074" s="3" t="s">
         <v>1455</v>
       </c>
       <c r="B1074" s="4" t="s">
         <v>1454</v>
       </c>
-    </row>
-    <row r="1075" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1074" s="3" t="s">
+        <v>2796</v>
+      </c>
+    </row>
+    <row r="1075" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1075" s="3" t="s">
         <v>1456</v>
       </c>
       <c r="B1075" s="4" t="s">
         <v>1547</v>
       </c>
-    </row>
-    <row r="1076" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1075" s="3" t="s">
+        <v>2797</v>
+      </c>
+    </row>
+    <row r="1076" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1076" s="3" t="s">
         <v>1456</v>
       </c>
-    </row>
-    <row r="1077" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1076" s="3" t="s">
+        <v>2798</v>
+      </c>
+    </row>
+    <row r="1077" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1077" s="3"/>
       <c r="B1077" s="4" t="s">
         <v>1548</v>
       </c>
-    </row>
-    <row r="1078" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1077" s="3" t="s">
+        <v>2799</v>
+      </c>
+    </row>
+    <row r="1078" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1078" s="3" t="s">
         <v>1457</v>
       </c>
       <c r="B1078" s="4" t="s">
         <v>1549</v>
       </c>
-    </row>
-    <row r="1079" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1078" s="3" t="s">
+        <v>2800</v>
+      </c>
+      <c r="D1078" s="4" t="s">
+        <v>2891</v>
+      </c>
+    </row>
+    <row r="1079" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1079" s="3" t="s">
         <v>1444</v>
       </c>
       <c r="B1079" s="4" t="s">
         <v>1550</v>
       </c>
-    </row>
-    <row r="1080" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1079" s="3" t="s">
+        <v>2801</v>
+      </c>
+      <c r="D1079" s="4" t="s">
+        <v>2892</v>
+      </c>
+    </row>
+    <row r="1080" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1080" s="3" t="s">
         <v>1452</v>
       </c>
       <c r="B1080" s="4" t="s">
         <v>1551</v>
       </c>
-    </row>
-    <row r="1081" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1080" s="3" t="s">
+        <v>2793</v>
+      </c>
+      <c r="D1080" s="4" t="s">
+        <v>2893</v>
+      </c>
+    </row>
+    <row r="1081" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1081" s="3" t="s">
         <v>1205</v>
       </c>
       <c r="B1081" s="4" t="s">
         <v>1552</v>
       </c>
-    </row>
-    <row r="1082" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1081" s="3" t="s">
+        <v>2802</v>
+      </c>
+      <c r="D1081" s="4" t="s">
+        <v>2894</v>
+      </c>
+    </row>
+    <row r="1082" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1082" s="3" t="s">
         <v>1458</v>
       </c>
       <c r="B1082" s="4" t="s">
         <v>1553</v>
       </c>
-    </row>
-    <row r="1083" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1082" s="3" t="s">
+        <v>2803</v>
+      </c>
+      <c r="D1082" s="4" t="s">
+        <v>2895</v>
+      </c>
+    </row>
+    <row r="1083" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1083" s="3" t="s">
         <v>1238</v>
       </c>
       <c r="B1083" s="4" t="s">
         <v>1554</v>
       </c>
-    </row>
-    <row r="1084" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1083" s="3" t="s">
+        <v>2804</v>
+      </c>
+      <c r="D1083" s="4" t="s">
+        <v>2896</v>
+      </c>
+    </row>
+    <row r="1084" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1084" s="3" t="s">
         <v>1238</v>
       </c>
       <c r="B1084" s="4" t="s">
         <v>1555</v>
       </c>
-    </row>
-    <row r="1085" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1084" s="3" t="s">
+        <v>2805</v>
+      </c>
+    </row>
+    <row r="1085" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1085" s="3" t="s">
         <v>1459</v>
       </c>
       <c r="B1085" s="4" t="s">
         <v>1556</v>
       </c>
-    </row>
-    <row r="1086" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1085" s="3" t="s">
+        <v>2805</v>
+      </c>
+      <c r="D1085" s="4" t="s">
+        <v>2897</v>
+      </c>
+    </row>
+    <row r="1086" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1086" s="3" t="s">
         <v>1460</v>
       </c>
-    </row>
-    <row r="1087" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1086" s="3" t="s">
+        <v>2806</v>
+      </c>
+      <c r="D1086" s="4" t="s">
+        <v>2806</v>
+      </c>
+    </row>
+    <row r="1087" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1087" s="3" t="s">
         <v>1400</v>
       </c>
       <c r="B1087" s="4" t="s">
         <v>1557</v>
       </c>
-    </row>
-    <row r="1088" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1087" s="3" t="s">
+        <v>2807</v>
+      </c>
+    </row>
+    <row r="1088" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1088" s="3" t="s">
         <v>1461</v>
       </c>
       <c r="B1088" s="4" t="s">
         <v>1558</v>
       </c>
-    </row>
-    <row r="1089" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1088" s="3" t="s">
+        <v>2808</v>
+      </c>
+      <c r="D1088" s="4" t="s">
+        <v>2898</v>
+      </c>
+    </row>
+    <row r="1089" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1089" s="3" t="s">
         <v>1462</v>
       </c>
-    </row>
-    <row r="1090" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1089" s="3" t="s">
+        <v>2809</v>
+      </c>
+    </row>
+    <row r="1090" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B1090" s="4" t="s">
         <v>1559</v>
       </c>
-    </row>
-    <row r="1091" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1090" s="3" t="s">
+        <v>2810</v>
+      </c>
+      <c r="D1090" s="4" t="s">
+        <v>2899</v>
+      </c>
+    </row>
+    <row r="1091" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1091" s="3" t="s">
         <v>1463</v>
       </c>
-    </row>
-    <row r="1092" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1091" s="3" t="s">
+        <v>2811</v>
+      </c>
+    </row>
+    <row r="1092" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1092" s="3" t="s">
         <v>1464</v>
       </c>
       <c r="B1092" s="4" t="s">
         <v>1560</v>
       </c>
-    </row>
-    <row r="1093" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1092" s="3" t="s">
+        <v>2812</v>
+      </c>
+    </row>
+    <row r="1093" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1093" s="3" t="s">
         <v>1465</v>
       </c>
       <c r="B1093" s="4" t="s">
         <v>1465</v>
       </c>
-    </row>
-    <row r="1094" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1093" s="3" t="s">
+        <v>2813</v>
+      </c>
+    </row>
+    <row r="1094" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1094" s="3" t="s">
         <v>1466</v>
       </c>
       <c r="B1094" s="4" t="s">
         <v>1466</v>
       </c>
-    </row>
-    <row r="1095" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1094" s="3" t="s">
+        <v>2814</v>
+      </c>
+    </row>
+    <row r="1095" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1095" s="3" t="s">
         <v>1467</v>
       </c>
       <c r="B1095" s="4" t="s">
         <v>1561</v>
       </c>
-    </row>
-    <row r="1096" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1095" s="3" t="s">
+        <v>2815</v>
+      </c>
+      <c r="D1095" s="4" t="s">
+        <v>2900</v>
+      </c>
+    </row>
+    <row r="1096" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1096" s="3" t="s">
         <v>1469</v>
       </c>
       <c r="B1096" s="4" t="s">
         <v>1562</v>
       </c>
-    </row>
-    <row r="1097" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1096" s="3" t="s">
+        <v>2816</v>
+      </c>
+    </row>
+    <row r="1097" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1097" s="3" t="s">
         <v>1468</v>
       </c>
-    </row>
-    <row r="1098" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1097" s="3" t="s">
+        <v>2817</v>
+      </c>
+    </row>
+    <row r="1098" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1098" s="3" t="s">
         <v>1470</v>
       </c>
       <c r="B1098" s="4" t="s">
         <v>1563</v>
       </c>
-    </row>
-    <row r="1099" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1098" s="3" t="s">
+        <v>2818</v>
+      </c>
+      <c r="D1098" s="4" t="s">
+        <v>2901</v>
+      </c>
+    </row>
+    <row r="1099" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1099" s="3" t="s">
         <v>1471</v>
       </c>
-    </row>
-    <row r="1100" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1099" s="3" t="s">
+        <v>2819</v>
+      </c>
+    </row>
+    <row r="1100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1100" s="3" t="s">
         <v>1472</v>
       </c>
-    </row>
-    <row r="1101" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1100" s="3" t="s">
+        <v>2820</v>
+      </c>
+    </row>
+    <row r="1101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1101" s="3" t="s">
         <v>1473</v>
       </c>
       <c r="B1101" s="4" t="s">
         <v>1564</v>
       </c>
-    </row>
-    <row r="1102" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1101" s="3" t="s">
+        <v>2821</v>
+      </c>
+      <c r="D1101" s="4" t="s">
+        <v>2902</v>
+      </c>
+    </row>
+    <row r="1102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1102" s="3" t="s">
         <v>1474</v>
       </c>
       <c r="B1102" s="4" t="s">
         <v>1565</v>
       </c>
-    </row>
-    <row r="1103" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1102" s="3" t="s">
+        <v>2822</v>
+      </c>
+    </row>
+    <row r="1103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1103" s="3" t="s">
         <v>1475</v>
       </c>
-    </row>
-    <row r="1104" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1103" s="3" t="s">
+        <v>2823</v>
+      </c>
+    </row>
+    <row r="1104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1104" s="3" t="s">
         <v>1473</v>
       </c>
       <c r="B1104" s="4" t="s">
         <v>1566</v>
       </c>
-    </row>
-    <row r="1105" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1104" s="3" t="s">
+        <v>2824</v>
+      </c>
+    </row>
+    <row r="1105" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1105" s="3" t="s">
         <v>1476</v>
       </c>
-    </row>
-    <row r="1106" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1105" s="3" t="s">
+        <v>2825</v>
+      </c>
+    </row>
+    <row r="1106" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1106" s="3" t="s">
         <v>1477</v>
       </c>
       <c r="B1106" s="4" t="s">
         <v>1567</v>
       </c>
-    </row>
-    <row r="1107" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1106" s="3" t="s">
+        <v>2826</v>
+      </c>
+      <c r="D1106" s="4" t="s">
+        <v>2903</v>
+      </c>
+    </row>
+    <row r="1107" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1107" s="3" t="s">
         <v>1478</v>
       </c>
       <c r="B1107" s="4" t="s">
         <v>1568</v>
       </c>
-    </row>
-    <row r="1108" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1107" s="3" t="s">
+        <v>2827</v>
+      </c>
+      <c r="D1107" s="4" t="s">
+        <v>2904</v>
+      </c>
+    </row>
+    <row r="1108" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1108" s="3" t="s">
         <v>1479</v>
       </c>
       <c r="B1108" s="4" t="s">
         <v>1569</v>
       </c>
-    </row>
-    <row r="1109" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1108" s="3" t="s">
+        <v>2828</v>
+      </c>
+    </row>
+    <row r="1109" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1109" s="3" t="s">
         <v>1480</v>
       </c>
       <c r="B1109" s="4" t="s">
         <v>1570</v>
       </c>
-    </row>
-    <row r="1110" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1109" s="3" t="s">
+        <v>2829</v>
+      </c>
+    </row>
+    <row r="1110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1110" s="3" t="s">
         <v>1469</v>
       </c>
       <c r="B1110" s="4" t="s">
         <v>1571</v>
       </c>
-    </row>
-    <row r="1111" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1110" s="3" t="s">
+        <v>2830</v>
+      </c>
+    </row>
+    <row r="1111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1111" s="3" t="s">
         <v>1481</v>
       </c>
-    </row>
-    <row r="1112" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1111" s="3" t="s">
+        <v>2831</v>
+      </c>
+    </row>
+    <row r="1112" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1112" s="3" t="s">
         <v>1482</v>
       </c>
-    </row>
-    <row r="1113" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1112" s="3" t="s">
+        <v>2832</v>
+      </c>
+    </row>
+    <row r="1113" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1113" s="3" t="s">
         <v>1473</v>
       </c>
       <c r="B1113" s="4" t="s">
         <v>1572</v>
       </c>
-    </row>
-    <row r="1114" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1113" s="3" t="s">
+        <v>2833</v>
+      </c>
+    </row>
+    <row r="1114" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1114" s="3" t="s">
         <v>1483</v>
       </c>
       <c r="B1114" s="4" t="s">
         <v>1573</v>
       </c>
-    </row>
-    <row r="1115" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1114" s="3" t="s">
+        <v>2834</v>
+      </c>
+    </row>
+    <row r="1115" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1115" s="3" t="s">
         <v>1484</v>
       </c>
       <c r="B1115" s="4" t="s">
         <v>1574</v>
       </c>
-    </row>
-    <row r="1116" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1115" s="3" t="s">
+        <v>2835</v>
+      </c>
+    </row>
+    <row r="1116" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1116" s="3" t="s">
         <v>1485</v>
       </c>
       <c r="B1116" s="4" t="s">
         <v>1575</v>
       </c>
-    </row>
-    <row r="1117" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1116" s="3" t="s">
+        <v>2836</v>
+      </c>
+    </row>
+    <row r="1117" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1117" s="3" t="s">
         <v>1486</v>
       </c>
       <c r="B1117" s="4"/>
-    </row>
-    <row r="1118" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1117" s="3" t="s">
+        <v>2837</v>
+      </c>
+    </row>
+    <row r="1118" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1118" s="3" t="s">
         <v>1487</v>
       </c>
       <c r="B1118" s="4" t="s">
         <v>1576</v>
       </c>
-    </row>
-    <row r="1119" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1118" s="3" t="s">
+        <v>2838</v>
+      </c>
+      <c r="D1118" s="4" t="s">
+        <v>2862</v>
+      </c>
+    </row>
+    <row r="1119" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1119" s="3" t="s">
         <v>1488</v>
       </c>
-    </row>
-    <row r="1120" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1119" s="3" t="s">
+        <v>2839</v>
+      </c>
+    </row>
+    <row r="1120" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1120" s="3" t="s">
         <v>1489</v>
       </c>
-    </row>
-    <row r="1121" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1120" s="3" t="s">
+        <v>2840</v>
+      </c>
+    </row>
+    <row r="1121" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1121" s="3" t="s">
         <v>1490</v>
       </c>
       <c r="B1121" s="4" t="s">
         <v>1577</v>
       </c>
-    </row>
-    <row r="1122" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1121" s="3" t="s">
+        <v>2841</v>
+      </c>
+      <c r="D1121" s="4" t="s">
+        <v>2905</v>
+      </c>
+    </row>
+    <row r="1122" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1122" s="3" t="s">
         <v>1480</v>
       </c>
       <c r="B1122" s="4" t="s">
         <v>1578</v>
       </c>
-    </row>
-    <row r="1123" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1122" s="3" t="s">
+        <v>2841</v>
+      </c>
+    </row>
+    <row r="1123" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1123" s="3" t="s">
         <v>1491</v>
       </c>
       <c r="B1123" s="4" t="s">
         <v>1579</v>
       </c>
-    </row>
-    <row r="1124" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1123" s="3" t="s">
+        <v>2842</v>
+      </c>
+      <c r="D1123" s="4" t="s">
+        <v>2906</v>
+      </c>
+    </row>
+    <row r="1124" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1124" s="3" t="s">
         <v>1492</v>
       </c>
-    </row>
-    <row r="1125" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1124" s="3" t="s">
+        <v>2843</v>
+      </c>
+      <c r="D1124" s="4"/>
+    </row>
+    <row r="1125" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1125" s="3" t="s">
         <v>1237</v>
       </c>
       <c r="B1125" s="4" t="s">
         <v>1580</v>
       </c>
-    </row>
-    <row r="1126" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1125" s="3" t="s">
+        <v>2844</v>
+      </c>
+    </row>
+    <row r="1126" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1126" s="3" t="s">
         <v>1493</v>
       </c>
       <c r="B1126" s="4" t="s">
         <v>1581</v>
       </c>
-    </row>
-    <row r="1127" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1126" s="3" t="s">
+        <v>2845</v>
+      </c>
+      <c r="D1126" s="4" t="s">
+        <v>2907</v>
+      </c>
+    </row>
+    <row r="1127" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1127" s="3" t="s">
         <v>1494</v>
       </c>
-    </row>
-    <row r="1128" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1127" s="3" t="s">
+        <v>2846</v>
+      </c>
+    </row>
+    <row r="1128" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1128" s="3" t="s">
         <v>1495</v>
       </c>
       <c r="B1128" s="4" t="s">
         <v>1582</v>
       </c>
-    </row>
-    <row r="1129" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1128" s="3" t="s">
+        <v>2847</v>
+      </c>
+      <c r="D1128" s="4" t="s">
+        <v>2908</v>
+      </c>
+    </row>
+    <row r="1129" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1129" s="3" t="s">
         <v>1496</v>
       </c>
-    </row>
-    <row r="1130" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1129" s="3" t="s">
+        <v>2848</v>
+      </c>
+    </row>
+    <row r="1130" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1130" s="3" t="s">
         <v>1480</v>
       </c>
       <c r="B1130" s="4" t="s">
         <v>1583</v>
       </c>
-    </row>
-    <row r="1131" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1130" s="3" t="s">
+        <v>2849</v>
+      </c>
+    </row>
+    <row r="1131" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1131" s="3" t="s">
         <v>1498</v>
       </c>
-    </row>
-    <row r="1132" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1131" s="3" t="s">
+        <v>2850</v>
+      </c>
+    </row>
+    <row r="1132" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1132" s="3" t="s">
         <v>1497</v>
       </c>
       <c r="B1132" s="4" t="s">
         <v>1584</v>
       </c>
-    </row>
-    <row r="1133" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1132" s="3" t="s">
+        <v>2851</v>
+      </c>
+    </row>
+    <row r="1133" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1133" s="3" t="s">
         <v>1499</v>
       </c>
       <c r="B1133" s="4" t="s">
         <v>1585</v>
       </c>
-    </row>
-    <row r="1134" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1133" s="3" t="s">
+        <v>2852</v>
+      </c>
+    </row>
+    <row r="1134" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B1134" s="4" t="s">
         <v>1586</v>
       </c>
-    </row>
-    <row r="1135" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1134" s="3" t="s">
+        <v>2853</v>
+      </c>
+      <c r="D1134" s="4" t="s">
+        <v>2909</v>
+      </c>
+    </row>
+    <row r="1135" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1135" s="3" t="s">
         <v>1500</v>
       </c>
       <c r="B1135" s="4" t="s">
         <v>1587</v>
       </c>
-    </row>
-    <row r="1136" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1135" s="3" t="s">
+        <v>2854</v>
+      </c>
+      <c r="D1135" s="4" t="s">
+        <v>2910</v>
+      </c>
+    </row>
+    <row r="1136" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1136" s="3" t="s">
         <v>1493</v>
       </c>
       <c r="B1136" s="4" t="s">
         <v>1588</v>
       </c>
-    </row>
-    <row r="1137" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1136" s="3" t="s">
+        <v>2855</v>
+      </c>
+    </row>
+    <row r="1137" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1137" s="3" t="s">
         <v>1501</v>
       </c>
       <c r="B1137" s="4" t="s">
         <v>1589</v>
       </c>
-    </row>
-    <row r="1138" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1137" s="3" t="s">
+        <v>2856</v>
+      </c>
+    </row>
+    <row r="1138" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1138" s="3" t="s">
         <v>1487</v>
       </c>
       <c r="B1138" s="4" t="s">
         <v>1590</v>
       </c>
-    </row>
-    <row r="1139" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1138" s="3" t="s">
+        <v>2857</v>
+      </c>
+    </row>
+    <row r="1139" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1139" s="3" t="s">
         <v>1502</v>
       </c>
       <c r="B1139" s="4" t="s">
         <v>1591</v>
       </c>
-    </row>
-    <row r="1140" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1139" s="3" t="s">
+        <v>2858</v>
+      </c>
+      <c r="D1139" s="4" t="s">
+        <v>2911</v>
+      </c>
+    </row>
+    <row r="1140" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1140" s="3" t="s">
         <v>1503</v>
       </c>
       <c r="B1140" s="4" t="s">
         <v>1592</v>
       </c>
-    </row>
-    <row r="1141" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1140" s="3" t="s">
+        <v>2859</v>
+      </c>
+      <c r="D1140" s="4" t="s">
+        <v>2912</v>
+      </c>
+    </row>
+    <row r="1141" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1141" s="3" t="s">
         <v>1504</v>
       </c>
       <c r="B1141" s="4" t="s">
         <v>1593</v>
       </c>
-    </row>
-    <row r="1142" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1141" s="3" t="s">
+        <v>2860</v>
+      </c>
+      <c r="D1141" s="4" t="s">
+        <v>2913</v>
+      </c>
+    </row>
+    <row r="1142" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1142" s="3" t="s">
         <v>1495</v>
       </c>
       <c r="B1142" s="4" t="s">
         <v>1594</v>
       </c>
-    </row>
-    <row r="1143" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1142" s="3" t="s">
+        <v>2861</v>
+      </c>
+    </row>
+    <row r="1143" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1143" s="3" t="s">
         <v>1495</v>
       </c>
       <c r="B1143" s="4" t="s">
         <v>1595</v>
       </c>
-    </row>
-    <row r="1144" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1143" s="3" t="s">
+        <v>2861</v>
+      </c>
+      <c r="D1143" s="4" t="s">
+        <v>2914</v>
+      </c>
+    </row>
+    <row r="1144" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1144" s="3" t="s">
         <v>1505</v>
       </c>
       <c r="B1144" s="4" t="s">
         <v>1596</v>
       </c>
-    </row>
-    <row r="1145" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1144" s="3" t="s">
+        <v>2862</v>
+      </c>
+      <c r="D1144" s="4" t="s">
+        <v>2915</v>
+      </c>
+    </row>
+    <row r="1145" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1145" s="3" t="s">
         <v>1506</v>
       </c>
       <c r="B1145" s="4" t="s">
         <v>1597</v>
       </c>
-    </row>
-    <row r="1146" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1145" s="3" t="s">
+        <v>2863</v>
+      </c>
+    </row>
+    <row r="1146" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1146" s="3" t="s">
         <v>1485</v>
       </c>
-    </row>
-    <row r="1147" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1146" s="3" t="s">
+        <v>2864</v>
+      </c>
+    </row>
+    <row r="1147" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1147" s="3" t="s">
         <v>1507</v>
       </c>
       <c r="B1147" s="4" t="s">
         <v>1598</v>
       </c>
-    </row>
-    <row r="1148" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1147" s="3" t="s">
+        <v>2865</v>
+      </c>
+      <c r="D1147" s="4" t="s">
+        <v>2916</v>
+      </c>
+    </row>
+    <row r="1148" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1148" s="3" t="s">
         <v>1508</v>
       </c>
-    </row>
-    <row r="1149" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1148" s="3" t="s">
+        <v>2866</v>
+      </c>
+      <c r="D1148" s="4" t="s">
+        <v>2917</v>
+      </c>
+    </row>
+    <row r="1149" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1149" s="3" t="s">
         <v>1509</v>
       </c>
-    </row>
-    <row r="1150" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1149" s="3" t="s">
+        <v>2867</v>
+      </c>
+    </row>
+    <row r="1150" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1150" s="3" t="s">
         <v>1510</v>
       </c>
-    </row>
-    <row r="1151" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1150" s="3" t="s">
+        <v>2868</v>
+      </c>
+      <c r="D1150" s="4" t="s">
+        <v>2918</v>
+      </c>
+    </row>
+    <row r="1151" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1151" s="3" t="s">
         <v>1511</v>
       </c>
       <c r="B1151" s="4" t="s">
         <v>1599</v>
       </c>
-    </row>
-    <row r="1152" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1151" s="3" t="s">
+        <v>2869</v>
+      </c>
+    </row>
+    <row r="1152" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1152" s="3" t="s">
         <v>1512</v>
+      </c>
+      <c r="C1152" s="3" t="s">
+        <v>2870</v>
       </c>
     </row>
   </sheetData>

--- a/WangLu-C3.xlsx
+++ b/WangLu-C3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\LearningforIELTS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5AEA92B-13FE-4B98-93DA-7BC174C01D5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{773E30B2-BDFB-481B-B988-45EE74C2FBB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-8040" yWindow="2055" windowWidth="17235" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3285" yWindow="600" windowWidth="25515" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3234" uniqueCount="2919">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3377" uniqueCount="3055">
   <si>
     <t>Test1</t>
   </si>
@@ -10807,6 +10807,550 @@
   </si>
   <si>
     <t>yoga</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ability</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>abstract</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>accountant</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>accuracy</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>acid</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>action</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>activity</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>actor</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>adult</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>adventure</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>advertise</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>advertising</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>advice</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>age</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>agency</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>agreement</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>agriculture</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>a</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>aim</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>air</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>allergy</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>alley</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>allowance</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>tion</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>altitute</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ambition</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ambulence</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>amount</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>analysis</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>analyze</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>angry</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>animal</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ancle</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>answer</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>antactic</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>appearance</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ac</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>architecture</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>area</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>argument</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>army</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>article</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>art</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>as</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>assignment</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>au</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>author</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>auditorium</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>authority</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>average</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>avoid</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>bachelor</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>background</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>backta</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>badge</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>badmiton</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>backpack</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>bordness</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>band</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>bandage</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>bank</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>base</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>basement</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>basis</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>bath</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>batteries</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>beach</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>beard</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>beat</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>beauty</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>bed</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>bedroom</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>bedsheet</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>bedsit</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>behavior</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>belt</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>benefit</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>beverage</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>bibliography</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>bicycle</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>bill</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>biology</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>bird</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>birth</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>blanket</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>blast</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>block</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>blouse</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>bord</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>boarder</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>boat</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>bone</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>bowl</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>bowling</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>branch</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>breakfast</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>brick</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>breach</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>brochure</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>building</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>bunglow</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>burger</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>burglar</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>bus</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>cab</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>advertisements</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>aid</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>alteration</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ambulance</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>analyst</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>anger</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ankle</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Antarctica</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ape</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>architect</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>architectures</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>aristocrat</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>aspirin</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>atlas</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>audience</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>award</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>bacteria</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>badminton</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>baldness</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>bands</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>banquet</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>bases</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>battery</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>beats</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>bed sheet</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>behaviors</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>biologist</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>board</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>bridge</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>brochures</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>bungalow</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -11172,10 +11716,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F1152"/>
+  <dimension ref="A1:H1152"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1109" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D1118" sqref="D1118"/>
+    <sheetView tabSelected="1" topLeftCell="A91" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="H115" sqref="H115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -11186,14 +11730,16 @@
     <col min="4" max="4" width="14.25" style="1" customWidth="1"/>
     <col min="5" max="5" width="12.875" customWidth="1"/>
     <col min="6" max="6" width="14.375" style="4" customWidth="1"/>
+    <col min="7" max="7" width="18.375" customWidth="1"/>
+    <col min="8" max="8" width="15.5" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -11203,8 +11749,11 @@
       <c r="E2" s="3" t="s">
         <v>1600</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G2" s="3" t="s">
+        <v>2919</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -11214,8 +11763,11 @@
       <c r="E3" s="3" t="s">
         <v>1601</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G3" s="3" t="s">
+        <v>2920</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -11228,8 +11780,11 @@
       <c r="E4" s="3" t="s">
         <v>1602</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G4" s="3" t="s">
+        <v>2921</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -11239,8 +11794,11 @@
       <c r="E5" s="3" t="s">
         <v>1603</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G5" s="3" t="s">
+        <v>2922</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -11250,8 +11808,11 @@
       <c r="E6" s="3" t="s">
         <v>1604</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G6" s="3" t="s">
+        <v>2923</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -11261,8 +11822,11 @@
       <c r="E7" s="3" t="s">
         <v>1605</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G7" s="3" t="s">
+        <v>2924</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -11272,8 +11836,11 @@
       <c r="E8" s="3" t="s">
         <v>1606</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G8" s="3" t="s">
+        <v>2925</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -11283,8 +11850,11 @@
       <c r="E9" s="3" t="s">
         <v>1607</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G9" s="3" t="s">
+        <v>2926</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -11294,8 +11864,11 @@
       <c r="E10" s="3" t="s">
         <v>1608</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G10" s="3" t="s">
+        <v>2927</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -11305,8 +11878,11 @@
       <c r="E11" s="3" t="s">
         <v>1609</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G11" s="3" t="s">
+        <v>2928</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
         <v>12</v>
       </c>
@@ -11319,8 +11895,14 @@
       <c r="F12" s="4" t="s">
         <v>1848</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G12" s="3" t="s">
+        <v>2929</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>3024</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -11333,8 +11915,11 @@
       <c r="E13" s="3" t="s">
         <v>1611</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G13" s="3" t="s">
+        <v>2930</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>16</v>
       </c>
@@ -11344,8 +11929,11 @@
       <c r="E14" s="3" t="s">
         <v>1612</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G14" s="3" t="s">
+        <v>2931</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -11355,8 +11943,11 @@
       <c r="E15" s="3" t="s">
         <v>1613</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G15" s="3" t="s">
+        <v>2932</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>18</v>
       </c>
@@ -11366,8 +11957,11 @@
       <c r="E16" s="3" t="s">
         <v>1614</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G16" s="3" t="s">
+        <v>2933</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -11377,8 +11971,11 @@
       <c r="E17" s="3" t="s">
         <v>1615</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G17" s="3" t="s">
+        <v>2934</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -11388,8 +11985,11 @@
       <c r="E18" s="3" t="s">
         <v>1616</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G18" s="3" t="s">
+        <v>2935</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>21</v>
       </c>
@@ -11405,8 +12005,14 @@
       <c r="E19" s="3" t="s">
         <v>1617</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G19" s="3" t="s">
+        <v>2936</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>3025</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -11416,8 +12022,11 @@
       <c r="E20" s="3" t="s">
         <v>1618</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G20" s="3" t="s">
+        <v>2937</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -11427,8 +12036,11 @@
       <c r="E21" s="3" t="s">
         <v>1619</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G21" s="3" t="s">
+        <v>2938</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>25</v>
       </c>
@@ -11441,8 +12053,11 @@
       <c r="E22" s="3" t="s">
         <v>1620</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G22" s="3" t="s">
+        <v>2939</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>27</v>
       </c>
@@ -11452,8 +12067,11 @@
       <c r="E23" s="3" t="s">
         <v>1621</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G23" s="3" t="s">
+        <v>2940</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>28</v>
       </c>
@@ -11466,8 +12084,11 @@
       <c r="E24" s="3" t="s">
         <v>1622</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G24" s="3" t="s">
+        <v>2941</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>30</v>
       </c>
@@ -11483,8 +12104,14 @@
       <c r="F25" s="4" t="s">
         <v>1849</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G25" s="3" t="s">
+        <v>2942</v>
+      </c>
+      <c r="H25" s="4" t="s">
+        <v>3026</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>32</v>
       </c>
@@ -11494,8 +12121,11 @@
       <c r="E26" s="3" t="s">
         <v>1624</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G26" s="3" t="s">
+        <v>2943</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>33</v>
       </c>
@@ -11508,8 +12138,11 @@
       <c r="E27" s="3" t="s">
         <v>1625</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G27" s="3" t="s">
+        <v>2944</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>35</v>
       </c>
@@ -11525,8 +12158,14 @@
       <c r="E28" s="3" t="s">
         <v>1626</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G28" s="3" t="s">
+        <v>2945</v>
+      </c>
+      <c r="H28" s="4" t="s">
+        <v>3027</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>38</v>
       </c>
@@ -11539,8 +12178,11 @@
       <c r="E29" s="3" t="s">
         <v>1627</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G29" s="3" t="s">
+        <v>2946</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>40</v>
       </c>
@@ -11556,8 +12198,11 @@
       <c r="F30" s="4" t="s">
         <v>1629</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G30" s="3" t="s">
+        <v>2947</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>42</v>
       </c>
@@ -11576,8 +12221,14 @@
       <c r="F31" s="4" t="s">
         <v>1628</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G31" s="3" t="s">
+        <v>2948</v>
+      </c>
+      <c r="H31" s="4" t="s">
+        <v>3028</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>44</v>
       </c>
@@ -11590,8 +12241,14 @@
       <c r="E32" s="3" t="s">
         <v>1630</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G32" s="3" t="s">
+        <v>2949</v>
+      </c>
+      <c r="H32" s="4" t="s">
+        <v>3029</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>46</v>
       </c>
@@ -11601,8 +12258,11 @@
       <c r="E33" s="3" t="s">
         <v>1631</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G33" s="3" t="s">
+        <v>2950</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>47</v>
       </c>
@@ -11615,8 +12275,14 @@
       <c r="E34" s="3" t="s">
         <v>1632</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G34" s="3" t="s">
+        <v>2951</v>
+      </c>
+      <c r="H34" s="4" t="s">
+        <v>3030</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>49</v>
       </c>
@@ -11629,8 +12295,11 @@
       <c r="E35" s="3" t="s">
         <v>1633</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G35" s="3" t="s">
+        <v>2952</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>51</v>
       </c>
@@ -11649,8 +12318,14 @@
       <c r="F36" s="4" t="s">
         <v>1850</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G36" s="3" t="s">
+        <v>2953</v>
+      </c>
+      <c r="H36" s="4" t="s">
+        <v>3031</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>55</v>
       </c>
@@ -11663,8 +12338,14 @@
       <c r="E37" s="3" t="s">
         <v>1635</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G37" s="3" t="s">
+        <v>2937</v>
+      </c>
+      <c r="H37" s="4" t="s">
+        <v>3032</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>57</v>
       </c>
@@ -11674,8 +12355,11 @@
       <c r="E38" s="3" t="s">
         <v>1636</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G38" s="3" t="s">
+        <v>2954</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>58</v>
       </c>
@@ -11685,8 +12369,14 @@
       <c r="E39" s="3" t="s">
         <v>1637</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G39" s="3" t="s">
+        <v>2955</v>
+      </c>
+      <c r="H39" s="4" t="s">
+        <v>3033</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>59</v>
       </c>
@@ -11702,8 +12392,14 @@
       <c r="F40" s="4" t="s">
         <v>1851</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G40" s="3" t="s">
+        <v>2956</v>
+      </c>
+      <c r="H40" s="4" t="s">
+        <v>3034</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>61</v>
       </c>
@@ -11713,8 +12409,11 @@
       <c r="E41" s="3" t="s">
         <v>1639</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G41" s="3" t="s">
+        <v>2957</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>62</v>
       </c>
@@ -11724,8 +12423,11 @@
       <c r="E42" s="3" t="s">
         <v>1640</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G42" s="3" t="s">
+        <v>2958</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>63</v>
       </c>
@@ -11738,8 +12440,14 @@
       <c r="E43" s="3" t="s">
         <v>1641</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G43" s="3" t="s">
+        <v>2936</v>
+      </c>
+      <c r="H43" s="4" t="s">
+        <v>3035</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>65</v>
       </c>
@@ -11749,8 +12457,11 @@
       <c r="E44" s="3" t="s">
         <v>1642</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G44" s="3" t="s">
+        <v>2959</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>66</v>
       </c>
@@ -11763,8 +12474,11 @@
       <c r="E45" s="3" t="s">
         <v>1643</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G45" s="3" t="s">
+        <v>2961</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>68</v>
       </c>
@@ -11777,8 +12491,11 @@
       <c r="E46" s="3" t="s">
         <v>1644</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G46" s="3" t="s">
+        <v>2960</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>70</v>
       </c>
@@ -11794,8 +12511,14 @@
       <c r="F47" s="4" t="s">
         <v>1852</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G47" s="3" t="s">
+        <v>2962</v>
+      </c>
+      <c r="H47" s="4" t="s">
+        <v>3036</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>72</v>
       </c>
@@ -11808,8 +12531,11 @@
       <c r="F48" s="4" t="s">
         <v>1853</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G48" s="3" t="s">
+        <v>2963</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>73</v>
       </c>
@@ -11825,8 +12551,14 @@
       <c r="F49" s="4" t="s">
         <v>1854</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G49" s="3" t="s">
+        <v>2955</v>
+      </c>
+      <c r="H49" s="4" t="s">
+        <v>3037</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>75</v>
       </c>
@@ -11842,8 +12574,14 @@
       <c r="F50" s="4" t="s">
         <v>1855</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G50" s="3" t="s">
+        <v>2964</v>
+      </c>
+      <c r="H50" s="4" t="s">
+        <v>3038</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>77</v>
       </c>
@@ -11856,8 +12594,11 @@
       <c r="E51" s="3" t="s">
         <v>1649</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G51" s="3" t="s">
+        <v>2966</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>79</v>
       </c>
@@ -11870,8 +12611,11 @@
       <c r="E52" s="3" t="s">
         <v>1650</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G52" s="3" t="s">
+        <v>2965</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B53" s="1" t="s">
         <v>81</v>
       </c>
@@ -11881,8 +12625,11 @@
       <c r="E53" s="3" t="s">
         <v>1651</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G53" s="3" t="s">
+        <v>2967</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>82</v>
       </c>
@@ -11895,8 +12642,11 @@
       <c r="E54" s="3" t="s">
         <v>1652</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G54" s="3" t="s">
+        <v>2968</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>21</v>
       </c>
@@ -11912,8 +12662,14 @@
       <c r="E55" s="3" t="s">
         <v>1653</v>
       </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G55" s="3" t="s">
+        <v>2969</v>
+      </c>
+      <c r="H55" s="4" t="s">
+        <v>3039</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>86</v>
       </c>
@@ -11926,8 +12682,11 @@
       <c r="F56" s="4" t="s">
         <v>1856</v>
       </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G56" s="3" t="s">
+        <v>2970</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>87</v>
       </c>
@@ -11937,8 +12696,11 @@
       <c r="E57" s="3" t="s">
         <v>1655</v>
       </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G57" s="3" t="s">
+        <v>2971</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>88</v>
       </c>
@@ -11951,8 +12713,14 @@
       <c r="E58" s="3" t="s">
         <v>1656</v>
       </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G58" s="3" t="s">
+        <v>2972</v>
+      </c>
+      <c r="H58" s="4" t="s">
+        <v>3040</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B59" s="1" t="s">
         <v>90</v>
       </c>
@@ -11965,8 +12733,11 @@
       <c r="F59" s="4" t="s">
         <v>1857</v>
       </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G59" s="3" t="s">
+        <v>2973</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>91</v>
       </c>
@@ -11976,8 +12747,14 @@
       <c r="E60" s="3" t="s">
         <v>1658</v>
       </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G60" s="3" t="s">
+        <v>2974</v>
+      </c>
+      <c r="H60" s="4" t="s">
+        <v>3041</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>92</v>
       </c>
@@ -11987,8 +12764,11 @@
       <c r="E61" s="3" t="s">
         <v>1659</v>
       </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G61" s="3" t="s">
+        <v>2975</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B62" s="1" t="s">
         <v>93</v>
       </c>
@@ -11998,8 +12778,14 @@
       <c r="E62" s="3" t="s">
         <v>1661</v>
       </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G62" s="3" t="s">
+        <v>2976</v>
+      </c>
+      <c r="H62" s="4" t="s">
+        <v>3042</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>94</v>
       </c>
@@ -12009,8 +12795,11 @@
       <c r="E63" s="3" t="s">
         <v>1660</v>
       </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G63" s="3" t="s">
+        <v>2977</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>95</v>
       </c>
@@ -12023,8 +12812,11 @@
       <c r="E64" s="3" t="s">
         <v>1662</v>
       </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G64" s="3" t="s">
+        <v>2978</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>94</v>
       </c>
@@ -12043,8 +12835,14 @@
       <c r="F65" s="4" t="s">
         <v>1858</v>
       </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G65" s="3" t="s">
+        <v>2977</v>
+      </c>
+      <c r="H65" s="4" t="s">
+        <v>3043</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>99</v>
       </c>
@@ -12054,8 +12852,11 @@
       <c r="E66" s="3" t="s">
         <v>1663</v>
       </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G66" s="3" t="s">
+        <v>2979</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>99</v>
       </c>
@@ -12071,8 +12872,14 @@
       <c r="F67" s="4" t="s">
         <v>1859</v>
       </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G67" s="3" t="s">
+        <v>2979</v>
+      </c>
+      <c r="H67" s="4" t="s">
+        <v>3044</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>101</v>
       </c>
@@ -12085,8 +12892,11 @@
       <c r="E68" s="3" t="s">
         <v>1665</v>
       </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G68" s="3" t="s">
+        <v>2980</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>103</v>
       </c>
@@ -12096,8 +12906,11 @@
       <c r="E69" s="3" t="s">
         <v>1666</v>
       </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G69" s="3" t="s">
+        <v>2981</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>104</v>
       </c>
@@ -12113,8 +12926,14 @@
       <c r="F70" s="4" t="s">
         <v>1860</v>
       </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G70" s="3" t="s">
+        <v>2982</v>
+      </c>
+      <c r="H70" s="4" t="s">
+        <v>3045</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>105</v>
       </c>
@@ -12127,8 +12946,11 @@
       <c r="E71" s="3" t="s">
         <v>1667</v>
       </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G71" s="3" t="s">
+        <v>2982</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>106</v>
       </c>
@@ -12144,8 +12966,11 @@
       <c r="F72" s="4" t="s">
         <v>1708</v>
       </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G72" s="3" t="s">
+        <v>2983</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>108</v>
       </c>
@@ -12161,8 +12986,11 @@
       <c r="E73" s="3" t="s">
         <v>1669</v>
       </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G73" s="3" t="s">
+        <v>2984</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>107</v>
       </c>
@@ -12175,8 +13003,14 @@
       <c r="E74" s="3" t="s">
         <v>1670</v>
       </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G74" s="3" t="s">
+        <v>2984</v>
+      </c>
+      <c r="H74" s="4" t="s">
+        <v>3046</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>111</v>
       </c>
@@ -12186,8 +13020,11 @@
       <c r="E75" s="3" t="s">
         <v>1671</v>
       </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G75" s="3" t="s">
+        <v>2985</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>112</v>
       </c>
@@ -12197,8 +13034,11 @@
       <c r="E76" s="3" t="s">
         <v>1673</v>
       </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G76" s="3" t="s">
+        <v>2986</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>113</v>
       </c>
@@ -12214,8 +13054,14 @@
       <c r="F77" s="4" t="s">
         <v>1861</v>
       </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G77" s="3" t="s">
+        <v>2987</v>
+      </c>
+      <c r="H77" s="4" t="s">
+        <v>3047</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>115</v>
       </c>
@@ -12225,8 +13071,11 @@
       <c r="E78" s="3" t="s">
         <v>1675</v>
       </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G78" s="3" t="s">
+        <v>2988</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>91</v>
       </c>
@@ -12239,8 +13088,11 @@
       <c r="E79" s="3" t="s">
         <v>1676</v>
       </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G79" s="3" t="s">
+        <v>2989</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>117</v>
       </c>
@@ -12250,8 +13102,11 @@
       <c r="E80" s="3" t="s">
         <v>1677</v>
       </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G80" s="3" t="s">
+        <v>2990</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>118</v>
       </c>
@@ -12267,8 +13122,14 @@
       <c r="F81" s="4" t="s">
         <v>1862</v>
       </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G81" s="3" t="s">
+        <v>2991</v>
+      </c>
+      <c r="H81" s="4" t="s">
+        <v>3048</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>116</v>
       </c>
@@ -12281,8 +13142,11 @@
       <c r="E82" s="3" t="s">
         <v>1679</v>
       </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G82" s="3" t="s">
+        <v>2992</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>121</v>
       </c>
@@ -12298,8 +13162,14 @@
       <c r="E83" s="3" t="s">
         <v>1680</v>
       </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G83" s="3" t="s">
+        <v>2993</v>
+      </c>
+      <c r="H83" s="4" t="s">
+        <v>3049</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>116</v>
       </c>
@@ -12312,8 +13182,11 @@
       <c r="E84" s="3" t="s">
         <v>1681</v>
       </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G84" s="3" t="s">
+        <v>2994</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>125</v>
       </c>
@@ -12323,8 +13196,11 @@
       <c r="E85" s="3" t="s">
         <v>1682</v>
       </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G85" s="3" t="s">
+        <v>2995</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>126</v>
       </c>
@@ -12340,8 +13216,11 @@
       <c r="E86" s="3" t="s">
         <v>1683</v>
       </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G86" s="3" t="s">
+        <v>2996</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>129</v>
       </c>
@@ -12354,8 +13233,11 @@
       <c r="E87" s="3" t="s">
         <v>1684</v>
       </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G87" s="3" t="s">
+        <v>2997</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>131</v>
       </c>
@@ -12365,8 +13247,11 @@
       <c r="E88" s="3" t="s">
         <v>1685</v>
       </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G88" s="3" t="s">
+        <v>2998</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>132</v>
       </c>
@@ -12379,8 +13264,11 @@
       <c r="E89" s="3" t="s">
         <v>1686</v>
       </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G89" s="3" t="s">
+        <v>2999</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>134</v>
       </c>
@@ -12393,8 +13281,14 @@
       <c r="E90" s="3" t="s">
         <v>1687</v>
       </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G90" s="3" t="s">
+        <v>3000</v>
+      </c>
+      <c r="H90" s="4" t="s">
+        <v>3050</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>136</v>
       </c>
@@ -12404,8 +13298,11 @@
       <c r="E91" s="3" t="s">
         <v>1672</v>
       </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G91" s="3" t="s">
+        <v>3001</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>138</v>
       </c>
@@ -12421,8 +13318,11 @@
       <c r="E92" s="3" t="s">
         <v>1688</v>
       </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G92" s="3" t="s">
+        <v>3002</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>140</v>
       </c>
@@ -12432,8 +13332,11 @@
       <c r="E93" s="3" t="s">
         <v>1689</v>
       </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G93" s="3" t="s">
+        <v>3003</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>141</v>
       </c>
@@ -12449,8 +13352,11 @@
       <c r="E94" s="3" t="s">
         <v>1690</v>
       </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G94" s="3" t="s">
+        <v>3004</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>144</v>
       </c>
@@ -12463,8 +13369,11 @@
       <c r="E95" s="3" t="s">
         <v>1691</v>
       </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G95" s="3" t="s">
+        <v>3005</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>146</v>
       </c>
@@ -12480,8 +13389,11 @@
       <c r="E96" s="3" t="s">
         <v>1692</v>
       </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G96" s="3" t="s">
+        <v>3006</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>147</v>
       </c>
@@ -12497,8 +13409,14 @@
       <c r="F97" s="4" t="s">
         <v>1863</v>
       </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G97" s="3" t="s">
+        <v>3007</v>
+      </c>
+      <c r="H97" s="4" t="s">
+        <v>3051</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>149</v>
       </c>
@@ -12511,8 +13429,11 @@
       <c r="E98" s="3" t="s">
         <v>1694</v>
       </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G98" s="3" t="s">
+        <v>3008</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>151</v>
       </c>
@@ -12525,8 +13446,11 @@
       <c r="E99" s="3" t="s">
         <v>1695</v>
       </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G99" s="3" t="s">
+        <v>3009</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>147</v>
       </c>
@@ -12539,8 +13463,11 @@
       <c r="E100" s="3" t="s">
         <v>1696</v>
       </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G100" s="3" t="s">
+        <v>3010</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>154</v>
       </c>
@@ -12553,8 +13480,11 @@
       <c r="E101" s="3" t="s">
         <v>1697</v>
       </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G101" s="3" t="s">
+        <v>3011</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>156</v>
       </c>
@@ -12567,8 +13497,11 @@
       <c r="E102" s="3" t="s">
         <v>1698</v>
       </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G102" s="3" t="s">
+        <v>3012</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>158</v>
       </c>
@@ -12584,8 +13517,11 @@
       <c r="F103" s="4" t="s">
         <v>1864</v>
       </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G103" s="3" t="s">
+        <v>3013</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>160</v>
       </c>
@@ -12595,8 +13531,11 @@
       <c r="E104" s="3" t="s">
         <v>1700</v>
       </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G104" s="3" t="s">
+        <v>3014</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>161</v>
       </c>
@@ -12615,8 +13554,11 @@
       <c r="F105" s="4" t="s">
         <v>1865</v>
       </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G105" s="3" t="s">
+        <v>3015</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>164</v>
       </c>
@@ -12629,8 +13571,14 @@
       <c r="E106" s="3" t="s">
         <v>1702</v>
       </c>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G106" s="3" t="s">
+        <v>3016</v>
+      </c>
+      <c r="H106" s="4" t="s">
+        <v>3052</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>165</v>
       </c>
@@ -12649,8 +13597,14 @@
       <c r="F107" s="4" t="s">
         <v>1866</v>
       </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G107" s="3" t="s">
+        <v>3017</v>
+      </c>
+      <c r="H107" s="4" t="s">
+        <v>3053</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>168</v>
       </c>
@@ -12660,8 +13614,11 @@
       <c r="E108" s="3" t="s">
         <v>1704</v>
       </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G108" s="3" t="s">
+        <v>3018</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>169</v>
       </c>
@@ -12677,8 +13634,14 @@
       <c r="E109" s="3" t="s">
         <v>1705</v>
       </c>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G109" s="3" t="s">
+        <v>3019</v>
+      </c>
+      <c r="H109" s="4" t="s">
+        <v>3054</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>172</v>
       </c>
@@ -12688,8 +13651,11 @@
       <c r="E110" s="3" t="s">
         <v>1706</v>
       </c>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G110" s="3" t="s">
+        <v>3020</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>171</v>
       </c>
@@ -12699,8 +13665,11 @@
       <c r="E111" s="3" t="s">
         <v>1707</v>
       </c>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G111" s="3" t="s">
+        <v>3021</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>107</v>
       </c>
@@ -12719,8 +13688,11 @@
       <c r="F112" s="4" t="s">
         <v>1867</v>
       </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G112" s="3" t="s">
+        <v>3022</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>174</v>
       </c>
@@ -12733,13 +13705,16 @@
       <c r="E113" s="3" t="s">
         <v>1709</v>
       </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G113" s="3" t="s">
+        <v>3023</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>177</v>
       </c>
@@ -12747,7 +13722,7 @@
         <v>1710</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>178</v>
       </c>
@@ -12758,7 +13733,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>179</v>
       </c>
@@ -12772,7 +13747,7 @@
         <v>1869</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>181</v>
       </c>
@@ -12783,7 +13758,7 @@
         <v>1713</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>183</v>
       </c>
@@ -12791,7 +13766,7 @@
         <v>1714</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>184</v>
       </c>
@@ -12802,7 +13777,7 @@
         <v>1715</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>186</v>
       </c>
@@ -12816,7 +13791,7 @@
         <v>1870</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>188</v>
       </c>
@@ -12824,7 +13799,7 @@
         <v>1717</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>189</v>
       </c>
@@ -12832,7 +13807,7 @@
         <v>1718</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>190</v>
       </c>
@@ -12843,7 +13818,7 @@
         <v>1719</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>192</v>
       </c>
@@ -12851,7 +13826,7 @@
         <v>1720</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>193</v>
       </c>
@@ -12859,7 +13834,7 @@
         <v>1721</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>194</v>
       </c>

--- a/WangLu-C3.xlsx
+++ b/WangLu-C3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\LearningforIELTS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{773E30B2-BDFB-481B-B988-45EE74C2FBB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9B8F697-684D-4984-9C7F-513D6C550C05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3285" yWindow="600" windowWidth="25515" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10230" yWindow="90" windowWidth="18480" windowHeight="15495" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3377" uniqueCount="3055">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3655" uniqueCount="3328">
   <si>
     <t>Test1</t>
   </si>
@@ -11351,6 +11351,1098 @@
   </si>
   <si>
     <t>bungalow</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>cabinet</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>cable</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>café</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>cafeteria</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>cage</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cambridge</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>camel</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>camera</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>camp</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>campers</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>candle</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>campus</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>candidate</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>canteen</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>capital</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>capsule</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>carbin</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>carbon</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>care</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>career</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>carpet</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>carving</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>car</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>cashier</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>castle</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>category</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>cathedral</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>cause</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>cave</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>cents</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>cent</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>century</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>certificate</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>chair</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>chance</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>chall</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>channel</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>chancellor</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>chapter</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>character</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>charge</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>charity</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>chat</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>chart</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>checklist</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>check</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>checks</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>cheese</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>chemists</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>chemist's</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>chest</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>chick</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>chicken</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>child</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>chin</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>chocolate</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>choice</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>church</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>cinema</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>circle</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>city</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>clarity</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>cleaner</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>cleaning</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>client</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>cliffs</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>climate</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>clinic</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>clock</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>cloth</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>clothing</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>club</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>coach</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>coast</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>code</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>cock</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>coke</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>cola</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>colleague</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>college</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>comedy</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>commercial</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>commercials</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>computer</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>companion</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>company</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>complaint</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>complex</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>commuter</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>concert</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>comclusion</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>condition</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>conferences</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>confidence</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>confirmation</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>congestion</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>conquer</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>conquest</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>conversation</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>conservation</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>conqueror</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>construction</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>consultant</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>consumption</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>contact</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>container</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>contaminent</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>contaminants</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>contamination</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>content</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>continent</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>contract</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>contracts</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>controversy</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>convinence</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>convenience</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>cooperation</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>cop</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>copy</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>corperation</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>corpse</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>correspondence</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>cost</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>costume</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>cot</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>cottage</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>cough</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>council</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>country</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>crack</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>craft</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>cream</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>credit</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>creek</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>crime</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>crisis</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>crocodile</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>crop</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>cotivition</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>cultivation</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>culture</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>cup</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>cupborad</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>curtain</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>customer</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>cutery</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>cutlery</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>cycle</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>cycling</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>damage</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>danger</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>data</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>date</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>day</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>deadline</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>debate</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>debt</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>decade</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>decision</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>decline</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>decoration</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>delay</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>delegate</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>delight</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>delivery</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>demostration</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>dentist</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>department</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>deposit</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>depth</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>description</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>desert</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>design</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>designer</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>desire</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>desks</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>destination</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>detail</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>diary</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>dictation</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>diet</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>dining</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>dinner</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>dioxide</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>direction</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>director</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>disagreement</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>disaster</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>discipline</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>disco</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>discomfort</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>discos</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>discount</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>discovery</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>disease</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>dish</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>disposal</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>dispute</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>distance</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>divorce</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>document</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>documentary</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>donation</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>donkey</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>draft</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>drama</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>draw</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>drawer</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>drink</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>drinking</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>driver</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>driving</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>drug</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>drum</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>due</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>duration</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>dust</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>duty</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>eagle</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ear</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>east</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>eating</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>economy</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>editor</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>education</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>elbow</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>elder</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>electricity</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>elements</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>elevator</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>emotion</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>em</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>emperor</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>employee</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>employer</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>encyclopedia</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ending</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>energies</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>engine</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>enginer</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>engineer</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>entrance</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ecademic</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>epidemic</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>equipment</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ethic</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>evening</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>event</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>evidence</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>examination</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>example</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>exception</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>exchange</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>excitement</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>excursion</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>excuse</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>exercise</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>exhibition</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>existence</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>existing</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>expansion</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>expand</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>expense</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>experiment</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>expert</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>explanation</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>explosion</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>exposition</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>exposure</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>extension</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>facility</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>factor</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>factory</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -11718,8 +12810,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H1152"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="H115" sqref="H115"/>
+    <sheetView tabSelected="1" topLeftCell="A357" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E373" sqref="E373"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -13721,6 +14813,9 @@
       <c r="C116" s="3" t="s">
         <v>1710</v>
       </c>
+      <c r="E116" s="3" t="s">
+        <v>3055</v>
+      </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
@@ -13732,6 +14827,9 @@
       <c r="D117" s="4" t="s">
         <v>1868</v>
       </c>
+      <c r="E117" s="3" t="s">
+        <v>3056</v>
+      </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
@@ -13746,6 +14844,9 @@
       <c r="D118" s="4" t="s">
         <v>1869</v>
       </c>
+      <c r="E118" s="3" t="s">
+        <v>3057</v>
+      </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
@@ -13757,6 +14858,9 @@
       <c r="C119" s="3" t="s">
         <v>1713</v>
       </c>
+      <c r="E119" s="3" t="s">
+        <v>3058</v>
+      </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
@@ -13765,6 +14869,9 @@
       <c r="C120" s="3" t="s">
         <v>1714</v>
       </c>
+      <c r="E120" s="3" t="s">
+        <v>3059</v>
+      </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
@@ -13776,6 +14883,9 @@
       <c r="C121" s="3" t="s">
         <v>1715</v>
       </c>
+      <c r="E121" s="3" t="s">
+        <v>3060</v>
+      </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
@@ -13790,6 +14900,9 @@
       <c r="D122" s="4" t="s">
         <v>1870</v>
       </c>
+      <c r="E122" s="3" t="s">
+        <v>3061</v>
+      </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
@@ -13798,6 +14911,9 @@
       <c r="C123" s="3" t="s">
         <v>1717</v>
       </c>
+      <c r="E123" s="3" t="s">
+        <v>3062</v>
+      </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
@@ -13806,6 +14922,9 @@
       <c r="C124" s="3" t="s">
         <v>1718</v>
       </c>
+      <c r="E124" s="3" t="s">
+        <v>3063</v>
+      </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
@@ -13817,6 +14936,12 @@
       <c r="C125" s="3" t="s">
         <v>1719</v>
       </c>
+      <c r="E125" s="3" t="s">
+        <v>3064</v>
+      </c>
+      <c r="F125" s="4" t="s">
+        <v>3066</v>
+      </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
@@ -13825,6 +14950,9 @@
       <c r="C126" s="3" t="s">
         <v>1720</v>
       </c>
+      <c r="E126" s="3" t="s">
+        <v>3067</v>
+      </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
@@ -13833,6 +14961,9 @@
       <c r="C127" s="3" t="s">
         <v>1721</v>
       </c>
+      <c r="E127" s="3" t="s">
+        <v>3065</v>
+      </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
@@ -13841,24 +14972,33 @@
       <c r="C128" s="3" t="s">
         <v>1722</v>
       </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E128" s="3" t="s">
+        <v>3068</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>195</v>
       </c>
       <c r="C129" s="3" t="s">
         <v>1723</v>
       </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E129" s="3" t="s">
+        <v>3069</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B130" s="1" t="s">
         <v>196</v>
       </c>
       <c r="C130" s="3" t="s">
         <v>1724</v>
       </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E130" s="3" t="s">
+        <v>3070</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>197</v>
       </c>
@@ -13871,16 +15011,25 @@
       <c r="D131" s="4" t="s">
         <v>1729</v>
       </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E131" s="3" t="s">
+        <v>3071</v>
+      </c>
+      <c r="F131" s="4" t="s">
+        <v>3072</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>199</v>
       </c>
       <c r="C132" s="3" t="s">
         <v>1726</v>
       </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E132" s="3" t="s">
+        <v>3073</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>200</v>
       </c>
@@ -13890,8 +15039,11 @@
       <c r="D133" s="4" t="s">
         <v>1871</v>
       </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E133" s="3" t="s">
+        <v>3074</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>201</v>
       </c>
@@ -13904,8 +15056,11 @@
       <c r="D134" s="4" t="s">
         <v>1872</v>
       </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E134" s="3" t="s">
+        <v>3075</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>203</v>
       </c>
@@ -13918,8 +15073,11 @@
       <c r="D135" s="4" t="s">
         <v>1873</v>
       </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E135" s="3" t="s">
+        <v>3076</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>205</v>
       </c>
@@ -13932,8 +15090,14 @@
       <c r="D136" s="4" t="s">
         <v>1730</v>
       </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E136" s="3" t="s">
+        <v>3077</v>
+      </c>
+      <c r="F136" s="4" t="s">
+        <v>3078</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>207</v>
       </c>
@@ -13943,8 +15107,11 @@
       <c r="C137" s="3" t="s">
         <v>1731</v>
       </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E137" s="3" t="s">
+        <v>3079</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>181</v>
       </c>
@@ -13954,8 +15121,11 @@
       <c r="C138" s="3" t="s">
         <v>1732</v>
       </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E138" s="3" t="s">
+        <v>3080</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>210</v>
       </c>
@@ -13965,24 +15135,33 @@
       <c r="C139" s="3" t="s">
         <v>1733</v>
       </c>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E139" s="3" t="s">
+        <v>3081</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>212</v>
       </c>
       <c r="C140" s="3" t="s">
         <v>1734</v>
       </c>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E140" s="3" t="s">
+        <v>3082</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>213</v>
       </c>
       <c r="C141" s="3" t="s">
         <v>1735</v>
       </c>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E141" s="3" t="s">
+        <v>3083</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>214</v>
       </c>
@@ -13992,16 +15171,25 @@
       <c r="C142" s="3" t="s">
         <v>1736</v>
       </c>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E142" s="3" t="s">
+        <v>3085</v>
+      </c>
+      <c r="F142" s="4" t="s">
+        <v>3084</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>216</v>
       </c>
       <c r="C143" s="3" t="s">
         <v>1737</v>
       </c>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E143" s="3" t="s">
+        <v>3086</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>217</v>
       </c>
@@ -14014,16 +15202,22 @@
       <c r="D144" s="4" t="s">
         <v>1874</v>
       </c>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E144" s="3" t="s">
+        <v>3087</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>219</v>
       </c>
       <c r="C145" s="3" t="s">
         <v>1740</v>
       </c>
-    </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E145" s="3" t="s">
+        <v>3088</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>220</v>
       </c>
@@ -14036,8 +15230,11 @@
       <c r="D146" s="4" t="s">
         <v>1875</v>
       </c>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E146" s="3" t="s">
+        <v>3089</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>222</v>
       </c>
@@ -14048,16 +15245,25 @@
         <v>1741</v>
       </c>
       <c r="D147" s="4"/>
-    </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E147" s="3" t="s">
+        <v>3090</v>
+      </c>
+      <c r="F147" s="4" t="s">
+        <v>3092</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>224</v>
       </c>
       <c r="C148" s="3" t="s">
         <v>1742</v>
       </c>
-    </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E148" s="3" t="s">
+        <v>3091</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>225</v>
       </c>
@@ -14067,32 +15273,44 @@
       <c r="C149" s="3" t="s">
         <v>1743</v>
       </c>
-    </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E149" s="3" t="s">
+        <v>3093</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>227</v>
       </c>
       <c r="C150" s="3" t="s">
         <v>1744</v>
       </c>
-    </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E150" s="3" t="s">
+        <v>3094</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>228</v>
       </c>
       <c r="C151" s="3" t="s">
         <v>1745</v>
       </c>
-    </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E151" s="3" t="s">
+        <v>3095</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>229</v>
       </c>
       <c r="C152" s="3" t="s">
         <v>1746</v>
       </c>
-    </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E152" s="3" t="s">
+        <v>3096</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>230</v>
       </c>
@@ -14102,8 +15320,14 @@
       <c r="C153" s="3" t="s">
         <v>1747</v>
       </c>
-    </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E153" s="3" t="s">
+        <v>3097</v>
+      </c>
+      <c r="F153" s="4" t="s">
+        <v>3098</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>232</v>
       </c>
@@ -14113,8 +15337,11 @@
       <c r="C154" s="3" t="s">
         <v>1748</v>
       </c>
-    </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E154" s="3" t="s">
+        <v>3097</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>234</v>
       </c>
@@ -14124,8 +15351,11 @@
       <c r="C155" s="3" t="s">
         <v>1749</v>
       </c>
-    </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E155" s="3" t="s">
+        <v>3099</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>220</v>
       </c>
@@ -14138,8 +15368,14 @@
       <c r="D156" s="4" t="s">
         <v>1876</v>
       </c>
-    </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E156" s="3" t="s">
+        <v>3100</v>
+      </c>
+      <c r="F156" s="4" t="s">
+        <v>3101</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>237</v>
       </c>
@@ -14149,8 +15385,11 @@
       <c r="C157" s="3" t="s">
         <v>1750</v>
       </c>
-    </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E157" s="3" t="s">
+        <v>3102</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>239</v>
       </c>
@@ -14163,8 +15402,14 @@
       <c r="D158" s="4" t="s">
         <v>1877</v>
       </c>
-    </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E158" s="3" t="s">
+        <v>3103</v>
+      </c>
+      <c r="F158" s="4" t="s">
+        <v>3104</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>241</v>
       </c>
@@ -14174,8 +15419,11 @@
       <c r="D159" s="4" t="s">
         <v>1878</v>
       </c>
-    </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E159" s="3" t="s">
+        <v>3105</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>220</v>
       </c>
@@ -14185,8 +15433,11 @@
       <c r="C160" s="3" t="s">
         <v>1753</v>
       </c>
-    </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E160" s="3" t="s">
+        <v>3106</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>243</v>
       </c>
@@ -14196,16 +15447,22 @@
       <c r="C161" s="3" t="s">
         <v>1752</v>
       </c>
-    </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E161" s="3" t="s">
+        <v>3107</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>244</v>
       </c>
       <c r="C162" s="3" t="s">
         <v>1754</v>
       </c>
-    </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E162" s="3" t="s">
+        <v>3108</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>245</v>
       </c>
@@ -14215,8 +15472,11 @@
       <c r="C163" s="3" t="s">
         <v>1755</v>
       </c>
-    </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E163" s="3" t="s">
+        <v>3109</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>247</v>
       </c>
@@ -14226,8 +15486,11 @@
       <c r="C164" s="3" t="s">
         <v>1756</v>
       </c>
-    </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E164" s="3" t="s">
+        <v>3110</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>249</v>
       </c>
@@ -14237,8 +15500,11 @@
       <c r="D165" s="4" t="s">
         <v>1879</v>
       </c>
-    </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E165" s="3" t="s">
+        <v>3111</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>250</v>
       </c>
@@ -14251,8 +15517,11 @@
       <c r="D166" s="4" t="s">
         <v>1759</v>
       </c>
-    </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E166" s="3" t="s">
+        <v>3112</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>252</v>
       </c>
@@ -14262,48 +15531,66 @@
       <c r="C167" s="3" t="s">
         <v>1760</v>
       </c>
-    </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E167" s="3" t="s">
+        <v>3113</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>254</v>
       </c>
       <c r="C168" s="3" t="s">
         <v>1761</v>
       </c>
-    </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E168" s="3" t="s">
+        <v>3114</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>255</v>
       </c>
       <c r="C169" s="3" t="s">
         <v>1762</v>
       </c>
-    </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E169" s="3" t="s">
+        <v>3115</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>256</v>
       </c>
       <c r="C170" s="3" t="s">
         <v>1763</v>
       </c>
-    </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E170" s="3" t="s">
+        <v>3116</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>257</v>
       </c>
       <c r="C171" s="3" t="s">
         <v>1764</v>
       </c>
-    </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E171" s="3" t="s">
+        <v>3117</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>258</v>
       </c>
       <c r="C172" s="3" t="s">
         <v>1765</v>
       </c>
-    </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E172" s="3" t="s">
+        <v>3118</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>259</v>
       </c>
@@ -14316,8 +15603,11 @@
       <c r="D173" s="4" t="s">
         <v>1880</v>
       </c>
-    </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E173" s="3" t="s">
+        <v>3119</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>261</v>
       </c>
@@ -14330,8 +15620,11 @@
       <c r="D174" s="4" t="s">
         <v>1881</v>
       </c>
-    </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E174" s="3" t="s">
+        <v>3120</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>263</v>
       </c>
@@ -14341,8 +15634,11 @@
       <c r="D175" s="4" t="s">
         <v>1882</v>
       </c>
-    </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E175" s="3" t="s">
+        <v>3121</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>264</v>
       </c>
@@ -14355,8 +15651,11 @@
       <c r="D176" s="4" t="s">
         <v>1883</v>
       </c>
-    </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E176" s="3" t="s">
+        <v>3122</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>266</v>
       </c>
@@ -14366,16 +15665,22 @@
       <c r="C177" s="3" t="s">
         <v>1770</v>
       </c>
-    </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E177" s="3" t="s">
+        <v>3123</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B178" s="1" t="s">
         <v>267</v>
       </c>
       <c r="C178" s="3" t="s">
         <v>1771</v>
       </c>
-    </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E178" s="3" t="s">
+        <v>3124</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>268</v>
       </c>
@@ -14383,16 +15688,22 @@
       <c r="C179" s="3" t="s">
         <v>1772</v>
       </c>
-    </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E179" s="3" t="s">
+        <v>3125</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>269</v>
       </c>
       <c r="C180" s="3" t="s">
         <v>1773</v>
       </c>
-    </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E180" s="3" t="s">
+        <v>3126</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>270</v>
       </c>
@@ -14402,8 +15713,11 @@
       <c r="C181" s="3" t="s">
         <v>1774</v>
       </c>
-    </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E181" s="3" t="s">
+        <v>3127</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>272</v>
       </c>
@@ -14413,16 +15727,22 @@
       <c r="C182" s="3" t="s">
         <v>1775</v>
       </c>
-    </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E182" s="3" t="s">
+        <v>3128</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>274</v>
       </c>
       <c r="C183" s="3" t="s">
         <v>1776</v>
       </c>
-    </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E183" s="3" t="s">
+        <v>3129</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>275</v>
       </c>
@@ -14432,8 +15752,14 @@
       <c r="C184" s="3" t="s">
         <v>1777</v>
       </c>
-    </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E184" s="3" t="s">
+        <v>3130</v>
+      </c>
+      <c r="F184" s="4" t="s">
+        <v>3131</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>277</v>
       </c>
@@ -14443,8 +15769,11 @@
       <c r="C185" s="3" t="s">
         <v>1778</v>
       </c>
-    </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E185" s="3" t="s">
+        <v>3132</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>279</v>
       </c>
@@ -14454,16 +15783,22 @@
       <c r="D186" s="4" t="s">
         <v>1884</v>
       </c>
-    </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E186" s="3" t="s">
+        <v>3133</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>280</v>
       </c>
       <c r="C187" s="3" t="s">
         <v>1780</v>
       </c>
-    </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E187" s="3" t="s">
+        <v>3134</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>281</v>
       </c>
@@ -14473,8 +15808,11 @@
       <c r="C188" s="3" t="s">
         <v>1781</v>
       </c>
-    </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E188" s="3" t="s">
+        <v>3135</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>283</v>
       </c>
@@ -14487,32 +15825,50 @@
       <c r="D189" s="4" t="s">
         <v>1885</v>
       </c>
-    </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E189" s="3" t="s">
+        <v>3136</v>
+      </c>
+      <c r="F189" s="4" t="s">
+        <v>3137</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>285</v>
       </c>
       <c r="C190" s="3" t="s">
         <v>1783</v>
       </c>
-    </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E190" s="3" t="s">
+        <v>3138</v>
+      </c>
+      <c r="F190" s="4" t="s">
+        <v>3143</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>286</v>
       </c>
       <c r="C191" s="3" t="s">
         <v>1784</v>
       </c>
-    </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E191" s="3" t="s">
+        <v>3139</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>287</v>
       </c>
       <c r="C192" s="3" t="s">
         <v>1785</v>
       </c>
-    </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E192" s="3" t="s">
+        <v>3140</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>288</v>
       </c>
@@ -14522,48 +15878,66 @@
       <c r="C193" s="3" t="s">
         <v>1786</v>
       </c>
-    </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E193" s="3" t="s">
+        <v>3141</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>290</v>
       </c>
       <c r="C194" s="3" t="s">
         <v>1787</v>
       </c>
-    </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E194" s="3" t="s">
+        <v>3142</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>291</v>
       </c>
       <c r="C195" s="3" t="s">
         <v>1788</v>
       </c>
-    </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E195" s="3" t="s">
+        <v>3138</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>292</v>
       </c>
       <c r="C196" s="3" t="s">
         <v>1789</v>
       </c>
-    </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E196" s="3" t="s">
+        <v>3144</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>293</v>
       </c>
       <c r="C197" s="3" t="s">
         <v>1790</v>
       </c>
-    </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E197" s="3" t="s">
+        <v>3145</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>294</v>
       </c>
       <c r="C198" s="3" t="s">
         <v>1791</v>
       </c>
-    </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E198" s="3" t="s">
+        <v>3146</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>295</v>
       </c>
@@ -14576,16 +15950,22 @@
       <c r="D199" s="4" t="s">
         <v>1886</v>
       </c>
-    </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E199" s="3" t="s">
+        <v>3147</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>297</v>
       </c>
       <c r="C200" s="3" t="s">
         <v>1793</v>
       </c>
-    </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E200" s="3" t="s">
+        <v>3148</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>298</v>
       </c>
@@ -14595,16 +15975,22 @@
       <c r="C201" s="3" t="s">
         <v>1794</v>
       </c>
-    </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E201" s="3" t="s">
+        <v>3149</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>300</v>
       </c>
       <c r="C202" s="3" t="s">
         <v>1795</v>
       </c>
-    </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E202" s="3" t="s">
+        <v>3150</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>301</v>
       </c>
@@ -14617,40 +16003,58 @@
       <c r="D203" s="4" t="s">
         <v>1887</v>
       </c>
-    </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E203" s="3" t="s">
+        <v>3151</v>
+      </c>
+      <c r="F203" s="4" t="s">
+        <v>3155</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>303</v>
       </c>
       <c r="C204" s="3" t="s">
         <v>1797</v>
       </c>
-    </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E204" s="3" t="s">
+        <v>3152</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>304</v>
       </c>
       <c r="C205" s="3" t="s">
         <v>1798</v>
       </c>
-    </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E205" s="3" t="s">
+        <v>3153</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>305</v>
       </c>
       <c r="C206" s="3" t="s">
         <v>1799</v>
       </c>
-    </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E206" s="3" t="s">
+        <v>3154</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>306</v>
       </c>
       <c r="C207" s="3" t="s">
         <v>1800</v>
       </c>
-    </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E207" s="3" t="s">
+        <v>3156</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>307</v>
       </c>
@@ -14660,24 +16064,33 @@
       <c r="C208" s="3" t="s">
         <v>1801</v>
       </c>
-    </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E208" s="3" t="s">
+        <v>3157</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>309</v>
       </c>
       <c r="C209" s="3" t="s">
         <v>1802</v>
       </c>
-    </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E209" s="3" t="s">
+        <v>3158</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>310</v>
       </c>
       <c r="C210" s="3" t="s">
         <v>1803</v>
       </c>
-    </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E210" s="3" t="s">
+        <v>3159</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>307</v>
       </c>
@@ -14687,8 +16100,11 @@
       <c r="C211" s="3" t="s">
         <v>1804</v>
       </c>
-    </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E211" s="3" t="s">
+        <v>3160</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>312</v>
       </c>
@@ -14701,8 +16117,14 @@
       <c r="D212" s="4" t="s">
         <v>1888</v>
       </c>
-    </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E212" s="3" t="s">
+        <v>3161</v>
+      </c>
+      <c r="F212" s="4" t="s">
+        <v>3162</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>314</v>
       </c>
@@ -14712,8 +16134,11 @@
       <c r="C213" s="3" t="s">
         <v>1806</v>
       </c>
-    </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E213" s="3" t="s">
+        <v>3163</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>307</v>
       </c>
@@ -14726,8 +16151,11 @@
       <c r="D214" s="4" t="s">
         <v>1889</v>
       </c>
-    </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E214" s="3" t="s">
+        <v>3164</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>317</v>
       </c>
@@ -14740,16 +16168,22 @@
       <c r="D215" s="4" t="s">
         <v>1890</v>
       </c>
-    </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E215" s="3" t="s">
+        <v>3165</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>319</v>
       </c>
       <c r="C216" s="3" t="s">
         <v>1809</v>
       </c>
-    </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E216" s="3" t="s">
+        <v>3166</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>320</v>
       </c>
@@ -14762,8 +16196,11 @@
       <c r="D217" s="4" t="s">
         <v>1891</v>
       </c>
-    </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E217" s="3" t="s">
+        <v>3167</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>322</v>
       </c>
@@ -14776,8 +16213,11 @@
       <c r="D218" s="4" t="s">
         <v>1892</v>
       </c>
-    </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E218" s="3" t="s">
+        <v>3168</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>324</v>
       </c>
@@ -14790,8 +16230,14 @@
       <c r="D219" s="4" t="s">
         <v>1893</v>
       </c>
-    </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E219" s="3" t="s">
+        <v>3169</v>
+      </c>
+      <c r="F219" s="4" t="s">
+        <v>3170</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>326</v>
       </c>
@@ -14804,8 +16250,11 @@
       <c r="D220" s="4" t="s">
         <v>1894</v>
       </c>
-    </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E220" s="3" t="s">
+        <v>3171</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>207</v>
       </c>
@@ -14815,16 +16264,22 @@
       <c r="C221" s="3" t="s">
         <v>1814</v>
       </c>
-    </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E221" s="3" t="s">
+        <v>3172</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>329</v>
       </c>
       <c r="C222" s="3" t="s">
         <v>1815</v>
       </c>
-    </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E222" s="3" t="s">
+        <v>3173</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>330</v>
       </c>
@@ -14834,8 +16289,11 @@
       <c r="C223" s="3" t="s">
         <v>1816</v>
       </c>
-    </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E223" s="3" t="s">
+        <v>3174</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>207</v>
       </c>
@@ -14848,8 +16306,14 @@
       <c r="D224" s="4" t="s">
         <v>1895</v>
       </c>
-    </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E224" s="3" t="s">
+        <v>3082</v>
+      </c>
+      <c r="F224" s="4" t="s">
+        <v>3175</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>333</v>
       </c>
@@ -14862,8 +16326,11 @@
       <c r="D225" s="4" t="s">
         <v>1896</v>
       </c>
-    </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E225" s="3" t="s">
+        <v>3176</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>307</v>
       </c>
@@ -14876,8 +16343,11 @@
       <c r="D226" s="4" t="s">
         <v>1897</v>
       </c>
-    </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E226" s="3" t="s">
+        <v>3177</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>336</v>
       </c>
@@ -14887,8 +16357,11 @@
       <c r="C227" s="3" t="s">
         <v>1820</v>
       </c>
-    </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E227" s="3" t="s">
+        <v>3178</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>307</v>
       </c>
@@ -14898,8 +16371,11 @@
       <c r="C228" s="3" t="s">
         <v>1821</v>
       </c>
-    </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E228" s="3" t="s">
+        <v>3179</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>339</v>
       </c>
@@ -14912,8 +16388,11 @@
       <c r="D229" s="4" t="s">
         <v>1898</v>
       </c>
-    </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E229" s="3" t="s">
+        <v>3180</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>341</v>
       </c>
@@ -14923,8 +16402,11 @@
       <c r="C230" s="3" t="s">
         <v>1817</v>
       </c>
-    </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E230" s="3" t="s">
+        <v>3181</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>307</v>
       </c>
@@ -14934,8 +16416,11 @@
       <c r="C231" s="3" t="s">
         <v>1823</v>
       </c>
-    </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E231" s="3" t="s">
+        <v>3182</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>343</v>
       </c>
@@ -14945,8 +16430,11 @@
       <c r="C232" s="3" t="s">
         <v>1824</v>
       </c>
-    </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E232" s="3" t="s">
+        <v>3183</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>345</v>
       </c>
@@ -14959,16 +16447,22 @@
       <c r="D233" s="4" t="s">
         <v>1899</v>
       </c>
-    </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E233" s="3" t="s">
+        <v>3082</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>347</v>
       </c>
       <c r="C234" s="3" t="s">
         <v>1825</v>
       </c>
-    </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E234" s="3" t="s">
+        <v>3184</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>348</v>
       </c>
@@ -14978,16 +16472,22 @@
       <c r="C235" s="3" t="s">
         <v>1826</v>
       </c>
-    </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E235" s="3" t="s">
+        <v>3185</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>350</v>
       </c>
       <c r="C236" s="3" t="s">
         <v>1828</v>
       </c>
-    </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E236" s="3" t="s">
+        <v>3186</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>351</v>
       </c>
@@ -14997,8 +16497,11 @@
       <c r="C237" s="3" t="s">
         <v>1829</v>
       </c>
-    </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E237" s="3" t="s">
+        <v>3187</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>353</v>
       </c>
@@ -15011,8 +16514,11 @@
       <c r="D238" s="4" t="s">
         <v>1900</v>
       </c>
-    </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E238" s="3" t="s">
+        <v>3188</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>350</v>
       </c>
@@ -15022,8 +16528,11 @@
       <c r="C239" s="3" t="s">
         <v>1827</v>
       </c>
-    </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E239" s="3" t="s">
+        <v>3189</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>356</v>
       </c>
@@ -15033,8 +16542,11 @@
       <c r="C240" s="3" t="s">
         <v>1831</v>
       </c>
-    </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E240" s="3" t="s">
+        <v>3190</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>358</v>
       </c>
@@ -15044,8 +16556,11 @@
       <c r="C241" s="3" t="s">
         <v>1832</v>
       </c>
-    </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E241" s="3" t="s">
+        <v>3191</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>360</v>
       </c>
@@ -15055,8 +16570,11 @@
       <c r="C242" s="3" t="s">
         <v>1833</v>
       </c>
-    </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E242" s="3" t="s">
+        <v>3192</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>305</v>
       </c>
@@ -15066,8 +16584,14 @@
       <c r="C243" s="3" t="s">
         <v>1834</v>
       </c>
-    </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E243" s="3" t="s">
+        <v>3193</v>
+      </c>
+      <c r="F243" s="4" t="s">
+        <v>3194</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>307</v>
       </c>
@@ -15077,8 +16601,11 @@
       <c r="C244" s="3" t="s">
         <v>1835</v>
       </c>
-    </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E244" s="3" t="s">
+        <v>3195</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>364</v>
       </c>
@@ -15088,8 +16615,11 @@
       <c r="C245" s="3" t="s">
         <v>1813</v>
       </c>
-    </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E245" s="3" t="s">
+        <v>3196</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>366</v>
       </c>
@@ -15102,8 +16632,11 @@
       <c r="D246" s="4" t="s">
         <v>1901</v>
       </c>
-    </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E246" s="3" t="s">
+        <v>3197</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>368</v>
       </c>
@@ -15113,8 +16646,11 @@
       <c r="C247" s="3" t="s">
         <v>1836</v>
       </c>
-    </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E247" s="3" t="s">
+        <v>3198</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>369</v>
       </c>
@@ -15127,8 +16663,11 @@
       <c r="D248" s="4" t="s">
         <v>1902</v>
       </c>
-    </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E248" s="3" t="s">
+        <v>3199</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>371</v>
       </c>
@@ -15141,8 +16680,14 @@
       <c r="D249" s="4" t="s">
         <v>1903</v>
       </c>
-    </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E249" s="3" t="s">
+        <v>3200</v>
+      </c>
+      <c r="F249" s="4" t="s">
+        <v>3201</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>254</v>
       </c>
@@ -15152,64 +16697,88 @@
       <c r="C250" s="3" t="s">
         <v>1839</v>
       </c>
-    </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E250" s="3" t="s">
+        <v>3202</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B251" s="1" t="s">
         <v>374</v>
       </c>
       <c r="C251" s="3" t="s">
         <v>1840</v>
       </c>
-    </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E251" s="3" t="s">
+        <v>3203</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>375</v>
       </c>
       <c r="C252" s="3" t="s">
         <v>1841</v>
       </c>
-    </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E252" s="3" t="s">
+        <v>3204</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>376</v>
       </c>
       <c r="C253" s="3" t="s">
         <v>1842</v>
       </c>
-    </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E253" s="3" t="s">
+        <v>3205</v>
+      </c>
+    </row>
+    <row r="254" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>377</v>
       </c>
       <c r="C254" s="3" t="s">
         <v>1843</v>
       </c>
-    </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E254" s="3" t="s">
+        <v>3206</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>378</v>
       </c>
       <c r="C255" s="3" t="s">
         <v>1844</v>
       </c>
-    </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E255" s="3" t="s">
+        <v>3207</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>379</v>
       </c>
       <c r="C256" s="3" t="s">
         <v>1845</v>
       </c>
-    </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E256" s="3" t="s">
+        <v>3208</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>380</v>
       </c>
       <c r="C257" s="3" t="s">
         <v>1846</v>
       </c>
-    </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E257" s="3" t="s">
+        <v>3209</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>381</v>
       </c>
@@ -15219,29 +16788,38 @@
       <c r="D258" s="4" t="s">
         <v>1904</v>
       </c>
-    </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E258" s="3" t="s">
+        <v>3210</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>383</v>
       </c>
       <c r="C261" s="3" t="s">
         <v>1847</v>
       </c>
-    </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E261" s="3" t="s">
+        <v>3211</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>384</v>
       </c>
       <c r="C262" s="3" t="s">
         <v>1905</v>
       </c>
-    </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E262" s="3" t="s">
+        <v>3212</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>385</v>
       </c>
@@ -15251,16 +16829,22 @@
       <c r="C263" s="3" t="s">
         <v>1906</v>
       </c>
-    </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E263" s="3" t="s">
+        <v>3213</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>387</v>
       </c>
       <c r="C264" s="3" t="s">
         <v>1907</v>
       </c>
-    </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E264" s="3" t="s">
+        <v>3214</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>388</v>
       </c>
@@ -15273,16 +16857,22 @@
       <c r="D265" s="4" t="s">
         <v>2016</v>
       </c>
-    </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E265" s="3" t="s">
+        <v>3215</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>390</v>
       </c>
       <c r="C266" s="3" t="s">
         <v>1909</v>
       </c>
-    </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E266" s="3" t="s">
+        <v>3216</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>391</v>
       </c>
@@ -15292,8 +16882,11 @@
       <c r="D267" s="4" t="s">
         <v>2017</v>
       </c>
-    </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E267" s="3" t="s">
+        <v>3217</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>392</v>
       </c>
@@ -15303,8 +16896,11 @@
       <c r="C268" s="3" t="s">
         <v>1911</v>
       </c>
-    </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E268" s="3" t="s">
+        <v>3218</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>394</v>
       </c>
@@ -15314,32 +16910,44 @@
       <c r="C269" s="3" t="s">
         <v>1912</v>
       </c>
-    </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E269" s="3" t="s">
+        <v>3219</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>396</v>
       </c>
       <c r="C270" s="3" t="s">
         <v>1913</v>
       </c>
-    </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E270" s="3" t="s">
+        <v>3220</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>397</v>
       </c>
       <c r="C271" s="3" t="s">
         <v>1914</v>
       </c>
-    </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E271" s="3" t="s">
+        <v>3221</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>398</v>
       </c>
       <c r="C272" s="3" t="s">
         <v>1915</v>
       </c>
-    </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E272" s="3" t="s">
+        <v>3222</v>
+      </c>
+    </row>
+    <row r="273" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>399</v>
       </c>
@@ -15349,8 +16957,11 @@
       <c r="C273" s="3" t="s">
         <v>1916</v>
       </c>
-    </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E273" s="3" t="s">
+        <v>3223</v>
+      </c>
+    </row>
+    <row r="274" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>401</v>
       </c>
@@ -15360,40 +16971,55 @@
       <c r="C274" s="3" t="s">
         <v>1917</v>
       </c>
-    </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E274" s="3" t="s">
+        <v>3224</v>
+      </c>
+    </row>
+    <row r="275" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>403</v>
       </c>
       <c r="C275" s="3" t="s">
         <v>1918</v>
       </c>
-    </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E275" s="3" t="s">
+        <v>3225</v>
+      </c>
+    </row>
+    <row r="276" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>404</v>
       </c>
       <c r="C276" s="3" t="s">
         <v>1919</v>
       </c>
-    </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E276" s="3" t="s">
+        <v>3226</v>
+      </c>
+    </row>
+    <row r="277" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>405</v>
       </c>
       <c r="C277" s="3" t="s">
         <v>1920</v>
       </c>
-    </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E277" s="3" t="s">
+        <v>3227</v>
+      </c>
+    </row>
+    <row r="278" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>406</v>
       </c>
       <c r="C278" s="3" t="s">
         <v>1921</v>
       </c>
-    </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E278" s="3" t="s">
+        <v>3228</v>
+      </c>
+    </row>
+    <row r="279" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
         <v>406</v>
       </c>
@@ -15403,8 +17029,14 @@
       <c r="C279" s="3" t="s">
         <v>1922</v>
       </c>
-    </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E279" s="3" t="s">
+        <v>3227</v>
+      </c>
+      <c r="F279" s="4" t="s">
+        <v>3229</v>
+      </c>
+    </row>
+    <row r="280" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
         <v>408</v>
       </c>
@@ -15414,8 +17046,11 @@
       <c r="C280" s="3" t="s">
         <v>1923</v>
       </c>
-    </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E280" s="3" t="s">
+        <v>3230</v>
+      </c>
+    </row>
+    <row r="281" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>410</v>
       </c>
@@ -15428,32 +17063,44 @@
       <c r="D281" s="4" t="s">
         <v>2018</v>
       </c>
-    </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E281" s="3" t="s">
+        <v>3231</v>
+      </c>
+    </row>
+    <row r="282" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>411</v>
       </c>
       <c r="C282" s="3" t="s">
         <v>1925</v>
       </c>
-    </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E282" s="3" t="s">
+        <v>3232</v>
+      </c>
+    </row>
+    <row r="283" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>412</v>
       </c>
       <c r="C283" s="3" t="s">
         <v>1926</v>
       </c>
-    </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E283" s="3" t="s">
+        <v>3233</v>
+      </c>
+    </row>
+    <row r="284" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>413</v>
       </c>
       <c r="C284" s="3" t="s">
         <v>1927</v>
       </c>
-    </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E284" s="3" t="s">
+        <v>3234</v>
+      </c>
+    </row>
+    <row r="285" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
         <v>414</v>
       </c>
@@ -15463,32 +17110,44 @@
       <c r="D285" s="4" t="s">
         <v>2019</v>
       </c>
-    </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E285" s="3" t="s">
+        <v>3235</v>
+      </c>
+    </row>
+    <row r="286" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
         <v>415</v>
       </c>
       <c r="C286" s="3" t="s">
         <v>1929</v>
       </c>
-    </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E286" s="3" t="s">
+        <v>3236</v>
+      </c>
+    </row>
+    <row r="287" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
         <v>416</v>
       </c>
       <c r="C287" s="3" t="s">
         <v>1930</v>
       </c>
-    </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E287" s="3" t="s">
+        <v>3237</v>
+      </c>
+    </row>
+    <row r="288" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
         <v>417</v>
       </c>
       <c r="C288" s="3" t="s">
         <v>1931</v>
       </c>
-    </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E288" s="3" t="s">
+        <v>3238</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
         <v>418</v>
       </c>
@@ -15498,24 +17157,33 @@
       <c r="C289" s="3" t="s">
         <v>1932</v>
       </c>
-    </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E289" s="3" t="s">
+        <v>3239</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
         <v>420</v>
       </c>
       <c r="C290" s="3" t="s">
         <v>1933</v>
       </c>
-    </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E290" s="3" t="s">
+        <v>3240</v>
+      </c>
+    </row>
+    <row r="291" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
         <v>421</v>
       </c>
       <c r="C291" s="3" t="s">
         <v>1934</v>
       </c>
-    </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E291" s="3" t="s">
+        <v>3241</v>
+      </c>
+    </row>
+    <row r="292" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
         <v>422</v>
       </c>
@@ -15525,8 +17193,11 @@
       <c r="C292" s="3" t="s">
         <v>1935</v>
       </c>
-    </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E292" s="3" t="s">
+        <v>3242</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
         <v>424</v>
       </c>
@@ -15536,8 +17207,11 @@
       <c r="C293" s="3" t="s">
         <v>1936</v>
       </c>
-    </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E293" s="3" t="s">
+        <v>3243</v>
+      </c>
+    </row>
+    <row r="294" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
         <v>426</v>
       </c>
@@ -15550,8 +17224,11 @@
       <c r="D294" s="4" t="s">
         <v>1939</v>
       </c>
-    </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E294" s="3" t="s">
+        <v>3244</v>
+      </c>
+    </row>
+    <row r="295" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
         <v>428</v>
       </c>
@@ -15564,8 +17241,11 @@
       <c r="D295" s="4" t="s">
         <v>2020</v>
       </c>
-    </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E295" s="3" t="s">
+        <v>3245</v>
+      </c>
+    </row>
+    <row r="296" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
         <v>430</v>
       </c>
@@ -15578,24 +17258,33 @@
       <c r="D296" s="4" t="s">
         <v>2021</v>
       </c>
-    </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E296" s="3" t="s">
+        <v>3246</v>
+      </c>
+    </row>
+    <row r="297" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
         <v>432</v>
       </c>
       <c r="C297" s="3" t="s">
         <v>1940</v>
       </c>
-    </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E297" s="3" t="s">
+        <v>3247</v>
+      </c>
+    </row>
+    <row r="298" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
         <v>433</v>
       </c>
       <c r="C298" s="3" t="s">
         <v>1941</v>
       </c>
-    </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E298" s="3" t="s">
+        <v>3248</v>
+      </c>
+    </row>
+    <row r="299" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
         <v>434</v>
       </c>
@@ -15605,8 +17294,11 @@
       <c r="C299" s="3" t="s">
         <v>1942</v>
       </c>
-    </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E299" s="3" t="s">
+        <v>3249</v>
+      </c>
+    </row>
+    <row r="300" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
         <v>436</v>
       </c>
@@ -15616,8 +17308,11 @@
       <c r="C300" s="3" t="s">
         <v>1943</v>
       </c>
-    </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E300" s="3" t="s">
+        <v>3250</v>
+      </c>
+    </row>
+    <row r="301" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
         <v>437</v>
       </c>
@@ -15630,8 +17325,11 @@
       <c r="D301" s="4" t="s">
         <v>2022</v>
       </c>
-    </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E301" s="3" t="s">
+        <v>3251</v>
+      </c>
+    </row>
+    <row r="302" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
         <v>439</v>
       </c>
@@ -15644,40 +17342,55 @@
       <c r="D302" s="4" t="s">
         <v>2023</v>
       </c>
-    </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E302" s="3" t="s">
+        <v>3252</v>
+      </c>
+    </row>
+    <row r="303" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
         <v>441</v>
       </c>
       <c r="C303" s="3" t="s">
         <v>1945</v>
       </c>
-    </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E303" s="3" t="s">
+        <v>3253</v>
+      </c>
+    </row>
+    <row r="304" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
         <v>442</v>
       </c>
       <c r="C304" s="3" t="s">
         <v>1946</v>
       </c>
-    </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E304" s="3" t="s">
+        <v>3254</v>
+      </c>
+    </row>
+    <row r="305" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
         <v>443</v>
       </c>
       <c r="C305" s="3" t="s">
         <v>1947</v>
       </c>
-    </row>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E305" s="3" t="s">
+        <v>3255</v>
+      </c>
+    </row>
+    <row r="306" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
         <v>444</v>
       </c>
       <c r="C306" s="3" t="s">
         <v>1948</v>
       </c>
-    </row>
-    <row r="307" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E306" s="3" t="s">
+        <v>3256</v>
+      </c>
+    </row>
+    <row r="307" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
         <v>445</v>
       </c>
@@ -15687,16 +17400,22 @@
       <c r="C307" s="3" t="s">
         <v>1949</v>
       </c>
-    </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E307" s="3" t="s">
+        <v>3257</v>
+      </c>
+    </row>
+    <row r="308" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
         <v>447</v>
       </c>
       <c r="C308" s="3" t="s">
         <v>1950</v>
       </c>
-    </row>
-    <row r="309" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E308" s="3" t="s">
+        <v>3258</v>
+      </c>
+    </row>
+    <row r="309" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
         <v>448</v>
       </c>
@@ -15709,64 +17428,88 @@
       <c r="D309" s="4" t="s">
         <v>2024</v>
       </c>
-    </row>
-    <row r="310" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E309" s="3" t="s">
+        <v>3259</v>
+      </c>
+    </row>
+    <row r="310" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
         <v>450</v>
       </c>
       <c r="C310" s="3" t="s">
         <v>1952</v>
       </c>
-    </row>
-    <row r="311" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E310" s="3" t="s">
+        <v>3260</v>
+      </c>
+    </row>
+    <row r="311" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
         <v>451</v>
       </c>
       <c r="C311" s="3" t="s">
         <v>1953</v>
       </c>
-    </row>
-    <row r="312" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E311" s="3" t="s">
+        <v>3261</v>
+      </c>
+    </row>
+    <row r="312" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
         <v>452</v>
       </c>
       <c r="C312" s="3" t="s">
         <v>1954</v>
       </c>
-    </row>
-    <row r="313" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E312" s="3" t="s">
+        <v>3262</v>
+      </c>
+    </row>
+    <row r="313" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
         <v>453</v>
       </c>
       <c r="C313" s="3" t="s">
         <v>1955</v>
       </c>
-    </row>
-    <row r="314" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E313" s="3" t="s">
+        <v>3263</v>
+      </c>
+    </row>
+    <row r="314" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
         <v>454</v>
       </c>
       <c r="C314" s="3" t="s">
         <v>1956</v>
       </c>
-    </row>
-    <row r="315" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E314" s="3" t="s">
+        <v>3264</v>
+      </c>
+    </row>
+    <row r="315" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
         <v>455</v>
       </c>
       <c r="C315" s="3" t="s">
         <v>1957</v>
       </c>
-    </row>
-    <row r="316" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E315" s="3" t="s">
+        <v>3265</v>
+      </c>
+    </row>
+    <row r="316" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
         <v>456</v>
       </c>
       <c r="C316" s="3" t="s">
         <v>1958</v>
       </c>
-    </row>
-    <row r="317" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E316" s="3" t="s">
+        <v>3266</v>
+      </c>
+    </row>
+    <row r="317" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
         <v>457</v>
       </c>
@@ -15776,8 +17519,11 @@
       <c r="C317" s="3" t="s">
         <v>1959</v>
       </c>
-    </row>
-    <row r="318" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E317" s="3" t="s">
+        <v>3267</v>
+      </c>
+    </row>
+    <row r="318" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
         <v>459</v>
       </c>
@@ -15787,8 +17533,11 @@
       <c r="C318" s="3" t="s">
         <v>1960</v>
       </c>
-    </row>
-    <row r="319" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E318" s="3" t="s">
+        <v>3268</v>
+      </c>
+    </row>
+    <row r="319" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
         <v>461</v>
       </c>
@@ -15801,8 +17550,11 @@
       <c r="D319" s="4" t="s">
         <v>2025</v>
       </c>
-    </row>
-    <row r="320" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E319" s="3" t="s">
+        <v>3269</v>
+      </c>
+    </row>
+    <row r="320" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
         <v>463</v>
       </c>
@@ -15815,40 +17567,55 @@
       <c r="D320" s="4" t="s">
         <v>2026</v>
       </c>
-    </row>
-    <row r="321" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E320" s="3" t="s">
+        <v>3270</v>
+      </c>
+    </row>
+    <row r="321" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
         <v>465</v>
       </c>
       <c r="C321" s="3" t="s">
         <v>1963</v>
       </c>
-    </row>
-    <row r="322" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E321" s="3" t="s">
+        <v>3271</v>
+      </c>
+    </row>
+    <row r="322" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
         <v>466</v>
       </c>
       <c r="C322" s="3" t="s">
         <v>1964</v>
       </c>
-    </row>
-    <row r="323" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E322" s="3" t="s">
+        <v>3272</v>
+      </c>
+    </row>
+    <row r="323" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
         <v>467</v>
       </c>
       <c r="C323" s="3" t="s">
         <v>1965</v>
       </c>
-    </row>
-    <row r="324" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E323" s="3" t="s">
+        <v>3273</v>
+      </c>
+    </row>
+    <row r="324" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
         <v>468</v>
       </c>
       <c r="C324" s="3" t="s">
         <v>1966</v>
       </c>
-    </row>
-    <row r="325" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E324" s="3" t="s">
+        <v>3274</v>
+      </c>
+    </row>
+    <row r="325" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
         <v>469</v>
       </c>
@@ -15858,16 +17625,22 @@
       <c r="C325" s="3" t="s">
         <v>1967</v>
       </c>
-    </row>
-    <row r="326" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E325" s="3" t="s">
+        <v>3275</v>
+      </c>
+    </row>
+    <row r="326" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
         <v>471</v>
       </c>
       <c r="C326" s="3" t="s">
         <v>1968</v>
       </c>
-    </row>
-    <row r="327" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E326" s="3" t="s">
+        <v>3276</v>
+      </c>
+    </row>
+    <row r="327" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
         <v>472</v>
       </c>
@@ -15877,32 +17650,44 @@
       <c r="C327" s="3" t="s">
         <v>1969</v>
       </c>
-    </row>
-    <row r="328" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E327" s="3" t="s">
+        <v>3277</v>
+      </c>
+    </row>
+    <row r="328" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
         <v>474</v>
       </c>
       <c r="C328" s="3" t="s">
         <v>1970</v>
       </c>
-    </row>
-    <row r="329" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E328" s="3" t="s">
+        <v>3278</v>
+      </c>
+    </row>
+    <row r="329" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
         <v>475</v>
       </c>
       <c r="C329" s="3" t="s">
         <v>1971</v>
       </c>
-    </row>
-    <row r="330" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E329" s="3" t="s">
+        <v>3279</v>
+      </c>
+    </row>
+    <row r="330" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
         <v>476</v>
       </c>
       <c r="C330" s="3" t="s">
         <v>1972</v>
       </c>
-    </row>
-    <row r="331" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E330" s="3" t="s">
+        <v>3280</v>
+      </c>
+    </row>
+    <row r="331" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
         <v>477</v>
       </c>
@@ -15915,8 +17700,11 @@
       <c r="D331" s="4" t="s">
         <v>2027</v>
       </c>
-    </row>
-    <row r="332" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E331" s="3" t="s">
+        <v>3281</v>
+      </c>
+    </row>
+    <row r="332" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
         <v>479</v>
       </c>
@@ -15926,8 +17714,11 @@
       <c r="C332" s="3" t="s">
         <v>1974</v>
       </c>
-    </row>
-    <row r="333" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E332" s="3" t="s">
+        <v>3282</v>
+      </c>
+    </row>
+    <row r="333" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
         <v>480</v>
       </c>
@@ -15940,48 +17731,69 @@
       <c r="D333" s="4" t="s">
         <v>2028</v>
       </c>
-    </row>
-    <row r="334" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E333" s="3" t="s">
+        <v>3283</v>
+      </c>
+    </row>
+    <row r="334" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
         <v>482</v>
       </c>
       <c r="C334" s="3" t="s">
         <v>1976</v>
       </c>
-    </row>
-    <row r="335" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E334" s="3" t="s">
+        <v>3284</v>
+      </c>
+    </row>
+    <row r="335" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
         <v>483</v>
       </c>
       <c r="C335" s="3" t="s">
         <v>1977</v>
       </c>
-    </row>
-    <row r="336" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E335" s="3" t="s">
+        <v>3285</v>
+      </c>
+    </row>
+    <row r="336" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
         <v>484</v>
       </c>
       <c r="C336" s="3" t="s">
         <v>1978</v>
       </c>
-    </row>
-    <row r="337" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E336" s="3" t="s">
+        <v>3286</v>
+      </c>
+      <c r="F336" s="4" t="s">
+        <v>3287</v>
+      </c>
+    </row>
+    <row r="337" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
         <v>485</v>
       </c>
       <c r="C337" s="3" t="s">
         <v>1979</v>
       </c>
-    </row>
-    <row r="338" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E337" s="3" t="s">
+        <v>3288</v>
+      </c>
+    </row>
+    <row r="338" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
         <v>486</v>
       </c>
       <c r="C338" s="3" t="s">
         <v>1980</v>
       </c>
-    </row>
-    <row r="339" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E338" s="3" t="s">
+        <v>3289</v>
+      </c>
+    </row>
+    <row r="339" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
         <v>487</v>
       </c>
@@ -15994,16 +17806,22 @@
       <c r="D339" s="4" t="s">
         <v>2029</v>
       </c>
-    </row>
-    <row r="340" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E339" s="3" t="s">
+        <v>3290</v>
+      </c>
+    </row>
+    <row r="340" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
         <v>489</v>
       </c>
       <c r="C340" s="3" t="s">
         <v>1982</v>
       </c>
-    </row>
-    <row r="341" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E340" s="3" t="s">
+        <v>3291</v>
+      </c>
+    </row>
+    <row r="341" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
         <v>490</v>
       </c>
@@ -16016,24 +17834,36 @@
       <c r="D341" s="4" t="s">
         <v>2030</v>
       </c>
-    </row>
-    <row r="342" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E341" s="3" t="s">
+        <v>3292</v>
+      </c>
+    </row>
+    <row r="342" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
         <v>492</v>
       </c>
       <c r="C342" s="3" t="s">
         <v>1984</v>
       </c>
-    </row>
-    <row r="343" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E342" s="3" t="s">
+        <v>3293</v>
+      </c>
+    </row>
+    <row r="343" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
         <v>493</v>
       </c>
       <c r="C343" s="3" t="s">
         <v>1985</v>
       </c>
-    </row>
-    <row r="344" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E343" s="3" t="s">
+        <v>3294</v>
+      </c>
+      <c r="F343" s="4" t="s">
+        <v>3295</v>
+      </c>
+    </row>
+    <row r="344" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
         <v>494</v>
       </c>
@@ -16043,8 +17873,11 @@
       <c r="C344" s="3" t="s">
         <v>1986</v>
       </c>
-    </row>
-    <row r="345" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E344" s="3" t="s">
+        <v>3296</v>
+      </c>
+    </row>
+    <row r="345" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
         <v>496</v>
       </c>
@@ -16057,32 +17890,47 @@
       <c r="D345" s="4" t="s">
         <v>2031</v>
       </c>
-    </row>
-    <row r="346" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E345" s="3" t="s">
+        <v>3297</v>
+      </c>
+      <c r="F345" s="4" t="s">
+        <v>3298</v>
+      </c>
+    </row>
+    <row r="346" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
         <v>498</v>
       </c>
       <c r="C346" s="3" t="s">
         <v>1988</v>
       </c>
-    </row>
-    <row r="347" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E346" s="3" t="s">
+        <v>3299</v>
+      </c>
+    </row>
+    <row r="347" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
         <v>499</v>
       </c>
       <c r="C347" s="3" t="s">
         <v>1989</v>
       </c>
-    </row>
-    <row r="348" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E347" s="3" t="s">
+        <v>3300</v>
+      </c>
+    </row>
+    <row r="348" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
         <v>500</v>
       </c>
       <c r="C348" s="3" t="s">
         <v>1990</v>
       </c>
-    </row>
-    <row r="349" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E348" s="3" t="s">
+        <v>3301</v>
+      </c>
+    </row>
+    <row r="349" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
         <v>501</v>
       </c>
@@ -16092,16 +17940,22 @@
       <c r="C349" s="3" t="s">
         <v>1991</v>
       </c>
-    </row>
-    <row r="350" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E349" s="3" t="s">
+        <v>3302</v>
+      </c>
+    </row>
+    <row r="350" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
         <v>503</v>
       </c>
       <c r="C350" s="3" t="s">
         <v>1992</v>
       </c>
-    </row>
-    <row r="351" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E350" s="3" t="s">
+        <v>3303</v>
+      </c>
+    </row>
+    <row r="351" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
         <v>504</v>
       </c>
@@ -16111,16 +17965,22 @@
       <c r="C351" s="3" t="s">
         <v>1993</v>
       </c>
-    </row>
-    <row r="352" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E351" s="3" t="s">
+        <v>3304</v>
+      </c>
+    </row>
+    <row r="352" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
         <v>506</v>
       </c>
       <c r="C352" s="3" t="s">
         <v>1994</v>
       </c>
-    </row>
-    <row r="353" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E352" s="3" t="s">
+        <v>3305</v>
+      </c>
+    </row>
+    <row r="353" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
         <v>507</v>
       </c>
@@ -16130,24 +17990,33 @@
       <c r="C353" s="3" t="s">
         <v>1995</v>
       </c>
-    </row>
-    <row r="354" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E353" s="3" t="s">
+        <v>3306</v>
+      </c>
+    </row>
+    <row r="354" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
         <v>509</v>
       </c>
       <c r="C354" s="3" t="s">
         <v>1996</v>
       </c>
-    </row>
-    <row r="355" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E354" s="3" t="s">
+        <v>3307</v>
+      </c>
+    </row>
+    <row r="355" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
         <v>510</v>
       </c>
       <c r="C355" s="3" t="s">
         <v>1997</v>
       </c>
-    </row>
-    <row r="356" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E355" s="3" t="s">
+        <v>3308</v>
+      </c>
+    </row>
+    <row r="356" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
         <v>511</v>
       </c>
@@ -16157,8 +18026,11 @@
       <c r="C356" s="3" t="s">
         <v>1998</v>
       </c>
-    </row>
-    <row r="357" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E356" s="3" t="s">
+        <v>3309</v>
+      </c>
+    </row>
+    <row r="357" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
         <v>513</v>
       </c>
@@ -16168,8 +18040,11 @@
       <c r="C357" s="3" t="s">
         <v>1999</v>
       </c>
-    </row>
-    <row r="358" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E357" s="3" t="s">
+        <v>3310</v>
+      </c>
+    </row>
+    <row r="358" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
         <v>515</v>
       </c>
@@ -16182,8 +18057,11 @@
       <c r="D358" s="4" t="s">
         <v>2032</v>
       </c>
-    </row>
-    <row r="359" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E358" s="3" t="s">
+        <v>3311</v>
+      </c>
+    </row>
+    <row r="359" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
         <v>517</v>
       </c>
@@ -16193,16 +18071,22 @@
       <c r="C359" s="3" t="s">
         <v>2001</v>
       </c>
-    </row>
-    <row r="360" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E359" s="3" t="s">
+        <v>3312</v>
+      </c>
+    </row>
+    <row r="360" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
         <v>519</v>
       </c>
       <c r="C360" s="3" t="s">
         <v>2002</v>
       </c>
-    </row>
-    <row r="361" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E360" s="3" t="s">
+        <v>3313</v>
+      </c>
+    </row>
+    <row r="361" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
         <v>511</v>
       </c>
@@ -16212,16 +18096,22 @@
       <c r="C361" s="3" t="s">
         <v>2003</v>
       </c>
-    </row>
-    <row r="362" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E361" s="3" t="s">
+        <v>3314</v>
+      </c>
+    </row>
+    <row r="362" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
         <v>521</v>
       </c>
       <c r="C362" s="3" t="s">
         <v>2004</v>
       </c>
-    </row>
-    <row r="363" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E362" s="3" t="s">
+        <v>3315</v>
+      </c>
+    </row>
+    <row r="363" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
         <v>522</v>
       </c>
@@ -16234,8 +18124,14 @@
       <c r="D363" s="4" t="s">
         <v>2033</v>
       </c>
-    </row>
-    <row r="364" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E363" s="3" t="s">
+        <v>3316</v>
+      </c>
+      <c r="F363" s="4" t="s">
+        <v>3317</v>
+      </c>
+    </row>
+    <row r="364" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
         <v>524</v>
       </c>
@@ -16245,8 +18141,11 @@
       <c r="D364" s="4" t="s">
         <v>2008</v>
       </c>
-    </row>
-    <row r="365" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E364" s="3" t="s">
+        <v>3318</v>
+      </c>
+    </row>
+    <row r="365" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
         <v>511</v>
       </c>
@@ -16256,8 +18155,11 @@
       <c r="C365" s="3" t="s">
         <v>2007</v>
       </c>
-    </row>
-    <row r="366" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E365" s="3" t="s">
+        <v>3319</v>
+      </c>
+    </row>
+    <row r="366" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
         <v>526</v>
       </c>
@@ -16267,8 +18169,11 @@
       <c r="D366" s="4" t="s">
         <v>2034</v>
       </c>
-    </row>
-    <row r="367" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E366" s="3" t="s">
+        <v>3320</v>
+      </c>
+    </row>
+    <row r="367" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
         <v>527</v>
       </c>
@@ -16278,8 +18183,11 @@
       <c r="D367" s="4" t="s">
         <v>2035</v>
       </c>
-    </row>
-    <row r="368" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E367" s="3" t="s">
+        <v>3321</v>
+      </c>
+    </row>
+    <row r="368" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
         <v>528</v>
       </c>
@@ -16289,8 +18197,11 @@
       <c r="D368" s="4" t="s">
         <v>2010</v>
       </c>
-    </row>
-    <row r="369" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E368" s="3" t="s">
+        <v>3322</v>
+      </c>
+    </row>
+    <row r="369" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
         <v>529</v>
       </c>
@@ -16303,8 +18214,11 @@
       <c r="D369" s="4" t="s">
         <v>2036</v>
       </c>
-    </row>
-    <row r="370" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E369" s="3" t="s">
+        <v>3323</v>
+      </c>
+    </row>
+    <row r="370" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
         <v>531</v>
       </c>
@@ -16314,37 +18228,49 @@
       <c r="D370" s="4" t="s">
         <v>2037</v>
       </c>
-    </row>
-    <row r="371" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E370" s="3" t="s">
+        <v>3324</v>
+      </c>
+    </row>
+    <row r="371" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
         <v>532</v>
       </c>
       <c r="C371" s="3" t="s">
         <v>2013</v>
       </c>
-    </row>
-    <row r="372" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E371" s="3" t="s">
+        <v>3325</v>
+      </c>
+    </row>
+    <row r="372" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
         <v>533</v>
       </c>
       <c r="C372" s="3" t="s">
         <v>2014</v>
       </c>
-    </row>
-    <row r="373" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E372" s="3" t="s">
+        <v>3326</v>
+      </c>
+    </row>
+    <row r="373" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
         <v>534</v>
       </c>
       <c r="C373" s="3" t="s">
         <v>2015</v>
       </c>
-    </row>
-    <row r="375" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E373" s="3" t="s">
+        <v>3327</v>
+      </c>
+    </row>
+    <row r="375" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="376" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
         <v>536</v>
       </c>
@@ -16352,7 +18278,7 @@
         <v>2038</v>
       </c>
     </row>
-    <row r="377" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
         <v>537</v>
       </c>
@@ -16360,7 +18286,7 @@
         <v>2039</v>
       </c>
     </row>
-    <row r="378" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
         <v>538</v>
       </c>
@@ -16371,7 +18297,7 @@
         <v>2040</v>
       </c>
     </row>
-    <row r="379" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
         <v>540</v>
       </c>
@@ -16379,7 +18305,7 @@
         <v>2041</v>
       </c>
     </row>
-    <row r="380" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
         <v>541</v>
       </c>
@@ -16393,7 +18319,7 @@
         <v>2146</v>
       </c>
     </row>
-    <row r="381" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A381" t="s">
         <v>543</v>
       </c>
@@ -16401,7 +18327,7 @@
         <v>2043</v>
       </c>
     </row>
-    <row r="382" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
         <v>544</v>
       </c>
@@ -16409,7 +18335,7 @@
         <v>2044</v>
       </c>
     </row>
-    <row r="383" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
         <v>545</v>
       </c>
@@ -16417,7 +18343,7 @@
         <v>2045</v>
       </c>
     </row>
-    <row r="384" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
         <v>546</v>
       </c>

--- a/WangLu-C3.xlsx
+++ b/WangLu-C3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\LearningforIELTS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9B8F697-684D-4984-9C7F-513D6C550C05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C990E50F-CC79-4882-9A26-32A8B1EEF91F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10230" yWindow="90" windowWidth="18480" windowHeight="15495" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6465" yWindow="0" windowWidth="18480" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3655" uniqueCount="3328">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3780" uniqueCount="3451">
   <si>
     <t>Test1</t>
   </si>
@@ -12443,6 +12443,498 @@
   </si>
   <si>
     <t>factory</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>faculty</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>failure</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>falkon</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>falcon</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>fan</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>fare</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>farm</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>farmer</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>farming</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>fashion</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>fat</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>feast</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>feather</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>feature</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>feedback</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>fellowship</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>famale</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ferries</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>festival</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>field</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>figure</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>film</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>finding</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>finger</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>firm</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>firms</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>fish</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>fishing</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>flag</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>flash</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>flat</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>flight</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>flide</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>flood</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>flower</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>flooding</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>flour</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>flourish</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>flow</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>flu</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>fly</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>fur</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>forest</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>forestry</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>form</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>formula</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>fortnight</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>fortune</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>foyer</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>freedom</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>freezer</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>freshman</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>fruit</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>furniture</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>future</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>galary</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>gallery</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>gap</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>garage</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>gabage</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>garbage</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>gardon</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>garceling</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>gasoline</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>gender</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>germ</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>gesture</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>glass</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>goal</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>gold</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>golf</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>grade</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>grades</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>graduate</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>graduates</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>green</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>grain</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>grass</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ground</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>group</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>growth</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>guest</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>guide</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>gulf</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>guy</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>gym</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>habbit</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>hand</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>handball</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>handbooks</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>handout</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>hass</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>hat</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>headache</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>heading</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>handling</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>health</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>hairing</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>hearing</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>hot</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>heart</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>heating</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>hen</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>herb</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>hero</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>heroes</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>heroin</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>heroine</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>hike</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>hiking</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>hint</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>hints</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>historian</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>hit</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>hits</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>hobbies</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>holiday</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>horse</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>hospital</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>housework</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>housing</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>households</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>hour</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -12810,8 +13302,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H1152"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A357" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E373" sqref="E373"/>
+    <sheetView tabSelected="1" topLeftCell="A476" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E490" sqref="E490"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -18201,7 +18693,7 @@
         <v>3322</v>
       </c>
     </row>
-    <row r="369" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
         <v>529</v>
       </c>
@@ -18218,7 +18710,7 @@
         <v>3323</v>
       </c>
     </row>
-    <row r="370" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
         <v>531</v>
       </c>
@@ -18232,7 +18724,7 @@
         <v>3324</v>
       </c>
     </row>
-    <row r="371" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
         <v>532</v>
       </c>
@@ -18243,7 +18735,7 @@
         <v>3325</v>
       </c>
     </row>
-    <row r="372" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
         <v>533</v>
       </c>
@@ -18254,7 +18746,7 @@
         <v>3326</v>
       </c>
     </row>
-    <row r="373" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
         <v>534</v>
       </c>
@@ -18265,28 +18757,34 @@
         <v>3327</v>
       </c>
     </row>
-    <row r="375" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="376" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
         <v>536</v>
       </c>
       <c r="C376" s="3" t="s">
         <v>2038</v>
       </c>
-    </row>
-    <row r="377" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E376" s="3" t="s">
+        <v>3328</v>
+      </c>
+    </row>
+    <row r="377" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
         <v>537</v>
       </c>
       <c r="C377" s="3" t="s">
         <v>2039</v>
       </c>
-    </row>
-    <row r="378" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E377" s="3" t="s">
+        <v>3329</v>
+      </c>
+    </row>
+    <row r="378" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
         <v>538</v>
       </c>
@@ -18296,16 +18794,25 @@
       <c r="C378" s="3" t="s">
         <v>2040</v>
       </c>
-    </row>
-    <row r="379" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E378" s="3" t="s">
+        <v>3330</v>
+      </c>
+      <c r="F378" s="4" t="s">
+        <v>3331</v>
+      </c>
+    </row>
+    <row r="379" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
         <v>540</v>
       </c>
       <c r="C379" s="3" t="s">
         <v>2041</v>
       </c>
-    </row>
-    <row r="380" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E379" s="3" t="s">
+        <v>3332</v>
+      </c>
+    </row>
+    <row r="380" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
         <v>541</v>
       </c>
@@ -18318,40 +18825,55 @@
       <c r="D380" s="4" t="s">
         <v>2146</v>
       </c>
-    </row>
-    <row r="381" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E380" s="3" t="s">
+        <v>3333</v>
+      </c>
+    </row>
+    <row r="381" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A381" t="s">
         <v>543</v>
       </c>
       <c r="C381" s="3" t="s">
         <v>2043</v>
       </c>
-    </row>
-    <row r="382" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E381" s="3" t="s">
+        <v>3334</v>
+      </c>
+    </row>
+    <row r="382" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
         <v>544</v>
       </c>
       <c r="C382" s="3" t="s">
         <v>2044</v>
       </c>
-    </row>
-    <row r="383" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E382" s="3" t="s">
+        <v>3335</v>
+      </c>
+    </row>
+    <row r="383" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
         <v>545</v>
       </c>
       <c r="C383" s="3" t="s">
         <v>2045</v>
       </c>
-    </row>
-    <row r="384" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E383" s="3" t="s">
+        <v>3336</v>
+      </c>
+    </row>
+    <row r="384" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
         <v>546</v>
       </c>
       <c r="C384" s="3" t="s">
         <v>2046</v>
       </c>
-    </row>
-    <row r="385" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E384" s="3" t="s">
+        <v>3337</v>
+      </c>
+    </row>
+    <row r="385" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
         <v>547</v>
       </c>
@@ -18361,8 +18883,11 @@
       <c r="C385" s="3" t="s">
         <v>2047</v>
       </c>
-    </row>
-    <row r="386" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E385" s="3" t="s">
+        <v>3338</v>
+      </c>
+    </row>
+    <row r="386" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A386" t="s">
         <v>549</v>
       </c>
@@ -18375,8 +18900,11 @@
       <c r="D386" s="4" t="s">
         <v>2147</v>
       </c>
-    </row>
-    <row r="387" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E386" s="3" t="s">
+        <v>3339</v>
+      </c>
+    </row>
+    <row r="387" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A387" t="s">
         <v>551</v>
       </c>
@@ -18386,24 +18914,33 @@
       <c r="C387" s="3" t="s">
         <v>2049</v>
       </c>
-    </row>
-    <row r="388" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E387" s="3" t="s">
+        <v>3340</v>
+      </c>
+    </row>
+    <row r="388" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A388" t="s">
         <v>553</v>
       </c>
       <c r="C388" s="3" t="s">
         <v>2050</v>
       </c>
-    </row>
-    <row r="389" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E388" s="3" t="s">
+        <v>3341</v>
+      </c>
+    </row>
+    <row r="389" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A389" t="s">
         <v>554</v>
       </c>
       <c r="C389" s="3" t="s">
         <v>2051</v>
       </c>
-    </row>
-    <row r="390" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E389" s="3" t="s">
+        <v>3342</v>
+      </c>
+    </row>
+    <row r="390" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A390" t="s">
         <v>555</v>
       </c>
@@ -18413,16 +18950,22 @@
       <c r="D390" s="4" t="s">
         <v>2148</v>
       </c>
-    </row>
-    <row r="391" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E390" s="3" t="s">
+        <v>3343</v>
+      </c>
+    </row>
+    <row r="391" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A391" t="s">
         <v>556</v>
       </c>
       <c r="C391" s="3" t="s">
         <v>2053</v>
       </c>
-    </row>
-    <row r="392" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E391" s="3" t="s">
+        <v>3344</v>
+      </c>
+    </row>
+    <row r="392" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A392" t="s">
         <v>557</v>
       </c>
@@ -18435,16 +18978,22 @@
       <c r="D392" s="4" t="s">
         <v>2149</v>
       </c>
-    </row>
-    <row r="393" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E392" s="3" t="s">
+        <v>3345</v>
+      </c>
+    </row>
+    <row r="393" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A393" t="s">
         <v>559</v>
       </c>
       <c r="C393" s="3" t="s">
         <v>2055</v>
       </c>
-    </row>
-    <row r="394" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E393" s="3" t="s">
+        <v>3346</v>
+      </c>
+    </row>
+    <row r="394" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A394" t="s">
         <v>560</v>
       </c>
@@ -18454,40 +19003,55 @@
       <c r="C394" s="3" t="s">
         <v>2056</v>
       </c>
-    </row>
-    <row r="395" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E394" s="3" t="s">
+        <v>3347</v>
+      </c>
+    </row>
+    <row r="395" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B395" s="1" t="s">
         <v>562</v>
       </c>
       <c r="C395" s="3" t="s">
         <v>2057</v>
       </c>
-    </row>
-    <row r="396" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E395" s="3" t="s">
+        <v>3348</v>
+      </c>
+    </row>
+    <row r="396" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A396" t="s">
         <v>563</v>
       </c>
       <c r="C396" s="3" t="s">
         <v>2058</v>
       </c>
-    </row>
-    <row r="397" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E396" s="3" t="s">
+        <v>3349</v>
+      </c>
+    </row>
+    <row r="397" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A397" t="s">
         <v>564</v>
       </c>
       <c r="C397" s="3" t="s">
         <v>2059</v>
       </c>
-    </row>
-    <row r="398" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E397" s="3" t="s">
+        <v>3350</v>
+      </c>
+    </row>
+    <row r="398" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A398" t="s">
         <v>565</v>
       </c>
       <c r="C398" s="3" t="s">
         <v>2060</v>
       </c>
-    </row>
-    <row r="399" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E398" s="3" t="s">
+        <v>3351</v>
+      </c>
+    </row>
+    <row r="399" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A399" t="s">
         <v>566</v>
       </c>
@@ -18500,40 +19064,58 @@
       <c r="D399" s="4" t="s">
         <v>2150</v>
       </c>
-    </row>
-    <row r="400" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E399" s="3" t="s">
+        <v>3352</v>
+      </c>
+      <c r="F399" s="4" t="s">
+        <v>3353</v>
+      </c>
+    </row>
+    <row r="400" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A400" t="s">
         <v>568</v>
       </c>
       <c r="C400" s="3" t="s">
         <v>2061</v>
       </c>
-    </row>
-    <row r="401" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E400" s="3" t="s">
+        <v>3354</v>
+      </c>
+    </row>
+    <row r="401" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A401" t="s">
         <v>569</v>
       </c>
       <c r="C401" s="3" t="s">
         <v>2062</v>
       </c>
-    </row>
-    <row r="402" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E401" s="3" t="s">
+        <v>3355</v>
+      </c>
+    </row>
+    <row r="402" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A402" t="s">
         <v>570</v>
       </c>
       <c r="C402" s="3" t="s">
         <v>2063</v>
       </c>
-    </row>
-    <row r="403" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E402" s="3" t="s">
+        <v>3356</v>
+      </c>
+    </row>
+    <row r="403" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A403" t="s">
         <v>571</v>
       </c>
       <c r="C403" s="3" t="s">
         <v>2064</v>
       </c>
-    </row>
-    <row r="404" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E403" s="3" t="s">
+        <v>3357</v>
+      </c>
+    </row>
+    <row r="404" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A404" t="s">
         <v>572</v>
       </c>
@@ -18546,16 +19128,22 @@
       <c r="D404" s="4" t="s">
         <v>2151</v>
       </c>
-    </row>
-    <row r="405" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E404" s="3" t="s">
+        <v>3358</v>
+      </c>
+    </row>
+    <row r="405" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A405" t="s">
         <v>574</v>
       </c>
       <c r="C405" s="3" t="s">
         <v>2066</v>
       </c>
-    </row>
-    <row r="406" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E405" s="3" t="s">
+        <v>3359</v>
+      </c>
+    </row>
+    <row r="406" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A406" t="s">
         <v>575</v>
       </c>
@@ -18565,8 +19153,14 @@
       <c r="C406" s="3" t="s">
         <v>2067</v>
       </c>
-    </row>
-    <row r="407" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E406" s="3" t="s">
+        <v>3360</v>
+      </c>
+      <c r="F406" s="4" t="s">
+        <v>3361</v>
+      </c>
+    </row>
+    <row r="407" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A407" t="s">
         <v>577</v>
       </c>
@@ -18576,8 +19170,11 @@
       <c r="C407" s="3" t="s">
         <v>2068</v>
       </c>
-    </row>
-    <row r="408" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E407" s="3" t="s">
+        <v>3363</v>
+      </c>
+    </row>
+    <row r="408" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A408" t="s">
         <v>579</v>
       </c>
@@ -18590,8 +19187,14 @@
       <c r="D408" s="4" t="s">
         <v>2152</v>
       </c>
-    </row>
-    <row r="409" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E408" s="3" t="s">
+        <v>3362</v>
+      </c>
+      <c r="F408" s="4" t="s">
+        <v>3364</v>
+      </c>
+    </row>
+    <row r="409" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A409" t="s">
         <v>581</v>
       </c>
@@ -18601,16 +19204,22 @@
       <c r="C409" s="3" t="s">
         <v>2070</v>
       </c>
-    </row>
-    <row r="410" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E409" s="3" t="s">
+        <v>3365</v>
+      </c>
+    </row>
+    <row r="410" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A410" t="s">
         <v>583</v>
       </c>
       <c r="C410" s="3" t="s">
         <v>2071</v>
       </c>
-    </row>
-    <row r="411" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E410" s="3" t="s">
+        <v>3366</v>
+      </c>
+    </row>
+    <row r="411" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A411" t="s">
         <v>584</v>
       </c>
@@ -18620,24 +19229,36 @@
       <c r="C411" s="3" t="s">
         <v>2072</v>
       </c>
-    </row>
-    <row r="412" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E411" s="3" t="s">
+        <v>3367</v>
+      </c>
+    </row>
+    <row r="412" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A412" t="s">
         <v>586</v>
       </c>
       <c r="C412" s="3" t="s">
         <v>2073</v>
       </c>
-    </row>
-    <row r="413" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E412" s="3" t="s">
+        <v>3368</v>
+      </c>
+    </row>
+    <row r="413" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B413" s="1" t="s">
         <v>587</v>
       </c>
       <c r="C413" s="3" t="s">
         <v>2074</v>
       </c>
-    </row>
-    <row r="414" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E413" s="3" t="s">
+        <v>3369</v>
+      </c>
+      <c r="F413" s="4" t="s">
+        <v>3370</v>
+      </c>
+    </row>
+    <row r="414" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A414" t="s">
         <v>588</v>
       </c>
@@ -18647,16 +19268,22 @@
       <c r="C414" s="3" t="s">
         <v>2075</v>
       </c>
-    </row>
-    <row r="415" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E414" s="3" t="s">
+        <v>3371</v>
+      </c>
+    </row>
+    <row r="415" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A415" t="s">
         <v>590</v>
       </c>
       <c r="C415" s="3" t="s">
         <v>2076</v>
       </c>
-    </row>
-    <row r="416" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E415" s="3" t="s">
+        <v>3372</v>
+      </c>
+    </row>
+    <row r="416" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A416" t="s">
         <v>591</v>
       </c>
@@ -18666,24 +19293,33 @@
       <c r="C416" s="3" t="s">
         <v>2077</v>
       </c>
-    </row>
-    <row r="417" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E416" s="3" t="s">
+        <v>3373</v>
+      </c>
+    </row>
+    <row r="417" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A417" t="s">
         <v>593</v>
       </c>
       <c r="C417" s="3" t="s">
         <v>2078</v>
       </c>
-    </row>
-    <row r="418" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E417" s="3" t="s">
+        <v>3374</v>
+      </c>
+    </row>
+    <row r="418" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A418" t="s">
         <v>594</v>
       </c>
       <c r="C418" s="3" t="s">
         <v>2079</v>
       </c>
-    </row>
-    <row r="419" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E418" s="3" t="s">
+        <v>3375</v>
+      </c>
+    </row>
+    <row r="419" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A419" t="s">
         <v>595</v>
       </c>
@@ -18696,8 +19332,11 @@
       <c r="D419" s="4" t="s">
         <v>2153</v>
       </c>
-    </row>
-    <row r="420" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E419" s="3" t="s">
+        <v>3376</v>
+      </c>
+    </row>
+    <row r="420" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A420" t="s">
         <v>597</v>
       </c>
@@ -18707,8 +19346,11 @@
       <c r="C420" s="3" t="s">
         <v>2081</v>
       </c>
-    </row>
-    <row r="421" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E420" s="3" t="s">
+        <v>3377</v>
+      </c>
+    </row>
+    <row r="421" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A421" t="s">
         <v>599</v>
       </c>
@@ -18718,8 +19360,11 @@
       <c r="C421" s="3" t="s">
         <v>2082</v>
       </c>
-    </row>
-    <row r="422" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E421" s="3" t="s">
+        <v>3378</v>
+      </c>
+    </row>
+    <row r="422" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A422" t="s">
         <v>601</v>
       </c>
@@ -18732,40 +19377,55 @@
       <c r="D422" s="4" t="s">
         <v>2154</v>
       </c>
-    </row>
-    <row r="423" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E422" s="3" t="s">
+        <v>3379</v>
+      </c>
+    </row>
+    <row r="423" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A423" t="s">
         <v>603</v>
       </c>
       <c r="C423" s="3" t="s">
         <v>2084</v>
       </c>
-    </row>
-    <row r="424" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E423" s="3" t="s">
+        <v>3380</v>
+      </c>
+    </row>
+    <row r="424" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A424" t="s">
         <v>604</v>
       </c>
       <c r="C424" s="3" t="s">
         <v>2085</v>
       </c>
-    </row>
-    <row r="425" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E424" s="3" t="s">
+        <v>3369</v>
+      </c>
+    </row>
+    <row r="425" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A425" t="s">
         <v>605</v>
       </c>
       <c r="C425" s="3" t="s">
         <v>2086</v>
       </c>
-    </row>
-    <row r="426" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E425" s="3" t="s">
+        <v>3381</v>
+      </c>
+    </row>
+    <row r="426" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A426" t="s">
         <v>606</v>
       </c>
       <c r="C426" s="3" t="s">
         <v>2087</v>
       </c>
-    </row>
-    <row r="427" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E426" s="3" t="s">
+        <v>3382</v>
+      </c>
+    </row>
+    <row r="427" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A427" t="s">
         <v>607</v>
       </c>
@@ -18775,24 +19435,36 @@
       <c r="D427" s="4" t="s">
         <v>2155</v>
       </c>
-    </row>
-    <row r="428" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E427" s="3" t="s">
+        <v>3383</v>
+      </c>
+      <c r="F427" s="4" t="s">
+        <v>3384</v>
+      </c>
+    </row>
+    <row r="428" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A428" t="s">
         <v>608</v>
       </c>
       <c r="C428" s="3" t="s">
         <v>2089</v>
       </c>
-    </row>
-    <row r="429" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E428" s="3" t="s">
+        <v>3385</v>
+      </c>
+    </row>
+    <row r="429" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A429" t="s">
         <v>609</v>
       </c>
       <c r="C429" s="3" t="s">
         <v>2090</v>
       </c>
-    </row>
-    <row r="430" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E429" s="3" t="s">
+        <v>3386</v>
+      </c>
+    </row>
+    <row r="430" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A430" t="s">
         <v>610</v>
       </c>
@@ -18802,16 +19474,25 @@
       <c r="D430" s="4" t="s">
         <v>2156</v>
       </c>
-    </row>
-    <row r="431" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E430" s="3" t="s">
+        <v>3387</v>
+      </c>
+      <c r="F430" s="4" t="s">
+        <v>3388</v>
+      </c>
+    </row>
+    <row r="431" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A431" t="s">
         <v>611</v>
       </c>
       <c r="C431" s="3" t="s">
         <v>2092</v>
       </c>
-    </row>
-    <row r="432" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E431" s="3" t="s">
+        <v>3389</v>
+      </c>
+    </row>
+    <row r="432" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A432" t="s">
         <v>612</v>
       </c>
@@ -18821,16 +19502,25 @@
       <c r="C432" s="3" t="s">
         <v>2093</v>
       </c>
-    </row>
-    <row r="433" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E432" s="3" t="s">
+        <v>3390</v>
+      </c>
+      <c r="F432" s="4" t="s">
+        <v>3391</v>
+      </c>
+    </row>
+    <row r="433" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A433" t="s">
         <v>614</v>
       </c>
       <c r="C433" s="3" t="s">
         <v>2094</v>
       </c>
-    </row>
-    <row r="434" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E433" s="3" t="s">
+        <v>3392</v>
+      </c>
+    </row>
+    <row r="434" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A434" t="s">
         <v>615</v>
       </c>
@@ -18840,8 +19530,11 @@
       <c r="C434" s="3" t="s">
         <v>2095</v>
       </c>
-    </row>
-    <row r="435" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E434" s="3" t="s">
+        <v>3393</v>
+      </c>
+    </row>
+    <row r="435" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A435" t="s">
         <v>617</v>
       </c>
@@ -18851,24 +19544,33 @@
       <c r="C435" s="3" t="s">
         <v>2096</v>
       </c>
-    </row>
-    <row r="436" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E435" s="3" t="s">
+        <v>3394</v>
+      </c>
+    </row>
+    <row r="436" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A436" t="s">
         <v>618</v>
       </c>
       <c r="C436" s="3" t="s">
         <v>2097</v>
       </c>
-    </row>
-    <row r="437" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E436" s="3" t="s">
+        <v>3395</v>
+      </c>
+    </row>
+    <row r="437" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A437" t="s">
         <v>619</v>
       </c>
       <c r="C437" s="3" t="s">
         <v>2098</v>
       </c>
-    </row>
-    <row r="438" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E437" s="3" t="s">
+        <v>3396</v>
+      </c>
+    </row>
+    <row r="438" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A438" t="s">
         <v>620</v>
       </c>
@@ -18878,16 +19580,22 @@
       <c r="C438" s="3" t="s">
         <v>2099</v>
       </c>
-    </row>
-    <row r="439" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E438" s="3" t="s">
+        <v>3397</v>
+      </c>
+    </row>
+    <row r="439" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A439" t="s">
         <v>622</v>
       </c>
       <c r="C439" s="3" t="s">
         <v>2100</v>
       </c>
-    </row>
-    <row r="440" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E439" s="3" t="s">
+        <v>3398</v>
+      </c>
+    </row>
+    <row r="440" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A440" t="s">
         <v>623</v>
       </c>
@@ -18897,8 +19605,11 @@
       <c r="C440" s="3" t="s">
         <v>2101</v>
       </c>
-    </row>
-    <row r="441" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E440" s="3" t="s">
+        <v>3399</v>
+      </c>
+    </row>
+    <row r="441" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A441" t="s">
         <v>625</v>
       </c>
@@ -18908,16 +19619,22 @@
       <c r="C441" s="3" t="s">
         <v>2102</v>
       </c>
-    </row>
-    <row r="442" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E441" s="3" t="s">
+        <v>3400</v>
+      </c>
+    </row>
+    <row r="442" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A442" t="s">
         <v>627</v>
       </c>
       <c r="C442" s="3" t="s">
         <v>2103</v>
       </c>
-    </row>
-    <row r="443" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E442" s="3" t="s">
+        <v>3401</v>
+      </c>
+    </row>
+    <row r="443" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A443" t="s">
         <v>627</v>
       </c>
@@ -18927,8 +19644,11 @@
       <c r="C443" s="3" t="s">
         <v>2104</v>
       </c>
-    </row>
-    <row r="444" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E443" s="3" t="s">
+        <v>3402</v>
+      </c>
+    </row>
+    <row r="444" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A444" t="s">
         <v>629</v>
       </c>
@@ -18938,8 +19658,14 @@
       <c r="C444" s="3" t="s">
         <v>2105</v>
       </c>
-    </row>
-    <row r="445" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E444" s="3" t="s">
+        <v>3403</v>
+      </c>
+      <c r="F444" s="4" t="s">
+        <v>3404</v>
+      </c>
+    </row>
+    <row r="445" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A445" t="s">
         <v>631</v>
       </c>
@@ -18949,24 +19675,33 @@
       <c r="C445" s="3" t="s">
         <v>2106</v>
       </c>
-    </row>
-    <row r="446" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E445" s="3" t="s">
+        <v>3405</v>
+      </c>
+    </row>
+    <row r="446" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A446" t="s">
         <v>629</v>
       </c>
       <c r="C446" s="3" t="s">
         <v>2107</v>
       </c>
-    </row>
-    <row r="447" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E446" s="3" t="s">
+        <v>3403</v>
+      </c>
+    </row>
+    <row r="447" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A447" t="s">
         <v>633</v>
       </c>
       <c r="C447" s="3" t="s">
         <v>2108</v>
       </c>
-    </row>
-    <row r="448" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E447" s="3" t="s">
+        <v>3406</v>
+      </c>
+    </row>
+    <row r="448" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A448" t="s">
         <v>634</v>
       </c>
@@ -18976,8 +19711,11 @@
       <c r="C448" s="3" t="s">
         <v>2109</v>
       </c>
-    </row>
-    <row r="449" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E448" s="3" t="s">
+        <v>3407</v>
+      </c>
+    </row>
+    <row r="449" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A449" t="s">
         <v>636</v>
       </c>
@@ -18987,8 +19725,11 @@
       <c r="C449" s="3" t="s">
         <v>2110</v>
       </c>
-    </row>
-    <row r="450" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E449" s="3" t="s">
+        <v>3408</v>
+      </c>
+    </row>
+    <row r="450" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A450" t="s">
         <v>638</v>
       </c>
@@ -19001,8 +19742,11 @@
       <c r="D450" s="4" t="s">
         <v>2157</v>
       </c>
-    </row>
-    <row r="451" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E450" s="3" t="s">
+        <v>3409</v>
+      </c>
+    </row>
+    <row r="451" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A451" t="s">
         <v>640</v>
       </c>
@@ -19012,8 +19756,11 @@
       <c r="C451" s="3" t="s">
         <v>2112</v>
       </c>
-    </row>
-    <row r="452" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E451" s="3" t="s">
+        <v>3410</v>
+      </c>
+    </row>
+    <row r="452" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A452" t="s">
         <v>622</v>
       </c>
@@ -19026,24 +19773,33 @@
       <c r="D452" s="4" t="s">
         <v>2158</v>
       </c>
-    </row>
-    <row r="453" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E452" s="3" t="s">
+        <v>3411</v>
+      </c>
+    </row>
+    <row r="453" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A453" t="s">
         <v>640</v>
       </c>
       <c r="C453" s="3" t="s">
         <v>2113</v>
       </c>
-    </row>
-    <row r="454" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E453" s="3" t="s">
+        <v>3412</v>
+      </c>
+    </row>
+    <row r="454" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A454" t="s">
         <v>643</v>
       </c>
       <c r="C454" s="3" t="s">
         <v>2114</v>
       </c>
-    </row>
-    <row r="455" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E454" s="3" t="s">
+        <v>3413</v>
+      </c>
+    </row>
+    <row r="455" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A455" t="s">
         <v>644</v>
       </c>
@@ -19056,16 +19812,22 @@
       <c r="D455" s="4" t="s">
         <v>2159</v>
       </c>
-    </row>
-    <row r="456" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E455" s="3" t="s">
+        <v>3414</v>
+      </c>
+    </row>
+    <row r="456" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A456" t="s">
         <v>646</v>
       </c>
       <c r="C456" s="3" t="s">
         <v>2116</v>
       </c>
-    </row>
-    <row r="457" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E456" s="3" t="s">
+        <v>3415</v>
+      </c>
+    </row>
+    <row r="457" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A457" t="s">
         <v>647</v>
       </c>
@@ -19075,8 +19837,11 @@
       <c r="C457" s="3" t="s">
         <v>2117</v>
       </c>
-    </row>
-    <row r="458" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E457" s="3" t="s">
+        <v>3416</v>
+      </c>
+    </row>
+    <row r="458" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A458" t="s">
         <v>646</v>
       </c>
@@ -19089,8 +19854,11 @@
       <c r="D458" s="4" t="s">
         <v>2160</v>
       </c>
-    </row>
-    <row r="459" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E458" s="3" t="s">
+        <v>3417</v>
+      </c>
+    </row>
+    <row r="459" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A459" t="s">
         <v>650</v>
       </c>
@@ -19100,8 +19868,11 @@
       <c r="C459" s="3" t="s">
         <v>2119</v>
       </c>
-    </row>
-    <row r="460" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E459" s="3" t="s">
+        <v>3423</v>
+      </c>
+    </row>
+    <row r="460" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A460" t="s">
         <v>652</v>
       </c>
@@ -19111,8 +19882,11 @@
       <c r="C460" s="3" t="s">
         <v>2118</v>
       </c>
-    </row>
-    <row r="461" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E460" s="3" t="s">
+        <v>3418</v>
+      </c>
+    </row>
+    <row r="461" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A461" t="s">
         <v>654</v>
       </c>
@@ -19122,8 +19896,14 @@
       <c r="C461" s="3" t="s">
         <v>2120</v>
       </c>
-    </row>
-    <row r="462" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E461" s="3" t="s">
+        <v>3419</v>
+      </c>
+      <c r="F461" s="4" t="s">
+        <v>3420</v>
+      </c>
+    </row>
+    <row r="462" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A462" t="s">
         <v>656</v>
       </c>
@@ -19133,16 +19913,22 @@
       <c r="C462" s="3" t="s">
         <v>2121</v>
       </c>
-    </row>
-    <row r="463" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E462" s="3" t="s">
+        <v>3421</v>
+      </c>
+    </row>
+    <row r="463" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A463" t="s">
         <v>657</v>
       </c>
       <c r="C463" s="3" t="s">
         <v>2122</v>
       </c>
-    </row>
-    <row r="464" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E463" s="3" t="s">
+        <v>3422</v>
+      </c>
+    </row>
+    <row r="464" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A464" t="s">
         <v>658</v>
       </c>
@@ -19155,8 +19941,11 @@
       <c r="D464" s="4" t="s">
         <v>2161</v>
       </c>
-    </row>
-    <row r="465" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E464" s="3" t="s">
+        <v>3424</v>
+      </c>
+    </row>
+    <row r="465" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A465" t="s">
         <v>660</v>
       </c>
@@ -19166,8 +19955,14 @@
       <c r="C465" s="3" t="s">
         <v>2124</v>
       </c>
-    </row>
-    <row r="466" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E465" s="3" t="s">
+        <v>3425</v>
+      </c>
+      <c r="F465" s="4" t="s">
+        <v>3426</v>
+      </c>
+    </row>
+    <row r="466" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A466" t="s">
         <v>662</v>
       </c>
@@ -19177,8 +19972,14 @@
       <c r="C466" s="3" t="s">
         <v>2125</v>
       </c>
-    </row>
-    <row r="467" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E466" s="3" t="s">
+        <v>3427</v>
+      </c>
+      <c r="F466" s="4" t="s">
+        <v>3428</v>
+      </c>
+    </row>
+    <row r="467" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A467" t="s">
         <v>664</v>
       </c>
@@ -19188,8 +19989,11 @@
       <c r="C467" s="3" t="s">
         <v>2126</v>
       </c>
-    </row>
-    <row r="468" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E467" s="3" t="s">
+        <v>3429</v>
+      </c>
+    </row>
+    <row r="468" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A468" t="s">
         <v>666</v>
       </c>
@@ -19202,8 +20006,11 @@
       <c r="D468" s="4" t="s">
         <v>2162</v>
       </c>
-    </row>
-    <row r="469" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E468" s="3" t="s">
+        <v>3430</v>
+      </c>
+    </row>
+    <row r="469" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A469" t="s">
         <v>663</v>
       </c>
@@ -19216,8 +20023,11 @@
       <c r="D469" s="4" t="s">
         <v>2163</v>
       </c>
-    </row>
-    <row r="470" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E469" s="3" t="s">
+        <v>3431</v>
+      </c>
+    </row>
+    <row r="470" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A470" t="s">
         <v>668</v>
       </c>
@@ -19227,8 +20037,11 @@
       <c r="C470" s="3" t="s">
         <v>2128</v>
       </c>
-    </row>
-    <row r="471" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E470" s="3" t="s">
+        <v>3432</v>
+      </c>
+    </row>
+    <row r="471" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A471" t="s">
         <v>669</v>
       </c>
@@ -19238,16 +20051,25 @@
       <c r="C471" s="3" t="s">
         <v>2129</v>
       </c>
-    </row>
-    <row r="472" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E471" s="3" t="s">
+        <v>3433</v>
+      </c>
+    </row>
+    <row r="472" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A472" t="s">
         <v>671</v>
       </c>
       <c r="C472" s="3" t="s">
         <v>2130</v>
       </c>
-    </row>
-    <row r="473" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E472" s="3" t="s">
+        <v>3434</v>
+      </c>
+      <c r="F472" s="4" t="s">
+        <v>3435</v>
+      </c>
+    </row>
+    <row r="473" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A473" t="s">
         <v>672</v>
       </c>
@@ -19257,16 +20079,22 @@
       <c r="C473" s="3" t="s">
         <v>2131</v>
       </c>
-    </row>
-    <row r="474" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E473" s="3" t="s">
+        <v>3436</v>
+      </c>
+    </row>
+    <row r="474" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A474" t="s">
         <v>674</v>
       </c>
       <c r="C474" s="3" t="s">
         <v>2132</v>
       </c>
-    </row>
-    <row r="475" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E474" s="3" t="s">
+        <v>3437</v>
+      </c>
+    </row>
+    <row r="475" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A475" t="s">
         <v>675</v>
       </c>
@@ -19276,8 +20104,11 @@
       <c r="C475" s="3" t="s">
         <v>2133</v>
       </c>
-    </row>
-    <row r="476" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E475" s="3" t="s">
+        <v>3438</v>
+      </c>
+    </row>
+    <row r="476" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A476" t="s">
         <v>675</v>
       </c>
@@ -19287,8 +20118,11 @@
       <c r="C476" s="3" t="s">
         <v>2134</v>
       </c>
-    </row>
-    <row r="477" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E476" s="3" t="s">
+        <v>3439</v>
+      </c>
+    </row>
+    <row r="477" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A477" t="s">
         <v>678</v>
       </c>
@@ -19301,8 +20135,11 @@
       <c r="D477" s="4" t="s">
         <v>2164</v>
       </c>
-    </row>
-    <row r="478" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E477" s="3" t="s">
+        <v>3440</v>
+      </c>
+    </row>
+    <row r="478" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A478" t="s">
         <v>680</v>
       </c>
@@ -19312,8 +20149,11 @@
       <c r="C478" s="3" t="s">
         <v>2136</v>
       </c>
-    </row>
-    <row r="479" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E478" s="3" t="s">
+        <v>3441</v>
+      </c>
+    </row>
+    <row r="479" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A479" t="s">
         <v>682</v>
       </c>
@@ -19323,8 +20163,11 @@
       <c r="C479" s="3" t="s">
         <v>2137</v>
       </c>
-    </row>
-    <row r="480" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E479" s="3" t="s">
+        <v>3442</v>
+      </c>
+    </row>
+    <row r="480" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A480" t="s">
         <v>684</v>
       </c>
@@ -19334,8 +20177,11 @@
       <c r="C480" s="3" t="s">
         <v>2138</v>
       </c>
-    </row>
-    <row r="481" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E480" s="3" t="s">
+        <v>3443</v>
+      </c>
+    </row>
+    <row r="481" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A481" t="s">
         <v>685</v>
       </c>
@@ -19345,8 +20191,11 @@
       <c r="C481" s="3" t="s">
         <v>2139</v>
       </c>
-    </row>
-    <row r="482" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E481" s="3" t="s">
+        <v>3444</v>
+      </c>
+    </row>
+    <row r="482" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A482" t="s">
         <v>686</v>
       </c>
@@ -19359,32 +20208,44 @@
       <c r="D482" s="4" t="s">
         <v>2165</v>
       </c>
-    </row>
-    <row r="483" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E482" s="3" t="s">
+        <v>3445</v>
+      </c>
+    </row>
+    <row r="483" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A483" t="s">
         <v>688</v>
       </c>
       <c r="C483" s="3" t="s">
         <v>2141</v>
       </c>
-    </row>
-    <row r="484" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E483" s="3" t="s">
+        <v>3446</v>
+      </c>
+    </row>
+    <row r="484" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A484" t="s">
         <v>689</v>
       </c>
       <c r="C484" s="3" t="s">
         <v>2142</v>
       </c>
-    </row>
-    <row r="485" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E484" s="3" t="s">
+        <v>3447</v>
+      </c>
+    </row>
+    <row r="485" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A485" t="s">
         <v>690</v>
       </c>
       <c r="C485" s="3" t="s">
         <v>2143</v>
       </c>
-    </row>
-    <row r="486" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E485" s="3" t="s">
+        <v>3448</v>
+      </c>
+    </row>
+    <row r="486" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A486" t="s">
         <v>691</v>
       </c>
@@ -19397,21 +20258,27 @@
       <c r="D486" s="4" t="s">
         <v>2166</v>
       </c>
-    </row>
-    <row r="487" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E486" s="3" t="s">
+        <v>3449</v>
+      </c>
+    </row>
+    <row r="487" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A487" t="s">
         <v>693</v>
       </c>
       <c r="C487" s="3" t="s">
         <v>2145</v>
       </c>
-    </row>
-    <row r="489" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E487" s="3" t="s">
+        <v>3450</v>
+      </c>
+    </row>
+    <row r="489" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A489" t="s">
         <v>694</v>
       </c>
     </row>
-    <row r="490" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A490" t="s">
         <v>695</v>
       </c>
@@ -19420,7 +20287,7 @@
       </c>
       <c r="D490" s="4"/>
     </row>
-    <row r="491" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A491" t="s">
         <v>696</v>
       </c>
@@ -19429,7 +20296,7 @@
       </c>
       <c r="D491" s="4"/>
     </row>
-    <row r="492" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A492" t="s">
         <v>664</v>
       </c>
@@ -19441,7 +20308,7 @@
       </c>
       <c r="D492" s="4"/>
     </row>
-    <row r="493" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A493" t="s">
         <v>698</v>
       </c>
@@ -19453,7 +20320,7 @@
       </c>
       <c r="D493" s="4"/>
     </row>
-    <row r="494" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A494" t="s">
         <v>700</v>
       </c>
@@ -19462,7 +20329,7 @@
       </c>
       <c r="D494" s="4"/>
     </row>
-    <row r="495" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A495" t="s">
         <v>701</v>
       </c>
@@ -19471,7 +20338,7 @@
       </c>
       <c r="D495" s="4"/>
     </row>
-    <row r="496" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A496" t="s">
         <v>702</v>
       </c>
